--- a/figures/heatmap.xlsx
+++ b/figures/heatmap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Desktop/Review_figures/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B3D77D8-13B8-5B46-BD38-280C49E5C391}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A5E845-72B5-9D41-9FF3-61625250EF8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15660" xr2:uid="{A9C2CF92-978C-AA41-BFCE-FA732D293089}"/>
+    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15660" activeTab="1" xr2:uid="{A9C2CF92-978C-AA41-BFCE-FA732D293089}"/>
   </bookViews>
   <sheets>
     <sheet name="tissue_disease" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="103">
   <si>
     <t>Disease</t>
   </si>
@@ -339,6 +339,9 @@
   </si>
   <si>
     <t>paper number</t>
+  </si>
+  <si>
+    <t>Sputum, BAL or ETAs</t>
   </si>
 </sst>
 </file>
@@ -392,12 +395,6 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -408,6 +405,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -725,123 +728,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FB1AA5-BB65-0E47-B263-AF583DABF612}">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="66" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" s="3" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2" t="s">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
     </row>
     <row r="2" spans="1:24" ht="221" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B4">
@@ -915,7 +918,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B5">
@@ -989,7 +992,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B6">
@@ -1063,7 +1066,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B7">
@@ -1137,7 +1140,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B8">
@@ -1211,7 +1214,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="68" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B9">
@@ -1285,7 +1288,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B10">
@@ -1359,7 +1362,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B11">
@@ -1433,7 +1436,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B12">
@@ -1507,7 +1510,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B13">
@@ -1581,7 +1584,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B14">
@@ -1655,7 +1658,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B15">
@@ -1729,7 +1732,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B16">
@@ -1803,7 +1806,7 @@
       </c>
     </row>
     <row r="17" spans="1:24" ht="85" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B17">
@@ -1877,7 +1880,7 @@
       </c>
     </row>
     <row r="18" spans="1:24" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B18">
@@ -1951,7 +1954,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B19">
@@ -2025,7 +2028,7 @@
       </c>
     </row>
     <row r="20" spans="1:24" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B20">
@@ -2099,7 +2102,7 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B21">
@@ -2236,10 +2239,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A20798-8AC1-D64F-894D-E4ADC74CF8C4}">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2248,96 +2251,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
     </row>
     <row r="2" spans="1:19" ht="221" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B4">
@@ -2396,7 +2399,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B5">
@@ -2455,7 +2458,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B6">
@@ -2513,9 +2516,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>29</v>
+    <row r="7" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2524,13 +2527,13 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -2551,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -2566,15 +2569,15 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>30</v>
+      <c r="A8" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2586,16 +2589,16 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2610,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -2625,15 +2628,15 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>31</v>
+    <row r="9" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2654,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2666,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -2678,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -2691,8 +2694,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>32</v>
+      <c r="A10" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2701,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2731,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -2749,9 +2752,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>33</v>
+    <row r="11" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2760,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2784,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -2809,8 +2812,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>34</v>
+      <c r="A12" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2828,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2855,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -2867,9 +2870,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>35</v>
+    <row r="13" spans="1:19" ht="68" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2887,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2908,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -2927,8 +2930,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>36</v>
+      <c r="A14" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2937,7 +2940,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2955,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -2985,9 +2988,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>37</v>
+    <row r="15" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3045,8 +3048,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>38</v>
+      <c r="A16" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3064,7 +3067,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -3076,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -3100,301 +3103,6 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="68" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
         <v>0</v>
       </c>
     </row>
@@ -3404,7 +3112,7 @@
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="L1:S1"/>
   </mergeCells>
-  <conditionalFormatting sqref="T1:XFD21 A22:XFD1048576">
+  <conditionalFormatting sqref="A17:XFD1048576 T1:XFD16">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3414,7 +3122,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q8">
+  <conditionalFormatting sqref="Q7">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -3426,7 +3134,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20:J20">
+  <conditionalFormatting sqref="H15:J15">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3446,7 +3154,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:S1048576">
+  <conditionalFormatting sqref="A17:S1048576">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3466,8 +3174,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:S21 A1 B2:S2">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="A3:S16 A1 B2:S2">
+    <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3477,7 +3185,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3486,8 +3194,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:S21 A1 B2:S2">
-    <cfRule type="colorScale" priority="9">
+  <conditionalFormatting sqref="A3:S16 A1 B2:S2">
+    <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>

--- a/figures/heatmap.xlsx
+++ b/figures/heatmap.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Desktop/Review_figures/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A5E845-72B5-9D41-9FF3-61625250EF8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5051F46-9FAA-FF49-971D-B7CF7B8AFFED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15660" activeTab="1" xr2:uid="{A9C2CF92-978C-AA41-BFCE-FA732D293089}"/>
+    <workbookView xWindow="800" yWindow="900" windowWidth="27640" windowHeight="15660" activeTab="1" xr2:uid="{A9C2CF92-978C-AA41-BFCE-FA732D293089}"/>
   </bookViews>
   <sheets>
     <sheet name="tissue_disease" sheetId="1" r:id="rId1"/>
     <sheet name="disease_combined" sheetId="2" r:id="rId2"/>
     <sheet name="bioinformatics_tools" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="106">
   <si>
     <t>Disease</t>
   </si>
@@ -341,14 +341,23 @@
     <t>paper number</t>
   </si>
   <si>
-    <t>Sputum, BAL or ETAs</t>
+    <t>KPC-producing Klebsiella pneumoniae and vancomycin-resistant, Enterococcus faecium</t>
+  </si>
+  <si>
+    <t>Sonication fluid or synovial fluid</t>
+  </si>
+  <si>
+    <t>Polymicrobial infections in cystic fibrosis</t>
+  </si>
+  <si>
+    <t>Sputum, BAL or ETAs*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -371,16 +380,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCFCFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBD8DA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -388,11 +416,134 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -406,11 +557,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,46 +922,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FB1AA5-BB65-0E47-B263-AF583DABF612}">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView zoomScale="66" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="66" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
     </row>
     <row r="2" spans="1:24" ht="221" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
+      <c r="A2" s="6"/>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2239,880 +2433,788 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A20798-8AC1-D64F-894D-E4ADC74CF8C4}">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" style="10" customWidth="1"/>
+    <col min="2" max="10" width="10.83203125" style="11"/>
+    <col min="11" max="11" width="12.6640625" style="11" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6" t="s">
+    <row r="1" spans="1:18" s="9" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="15"/>
     </row>
-    <row r="2" spans="1:19" ht="221" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:18" s="10" customFormat="1" ht="134" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="J2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="K2" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" s="2" t="s">
+      <c r="Q2" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="R2" s="24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="27" t="s">
         <v>25</v>
       </c>
+      <c r="E3" s="12"/>
+      <c r="J3" s="16"/>
+      <c r="L3" s="12"/>
+      <c r="R3" s="16"/>
     </row>
-    <row r="4" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="11">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0</v>
+      </c>
+      <c r="J4" s="16">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0</v>
+      </c>
+      <c r="L4" s="13">
+        <v>0</v>
+      </c>
+      <c r="M4" s="11">
+        <v>0</v>
+      </c>
+      <c r="N4" s="11">
+        <v>0</v>
+      </c>
+      <c r="O4" s="11">
+        <v>0</v>
+      </c>
+      <c r="P4" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>0</v>
+      </c>
+      <c r="R4" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
+      <c r="B5" s="11">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0</v>
+      </c>
+      <c r="J5" s="16">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0</v>
+      </c>
+      <c r="L5" s="13">
+        <v>0</v>
+      </c>
+      <c r="M5" s="11">
+        <v>1</v>
+      </c>
+      <c r="N5" s="11">
+        <v>0</v>
+      </c>
+      <c r="O5" s="11">
+        <v>0</v>
+      </c>
+      <c r="P5" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>0</v>
+      </c>
+      <c r="R5" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
+      <c r="B6" s="11">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="11">
+        <v>1</v>
+      </c>
+      <c r="J6" s="16">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0</v>
+      </c>
+      <c r="L6" s="13">
+        <v>0</v>
+      </c>
+      <c r="M6" s="11">
+        <v>0</v>
+      </c>
+      <c r="N6" s="11">
+        <v>0</v>
+      </c>
+      <c r="O6" s="11">
+        <v>0</v>
+      </c>
+      <c r="P6" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>0</v>
+      </c>
+      <c r="R6" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
+      <c r="B7" s="11">
+        <v>0</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
+        <v>5</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0</v>
+      </c>
+      <c r="L7" s="13">
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
+        <v>0</v>
+      </c>
+      <c r="N7" s="11">
+        <v>1</v>
+      </c>
+      <c r="O7" s="11">
+        <v>0</v>
+      </c>
+      <c r="P7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>1</v>
+      </c>
+      <c r="R7" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0</v>
+      </c>
+      <c r="L8" s="13">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
+        <v>0</v>
+      </c>
+      <c r="N8" s="11">
+        <v>0</v>
+      </c>
+      <c r="O8" s="11">
+        <v>0</v>
+      </c>
+      <c r="P8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>0</v>
+      </c>
+      <c r="R8" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="11">
+        <v>0</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0</v>
+      </c>
+      <c r="J9" s="16">
+        <v>0</v>
+      </c>
+      <c r="K9" s="11">
+        <v>1</v>
+      </c>
+      <c r="L9" s="14">
+        <v>1</v>
+      </c>
+      <c r="M9" s="11">
+        <v>0</v>
+      </c>
+      <c r="N9" s="11">
+        <v>0</v>
+      </c>
+      <c r="O9" s="11">
+        <v>0</v>
+      </c>
+      <c r="P9" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>0</v>
+      </c>
+      <c r="R9" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="11">
+        <v>0</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0</v>
+      </c>
+      <c r="J10" s="16">
+        <v>0</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0</v>
+      </c>
+      <c r="L10" s="13">
+        <v>0</v>
+      </c>
+      <c r="M10" s="11">
+        <v>0</v>
+      </c>
+      <c r="N10" s="11">
+        <v>0</v>
+      </c>
+      <c r="O10" s="11">
+        <v>1</v>
+      </c>
+      <c r="P10" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>0</v>
+      </c>
+      <c r="R10" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="16">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="13">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+      <c r="O11" s="11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>0</v>
+      </c>
+      <c r="R11" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="11">
+        <v>0</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0</v>
+      </c>
+      <c r="J12" s="16">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11">
+        <v>0</v>
+      </c>
+      <c r="L12" s="13">
+        <v>0</v>
+      </c>
+      <c r="M12" s="11">
+        <v>0</v>
+      </c>
+      <c r="N12" s="11">
+        <v>0</v>
+      </c>
+      <c r="O12" s="11">
+        <v>0</v>
+      </c>
+      <c r="P12" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>0</v>
+      </c>
+      <c r="R12" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="11">
+        <v>0</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
         <v>3</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
+      <c r="H13" s="11">
+        <v>0</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="16">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0</v>
+      </c>
+      <c r="L13" s="13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0</v>
+      </c>
+      <c r="O13" s="11">
+        <v>0</v>
+      </c>
+      <c r="P13" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>0</v>
+      </c>
+      <c r="R13" s="16">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
+    <row r="14" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="11">
+        <v>0</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0</v>
+      </c>
+      <c r="D14" s="11">
+        <v>4</v>
+      </c>
+      <c r="E14" s="14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+      <c r="J14" s="16">
+        <v>0</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0</v>
+      </c>
+      <c r="L14" s="13">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
+        <v>0</v>
+      </c>
+      <c r="N14" s="11">
+        <v>0</v>
+      </c>
+      <c r="O14" s="11">
+        <v>0</v>
+      </c>
+      <c r="P14" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>0</v>
+      </c>
+      <c r="R14" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="68" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+    <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
+      <c r="B15" s="17">
+        <v>0</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0</v>
+      </c>
+      <c r="G15" s="17">
+        <v>0</v>
+      </c>
+      <c r="H15" s="17">
+        <v>0</v>
+      </c>
+      <c r="I15" s="17">
+        <v>0</v>
+      </c>
+      <c r="J15" s="19">
+        <v>1</v>
+      </c>
+      <c r="K15" s="17">
+        <v>0</v>
+      </c>
+      <c r="L15" s="18">
+        <v>0</v>
+      </c>
+      <c r="M15" s="17">
+        <v>0</v>
+      </c>
+      <c r="N15" s="17">
+        <v>0</v>
+      </c>
+      <c r="O15" s="17">
+        <v>0</v>
+      </c>
+      <c r="P15" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="17">
+        <v>0</v>
+      </c>
+      <c r="R15" s="19">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:R1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A17:XFD1048576 T1:XFD16">
+  <conditionalFormatting sqref="S1:XFD15 A16:XFD1048576">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3122,7 +3224,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q7">
+  <conditionalFormatting sqref="M7">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -3134,17 +3236,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15:J15">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1048576">
+  <conditionalFormatting sqref="M2:XFD15 A16:XFD1048576 A1:XFD1 A2:D15 F2:K15">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3154,8 +3246,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:S1048576">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="M2:R15 A3:D15 A1 B2:D2 F2:K15">
+    <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3165,7 +3257,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="129">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3174,8 +3266,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:S16 A1 B2:S2">
-    <cfRule type="colorScale" priority="71">
+  <conditionalFormatting sqref="M2:R15 A3:D15 A1 B2:D2 F2:K15">
+    <cfRule type="colorScale" priority="140">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:R1048576">
+    <cfRule type="colorScale" priority="182">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3185,17 +3287,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:S16 A1 B2:S2">
-    <cfRule type="colorScale" priority="79">
+    <cfRule type="colorScale" priority="183">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3205,213 +3297,215 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCC52DF-2861-C943-AFB3-5B2E48A96220}">
-  <dimension ref="A1:BD31"/>
+  <dimension ref="A1:BE32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="80" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="17" max="17" width="13.1640625" customWidth="1"/>
-    <col min="32" max="32" width="20.33203125" customWidth="1"/>
-    <col min="41" max="41" width="12.5" customWidth="1"/>
-    <col min="46" max="46" width="12.6640625" customWidth="1"/>
-    <col min="54" max="54" width="13.6640625" customWidth="1"/>
-    <col min="56" max="56" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.1640625" customWidth="1"/>
+    <col min="33" max="33" width="20.33203125" customWidth="1"/>
+    <col min="42" max="42" width="12.5" customWidth="1"/>
+    <col min="47" max="47" width="12.6640625" customWidth="1"/>
+    <col min="55" max="55" width="13.6640625" customWidth="1"/>
+    <col min="57" max="57" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>52</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>53</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>54</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>55</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>56</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>57</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>58</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>59</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>61</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>62</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>63</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>64</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>65</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>66</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>67</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>68</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>69</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>71</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>72</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>73</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>74</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>75</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>76</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>77</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>78</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>79</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>80</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>81</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>82</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>83</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>84</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>85</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>86</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>87</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>88</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>89</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>90</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>91</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>92</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>93</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>94</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>95</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>96</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>97</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>98</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>99</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>0</v>
+    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <f>SUM(C3:BE3)</f>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3420,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -3572,19 +3666,23 @@
       <c r="BD3">
         <v>0</v>
       </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
+    <row r="4" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <f t="shared" ref="A4:A31" si="0">SUM(C4:BE4)</f>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3599,19 +3697,19 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -3638,10 +3736,10 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -3742,37 +3840,41 @@
       <c r="BD4">
         <v>0</v>
       </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -3802,10 +3904,10 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -3912,13 +4014,17 @@
       <c r="BD5">
         <v>0</v>
       </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -4011,10 +4117,10 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -4053,10 +4159,10 @@
         <v>0</v>
       </c>
       <c r="AU6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW6">
         <v>0</v>
@@ -4077,19 +4183,23 @@
         <v>0</v>
       </c>
       <c r="BC6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD6">
+        <v>1</v>
+      </c>
+      <c r="BE6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B7">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
       <c r="C7">
         <v>0</v>
       </c>
@@ -4145,10 +4255,10 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -4241,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="BA7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC7">
         <v>0</v>
@@ -4252,22 +4362,26 @@
       <c r="BD7">
         <v>0</v>
       </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B8">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4276,19 +4390,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -4297,19 +4411,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -4321,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8">
         <v>1</v>
@@ -4336,7 +4450,7 @@
         <v>1</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -4422,28 +4536,32 @@
       <c r="BD8">
         <v>0</v>
       </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B9">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -4458,10 +4576,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -4592,22 +4710,26 @@
       <c r="BD9">
         <v>0</v>
       </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B10">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4619,10 +4741,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -4652,16 +4774,16 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -4762,14 +4884,18 @@
       <c r="BD10">
         <v>0</v>
       </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B11">
         <v>8</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
       <c r="C11">
         <v>0</v>
       </c>
@@ -4879,10 +5005,10 @@
         <v>0</v>
       </c>
       <c r="AM11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO11">
         <v>0</v>
@@ -4912,16 +5038,16 @@
         <v>0</v>
       </c>
       <c r="AX11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB11">
         <v>0</v>
@@ -4932,16 +5058,20 @@
       <c r="BD11">
         <v>0</v>
       </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B12">
         <v>9</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -4953,13 +5083,13 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -5019,13 +5149,13 @@
         <v>0</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12">
         <v>1</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -5079,10 +5209,10 @@
         <v>0</v>
       </c>
       <c r="AW12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY12">
         <v>0</v>
@@ -5102,28 +5232,32 @@
       <c r="BD12">
         <v>0</v>
       </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B13">
         <v>10</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -5141,10 +5275,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -5186,10 +5320,10 @@
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -5272,25 +5406,29 @@
       <c r="BD13">
         <v>0</v>
       </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B14">
         <v>11</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -5442,16 +5580,20 @@
       <c r="BD14">
         <v>0</v>
       </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B15">
         <v>12</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -5490,10 +5632,10 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -5553,10 +5695,10 @@
         <v>0</v>
       </c>
       <c r="AK15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM15">
         <v>0</v>
@@ -5580,16 +5722,16 @@
         <v>0</v>
       </c>
       <c r="AT15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX15">
         <v>0</v>
@@ -5612,16 +5754,20 @@
       <c r="BD15">
         <v>0</v>
       </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B16">
         <v>13</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -5765,10 +5911,10 @@
         <v>0</v>
       </c>
       <c r="AY16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA16">
         <v>0</v>
@@ -5782,25 +5928,29 @@
       <c r="BD16">
         <v>0</v>
       </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B17">
         <v>14</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -5830,10 +5980,10 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -5952,14 +6102,18 @@
       <c r="BD17">
         <v>0</v>
       </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B18">
         <v>15</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
       <c r="C18">
         <v>0</v>
       </c>
@@ -5967,10 +6121,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -6081,10 +6235,10 @@
         <v>0</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS18">
         <v>0</v>
@@ -6122,14 +6276,18 @@
       <c r="BD18">
         <v>0</v>
       </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B19">
         <v>16</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
       <c r="C19">
         <v>0</v>
       </c>
@@ -6209,10 +6367,10 @@
         <v>0</v>
       </c>
       <c r="AC19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE19">
         <v>0</v>
@@ -6292,14 +6450,18 @@
       <c r="BD19">
         <v>0</v>
       </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B20">
         <v>17</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
       <c r="C20">
         <v>0</v>
       </c>
@@ -6394,10 +6556,10 @@
         <v>0</v>
       </c>
       <c r="AH20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ20">
         <v>0</v>
@@ -6415,10 +6577,10 @@
         <v>0</v>
       </c>
       <c r="AO20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
         <v>0</v>
@@ -6462,14 +6624,18 @@
       <c r="BD20">
         <v>0</v>
       </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B21">
         <v>18</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
       <c r="C21">
         <v>0</v>
       </c>
@@ -6477,10 +6643,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -6492,10 +6658,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -6513,16 +6679,16 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -6555,10 +6721,10 @@
         <v>0</v>
       </c>
       <c r="AE21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG21">
         <v>0</v>
@@ -6632,28 +6798,32 @@
       <c r="BD21">
         <v>0</v>
       </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B22">
         <v>19</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -6674,10 +6844,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -6716,10 +6886,10 @@
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD22">
         <v>0</v>
@@ -6802,14 +6972,18 @@
       <c r="BD22">
         <v>0</v>
       </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B23">
         <v>20</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
       <c r="C23">
         <v>0</v>
       </c>
@@ -6817,10 +6991,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -6832,10 +7006,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -6853,16 +7027,16 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -6972,16 +7146,20 @@
       <c r="BD23">
         <v>0</v>
       </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B24">
         <v>21</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -6993,13 +7171,13 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -7062,10 +7240,10 @@
         <v>0</v>
       </c>
       <c r="AD24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -7134,22 +7312,26 @@
         <v>0</v>
       </c>
       <c r="BB24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD24">
         <v>0</v>
       </c>
+      <c r="BE24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B25">
         <v>22</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
       <c r="C25">
         <v>0</v>
       </c>
@@ -7312,22 +7494,26 @@
       <c r="BD25">
         <v>0</v>
       </c>
+      <c r="BE25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B26">
         <v>23</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -7336,19 +7522,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -7357,19 +7543,19 @@
         <v>0</v>
       </c>
       <c r="O26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26">
         <v>0</v>
@@ -7381,7 +7567,7 @@
         <v>0</v>
       </c>
       <c r="W26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26">
         <v>1</v>
@@ -7396,7 +7582,7 @@
         <v>1</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -7482,14 +7668,18 @@
       <c r="BD26">
         <v>0</v>
       </c>
+      <c r="BE26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B27">
         <v>24</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
       <c r="C27">
         <v>0</v>
       </c>
@@ -7500,10 +7690,10 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -7602,25 +7792,25 @@
         <v>0</v>
       </c>
       <c r="AN27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU27">
         <v>0</v>
@@ -7652,14 +7842,18 @@
       <c r="BD27">
         <v>0</v>
       </c>
+      <c r="BE27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B28">
         <v>25</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
       <c r="C28">
         <v>0</v>
       </c>
@@ -7673,10 +7867,10 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -7757,19 +7951,19 @@
         <v>0</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK28">
         <v>0</v>
       </c>
       <c r="AL28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN28">
         <v>0</v>
@@ -7784,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="AR28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT28">
         <v>0</v>
@@ -7820,16 +8014,20 @@
         <v>0</v>
       </c>
       <c r="BD28">
+        <v>0</v>
+      </c>
+      <c r="BE28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="29" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B29">
         <v>26</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
       <c r="C29">
         <v>0</v>
       </c>
@@ -7843,10 +8041,10 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -7918,10 +8116,10 @@
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH29">
         <v>0</v>
@@ -7930,10 +8128,10 @@
         <v>0</v>
       </c>
       <c r="AJ29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL29">
         <v>0</v>
@@ -7992,14 +8190,18 @@
       <c r="BD29">
         <v>0</v>
       </c>
+      <c r="BE29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B30">
         <v>27</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
       <c r="C30">
         <v>0</v>
       </c>
@@ -8010,10 +8212,10 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -8162,14 +8364,18 @@
       <c r="BD30">
         <v>0</v>
       </c>
+      <c r="BE30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A31">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B31">
         <v>28</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
       <c r="C31">
         <v>0</v>
       </c>
@@ -8201,13 +8407,13 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31">
         <v>1</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -8331,10 +8537,235 @@
       </c>
       <c r="BD31">
         <v>0</v>
+      </c>
+      <c r="BE31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:57" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="5">
+        <f>SUM(C3:C31)</f>
+        <v>8</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" ref="D32:BE32" si="1">SUM(D3:D31)</f>
+        <v>7</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H32" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I32" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J32" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K32" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L32" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M32" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N32" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="O32" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P32" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Q32" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R32" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S32" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T32" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U32" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="V32" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W32" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="X32" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Y32" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Z32" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AA32" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AB32" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AC32" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AD32" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AE32" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AF32" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AG32" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AH32" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AI32" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AJ32" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AK32" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AL32" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AM32" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AN32" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AO32" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AP32" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AQ32" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AR32" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AS32" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AT32" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AU32" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AV32" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AW32" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AX32" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY32" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AZ32" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BA32" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BB32" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BC32" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BD32" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BE32" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:BD31">
+  <conditionalFormatting sqref="C3:BE31">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/figures/heatmap.xlsx
+++ b/figures/heatmap.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Desktop/Review_figures/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57ED6743-E5A9-414C-9D49-D7DDF23A678E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9F0F8F-C35F-9E41-947E-1A1E5DB9BAB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="760" windowWidth="27640" windowHeight="15660" activeTab="2" xr2:uid="{A9C2CF92-978C-AA41-BFCE-FA732D293089}"/>
+    <workbookView xWindow="800" yWindow="760" windowWidth="27640" windowHeight="15660" activeTab="5" xr2:uid="{A9C2CF92-978C-AA41-BFCE-FA732D293089}"/>
   </bookViews>
   <sheets>
     <sheet name="tissue_disease" sheetId="1" r:id="rId1"/>
     <sheet name="disease_combined" sheetId="2" r:id="rId2"/>
     <sheet name="bioinformatics_tools" sheetId="3" r:id="rId3"/>
-    <sheet name="more than twice" sheetId="4" r:id="rId4"/>
+    <sheet name="more than once" sheetId="4" r:id="rId4"/>
+    <sheet name="tissue&amp;tools" sheetId="5" r:id="rId5"/>
+    <sheet name="tissue&amp;methods" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="114">
   <si>
     <t>Disease</t>
   </si>
@@ -356,6 +358,27 @@
   <si>
     <t>Paper number</t>
   </si>
+  <si>
+    <t>Blood</t>
+  </si>
+  <si>
+    <t>Sputum/BAL/ETAs</t>
+  </si>
+  <si>
+    <t>Feces</t>
+  </si>
+  <si>
+    <t>Host-DNA depletion</t>
+  </si>
+  <si>
+    <t>Microbial enrichment</t>
+  </si>
+  <si>
+    <t>Neither</t>
+  </si>
+  <si>
+    <t>Microbial DNA isolation methods</t>
+  </si>
 </sst>
 </file>
 
@@ -392,7 +415,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -411,8 +434,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF63BE7B"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -558,11 +587,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -607,24 +656,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -654,6 +685,109 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -978,39 +1112,39 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
     </row>
     <row r="2" spans="1:24" ht="221" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2485,7 +2619,7 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="A3" sqref="A3:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2497,33 +2631,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="6" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="26" t="s">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="27"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="37"/>
     </row>
     <row r="2" spans="1:18" s="7" customFormat="1" ht="134" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25"/>
+      <c r="A2" s="35"/>
       <c r="B2" s="20" t="s">
         <v>3</v>
       </c>
@@ -3354,7 +3488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCC52DF-2861-C943-AFB3-5B2E48A96220}">
   <dimension ref="A1:BD32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="110" workbookViewId="0">
       <selection activeCell="AL42" sqref="AL42"/>
     </sheetView>
   </sheetViews>
@@ -3544,7 +3678,7 @@
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
-        <f>SUM(C3:BD3)</f>
+        <f t="shared" ref="A3:A31" si="0">SUM(C3:BD3)</f>
         <v>3</v>
       </c>
       <c r="B3">
@@ -3715,7 +3849,7 @@
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
-        <f>SUM(C4:BD4)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B4">
@@ -3886,7 +4020,7 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
-        <f>SUM(C5:BD5)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B5">
@@ -4057,7 +4191,7 @@
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
-        <f>SUM(C6:BD6)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B6">
@@ -4228,7 +4362,7 @@
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
-        <f>SUM(C7:BD7)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B7">
@@ -4399,7 +4533,7 @@
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
-        <f>SUM(C8:BD8)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B8">
@@ -4570,7 +4704,7 @@
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
-        <f>SUM(C9:BD9)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B9">
@@ -4741,7 +4875,7 @@
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
-        <f>SUM(C10:BD10)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B10">
@@ -4912,7 +5046,7 @@
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
-        <f>SUM(C11:BD11)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B11">
@@ -5083,7 +5217,7 @@
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
-        <f>SUM(C12:BD12)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B12">
@@ -5254,7 +5388,7 @@
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
-        <f>SUM(C13:BD13)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B13">
@@ -5425,7 +5559,7 @@
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
-        <f>SUM(C14:BD14)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B14">
@@ -5596,7 +5730,7 @@
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
-        <f>SUM(C15:BD15)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B15">
@@ -5767,7 +5901,7 @@
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
-        <f>SUM(C16:BD16)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B16">
@@ -5938,7 +6072,7 @@
     </row>
     <row r="17" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
-        <f>SUM(C17:BD17)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B17">
@@ -6109,7 +6243,7 @@
     </row>
     <row r="18" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
-        <f>SUM(C18:BD18)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B18">
@@ -6280,7 +6414,7 @@
     </row>
     <row r="19" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
-        <f>SUM(C19:BD19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B19">
@@ -6451,7 +6585,7 @@
     </row>
     <row r="20" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
-        <f>SUM(C20:BD20)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B20">
@@ -6622,7 +6756,7 @@
     </row>
     <row r="21" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
-        <f>SUM(C21:BD21)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B21">
@@ -6793,7 +6927,7 @@
     </row>
     <row r="22" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
-        <f>SUM(C22:BD22)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B22">
@@ -6964,7 +7098,7 @@
     </row>
     <row r="23" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
-        <f>SUM(C23:BD23)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B23">
@@ -7135,7 +7269,7 @@
     </row>
     <row r="24" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
-        <f>SUM(C24:BD24)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B24">
@@ -7306,7 +7440,7 @@
     </row>
     <row r="25" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
-        <f>SUM(C25:BD25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B25">
@@ -7477,7 +7611,7 @@
     </row>
     <row r="26" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
-        <f>SUM(C26:BD26)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B26">
@@ -7648,7 +7782,7 @@
     </row>
     <row r="27" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
-        <f>SUM(C27:BD27)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B27">
@@ -7819,7 +7953,7 @@
     </row>
     <row r="28" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
-        <f>SUM(C28:BD28)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B28">
@@ -7990,7 +8124,7 @@
     </row>
     <row r="29" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
-        <f>SUM(C29:BD29)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B29">
@@ -8161,7 +8295,7 @@
     </row>
     <row r="30" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
-        <f>SUM(C30:BD30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B30">
@@ -8332,7 +8466,7 @@
     </row>
     <row r="31" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
-        <f>SUM(C31:BD31)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B31">
@@ -8507,215 +8641,215 @@
         <v>9</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" ref="D32:BD32" si="0">SUM(D3:D31)</f>
+        <f t="shared" ref="D32:BD32" si="1">SUM(D3:D31)</f>
         <v>7</v>
       </c>
       <c r="E32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="L32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="M32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="N32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="O32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="P32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Q32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="R32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="S32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="T32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="U32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="V32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="W32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="X32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Y32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Z32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AA32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AB32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AC32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AD32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AE32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AG32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AH32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AI32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AJ32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AK32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AL32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AM32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AN32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AO32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AP32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AQ32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AR32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AS32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AT32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AU32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AV32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AW32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AX32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AY32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AZ32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="BA32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="BB32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="BC32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="BD32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -8740,7 +8874,7 @@
   <dimension ref="A1:AC31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:AC31"/>
+      <selection activeCell="B15" sqref="B15:AC15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8750,2705 +8884,2705 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="P1" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="Q1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="R1" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="S1" s="29" t="s">
+      <c r="S1" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="T1" s="29" t="s">
+      <c r="T1" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="U1" s="29" t="s">
+      <c r="U1" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="V1" s="29" t="s">
+      <c r="V1" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="W1" s="29" t="s">
+      <c r="W1" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="X1" s="29" t="s">
+      <c r="X1" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="Y1" s="29" t="s">
+      <c r="Y1" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="Z1" s="29" t="s">
+      <c r="Z1" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="29" t="s">
+      <c r="AA1" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="AB1" s="29" t="s">
+      <c r="AB1" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AC1" s="30" t="s">
+      <c r="AC1" s="24" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="33"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="27"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3" s="34">
-        <v>0</v>
-      </c>
-      <c r="B3" s="32">
-        <v>0</v>
-      </c>
-      <c r="C3" s="32">
-        <v>1</v>
-      </c>
-      <c r="D3" s="32">
-        <v>1</v>
-      </c>
-      <c r="E3" s="32">
-        <v>1</v>
-      </c>
-      <c r="F3" s="32">
-        <v>0</v>
-      </c>
-      <c r="G3" s="32">
-        <v>0</v>
-      </c>
-      <c r="H3" s="32">
-        <v>0</v>
-      </c>
-      <c r="I3" s="32">
-        <v>0</v>
-      </c>
-      <c r="J3" s="32">
-        <v>0</v>
-      </c>
-      <c r="K3" s="32">
-        <v>0</v>
-      </c>
-      <c r="L3" s="32">
-        <v>0</v>
-      </c>
-      <c r="M3" s="32">
-        <v>0</v>
-      </c>
-      <c r="N3" s="32">
-        <v>0</v>
-      </c>
-      <c r="O3" s="32">
-        <v>0</v>
-      </c>
-      <c r="P3" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="32">
-        <v>0</v>
-      </c>
-      <c r="R3" s="32">
-        <v>0</v>
-      </c>
-      <c r="S3" s="32">
-        <v>0</v>
-      </c>
-      <c r="T3" s="32">
-        <v>0</v>
-      </c>
-      <c r="U3" s="32">
-        <v>0</v>
-      </c>
-      <c r="V3" s="32">
-        <v>0</v>
-      </c>
-      <c r="W3" s="32">
-        <v>0</v>
-      </c>
-      <c r="X3" s="32">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="32">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="32">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="33">
+      <c r="A3" s="28">
+        <v>0</v>
+      </c>
+      <c r="B3" s="26">
+        <v>0</v>
+      </c>
+      <c r="C3" s="26">
+        <v>1</v>
+      </c>
+      <c r="D3" s="26">
+        <v>1</v>
+      </c>
+      <c r="E3" s="26">
+        <v>1</v>
+      </c>
+      <c r="F3" s="26">
+        <v>0</v>
+      </c>
+      <c r="G3" s="26">
+        <v>0</v>
+      </c>
+      <c r="H3" s="26">
+        <v>0</v>
+      </c>
+      <c r="I3" s="26">
+        <v>0</v>
+      </c>
+      <c r="J3" s="26">
+        <v>0</v>
+      </c>
+      <c r="K3" s="26">
+        <v>0</v>
+      </c>
+      <c r="L3" s="26">
+        <v>0</v>
+      </c>
+      <c r="M3" s="26">
+        <v>0</v>
+      </c>
+      <c r="N3" s="26">
+        <v>0</v>
+      </c>
+      <c r="O3" s="26">
+        <v>0</v>
+      </c>
+      <c r="P3" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="26">
+        <v>0</v>
+      </c>
+      <c r="R3" s="26">
+        <v>0</v>
+      </c>
+      <c r="S3" s="26">
+        <v>0</v>
+      </c>
+      <c r="T3" s="26">
+        <v>0</v>
+      </c>
+      <c r="U3" s="26">
+        <v>0</v>
+      </c>
+      <c r="V3" s="26">
+        <v>0</v>
+      </c>
+      <c r="W3" s="26">
+        <v>0</v>
+      </c>
+      <c r="X3" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A4" s="34">
-        <v>1</v>
-      </c>
-      <c r="B4" s="32">
-        <v>0</v>
-      </c>
-      <c r="C4" s="32">
-        <v>1</v>
-      </c>
-      <c r="D4" s="32">
-        <v>0</v>
-      </c>
-      <c r="E4" s="32">
-        <v>0</v>
-      </c>
-      <c r="F4" s="32">
-        <v>0</v>
-      </c>
-      <c r="G4" s="32">
-        <v>0</v>
-      </c>
-      <c r="H4" s="32">
-        <v>0</v>
-      </c>
-      <c r="I4" s="32">
-        <v>1</v>
-      </c>
-      <c r="J4" s="32">
-        <v>0</v>
-      </c>
-      <c r="K4" s="32">
-        <v>0</v>
-      </c>
-      <c r="L4" s="32">
-        <v>1</v>
-      </c>
-      <c r="M4" s="32">
-        <v>0</v>
-      </c>
-      <c r="N4" s="32">
-        <v>0</v>
-      </c>
-      <c r="O4" s="32">
-        <v>0</v>
-      </c>
-      <c r="P4" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="32">
-        <v>0</v>
-      </c>
-      <c r="R4" s="32">
-        <v>0</v>
-      </c>
-      <c r="S4" s="32">
-        <v>0</v>
-      </c>
-      <c r="T4" s="32">
-        <v>0</v>
-      </c>
-      <c r="U4" s="32">
-        <v>1</v>
-      </c>
-      <c r="V4" s="32">
-        <v>0</v>
-      </c>
-      <c r="W4" s="32">
-        <v>0</v>
-      </c>
-      <c r="X4" s="32">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="32">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="32">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="33">
+      <c r="A4" s="28">
+        <v>1</v>
+      </c>
+      <c r="B4" s="26">
+        <v>0</v>
+      </c>
+      <c r="C4" s="26">
+        <v>1</v>
+      </c>
+      <c r="D4" s="26">
+        <v>0</v>
+      </c>
+      <c r="E4" s="26">
+        <v>0</v>
+      </c>
+      <c r="F4" s="26">
+        <v>0</v>
+      </c>
+      <c r="G4" s="26">
+        <v>0</v>
+      </c>
+      <c r="H4" s="26">
+        <v>0</v>
+      </c>
+      <c r="I4" s="26">
+        <v>1</v>
+      </c>
+      <c r="J4" s="26">
+        <v>0</v>
+      </c>
+      <c r="K4" s="26">
+        <v>0</v>
+      </c>
+      <c r="L4" s="26">
+        <v>1</v>
+      </c>
+      <c r="M4" s="26">
+        <v>0</v>
+      </c>
+      <c r="N4" s="26">
+        <v>0</v>
+      </c>
+      <c r="O4" s="26">
+        <v>0</v>
+      </c>
+      <c r="P4" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="26">
+        <v>0</v>
+      </c>
+      <c r="R4" s="26">
+        <v>0</v>
+      </c>
+      <c r="S4" s="26">
+        <v>0</v>
+      </c>
+      <c r="T4" s="26">
+        <v>0</v>
+      </c>
+      <c r="U4" s="26">
+        <v>1</v>
+      </c>
+      <c r="V4" s="26">
+        <v>0</v>
+      </c>
+      <c r="W4" s="26">
+        <v>0</v>
+      </c>
+      <c r="X4" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A5" s="34">
+      <c r="A5" s="28">
         <v>2</v>
       </c>
-      <c r="B5" s="32">
-        <v>1</v>
-      </c>
-      <c r="C5" s="32">
-        <v>1</v>
-      </c>
-      <c r="D5" s="32">
-        <v>0</v>
-      </c>
-      <c r="E5" s="32">
-        <v>0</v>
-      </c>
-      <c r="F5" s="32">
-        <v>1</v>
-      </c>
-      <c r="G5" s="32">
-        <v>0</v>
-      </c>
-      <c r="H5" s="32">
-        <v>0</v>
-      </c>
-      <c r="I5" s="32">
-        <v>1</v>
-      </c>
-      <c r="J5" s="32">
-        <v>0</v>
-      </c>
-      <c r="K5" s="32">
-        <v>0</v>
-      </c>
-      <c r="L5" s="32">
-        <v>0</v>
-      </c>
-      <c r="M5" s="32">
-        <v>0</v>
-      </c>
-      <c r="N5" s="32">
-        <v>0</v>
-      </c>
-      <c r="O5" s="32">
-        <v>0</v>
-      </c>
-      <c r="P5" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="32">
-        <v>0</v>
-      </c>
-      <c r="R5" s="32">
-        <v>0</v>
-      </c>
-      <c r="S5" s="32">
-        <v>0</v>
-      </c>
-      <c r="T5" s="32">
-        <v>1</v>
-      </c>
-      <c r="U5" s="32">
-        <v>0</v>
-      </c>
-      <c r="V5" s="32">
-        <v>0</v>
-      </c>
-      <c r="W5" s="32">
-        <v>0</v>
-      </c>
-      <c r="X5" s="32">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="32">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="32">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="33">
+      <c r="B5" s="26">
+        <v>1</v>
+      </c>
+      <c r="C5" s="26">
+        <v>1</v>
+      </c>
+      <c r="D5" s="26">
+        <v>0</v>
+      </c>
+      <c r="E5" s="26">
+        <v>0</v>
+      </c>
+      <c r="F5" s="26">
+        <v>1</v>
+      </c>
+      <c r="G5" s="26">
+        <v>0</v>
+      </c>
+      <c r="H5" s="26">
+        <v>0</v>
+      </c>
+      <c r="I5" s="26">
+        <v>1</v>
+      </c>
+      <c r="J5" s="26">
+        <v>0</v>
+      </c>
+      <c r="K5" s="26">
+        <v>0</v>
+      </c>
+      <c r="L5" s="26">
+        <v>0</v>
+      </c>
+      <c r="M5" s="26">
+        <v>0</v>
+      </c>
+      <c r="N5" s="26">
+        <v>0</v>
+      </c>
+      <c r="O5" s="26">
+        <v>0</v>
+      </c>
+      <c r="P5" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="26">
+        <v>0</v>
+      </c>
+      <c r="R5" s="26">
+        <v>0</v>
+      </c>
+      <c r="S5" s="26">
+        <v>0</v>
+      </c>
+      <c r="T5" s="26">
+        <v>1</v>
+      </c>
+      <c r="U5" s="26">
+        <v>0</v>
+      </c>
+      <c r="V5" s="26">
+        <v>0</v>
+      </c>
+      <c r="W5" s="26">
+        <v>0</v>
+      </c>
+      <c r="X5" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A6" s="34">
+      <c r="A6" s="28">
         <v>3</v>
       </c>
-      <c r="B6" s="32">
-        <v>0</v>
-      </c>
-      <c r="C6" s="32">
-        <v>0</v>
-      </c>
-      <c r="D6" s="32">
-        <v>0</v>
-      </c>
-      <c r="E6" s="32">
-        <v>0</v>
-      </c>
-      <c r="F6" s="32">
-        <v>0</v>
-      </c>
-      <c r="G6" s="32">
-        <v>0</v>
-      </c>
-      <c r="H6" s="32">
-        <v>0</v>
-      </c>
-      <c r="I6" s="32">
-        <v>0</v>
-      </c>
-      <c r="J6" s="32">
-        <v>0</v>
-      </c>
-      <c r="K6" s="32">
-        <v>0</v>
-      </c>
-      <c r="L6" s="32">
-        <v>0</v>
-      </c>
-      <c r="M6" s="32">
-        <v>0</v>
-      </c>
-      <c r="N6" s="32">
-        <v>0</v>
-      </c>
-      <c r="O6" s="32">
-        <v>0</v>
-      </c>
-      <c r="P6" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="32">
-        <v>0</v>
-      </c>
-      <c r="R6" s="32">
-        <v>0</v>
-      </c>
-      <c r="S6" s="32">
-        <v>0</v>
-      </c>
-      <c r="T6" s="32">
-        <v>0</v>
-      </c>
-      <c r="U6" s="32">
-        <v>0</v>
-      </c>
-      <c r="V6" s="32">
-        <v>0</v>
-      </c>
-      <c r="W6" s="32">
-        <v>0</v>
-      </c>
-      <c r="X6" s="32">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="32">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="32">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="33">
+      <c r="B6" s="26">
+        <v>0</v>
+      </c>
+      <c r="C6" s="26">
+        <v>0</v>
+      </c>
+      <c r="D6" s="26">
+        <v>0</v>
+      </c>
+      <c r="E6" s="26">
+        <v>0</v>
+      </c>
+      <c r="F6" s="26">
+        <v>0</v>
+      </c>
+      <c r="G6" s="26">
+        <v>0</v>
+      </c>
+      <c r="H6" s="26">
+        <v>0</v>
+      </c>
+      <c r="I6" s="26">
+        <v>0</v>
+      </c>
+      <c r="J6" s="26">
+        <v>0</v>
+      </c>
+      <c r="K6" s="26">
+        <v>0</v>
+      </c>
+      <c r="L6" s="26">
+        <v>0</v>
+      </c>
+      <c r="M6" s="26">
+        <v>0</v>
+      </c>
+      <c r="N6" s="26">
+        <v>0</v>
+      </c>
+      <c r="O6" s="26">
+        <v>0</v>
+      </c>
+      <c r="P6" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="26">
+        <v>0</v>
+      </c>
+      <c r="R6" s="26">
+        <v>0</v>
+      </c>
+      <c r="S6" s="26">
+        <v>0</v>
+      </c>
+      <c r="T6" s="26">
+        <v>0</v>
+      </c>
+      <c r="U6" s="26">
+        <v>0</v>
+      </c>
+      <c r="V6" s="26">
+        <v>0</v>
+      </c>
+      <c r="W6" s="26">
+        <v>0</v>
+      </c>
+      <c r="X6" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A7" s="34">
+      <c r="A7" s="28">
         <v>4</v>
       </c>
-      <c r="B7" s="32">
-        <v>1</v>
-      </c>
-      <c r="C7" s="32">
-        <v>0</v>
-      </c>
-      <c r="D7" s="32">
-        <v>0</v>
-      </c>
-      <c r="E7" s="32">
-        <v>0</v>
-      </c>
-      <c r="F7" s="32">
-        <v>0</v>
-      </c>
-      <c r="G7" s="32">
-        <v>0</v>
-      </c>
-      <c r="H7" s="32">
-        <v>0</v>
-      </c>
-      <c r="I7" s="32">
-        <v>0</v>
-      </c>
-      <c r="J7" s="32">
-        <v>0</v>
-      </c>
-      <c r="K7" s="32">
-        <v>0</v>
-      </c>
-      <c r="L7" s="32">
-        <v>0</v>
-      </c>
-      <c r="M7" s="32">
-        <v>0</v>
-      </c>
-      <c r="N7" s="32">
-        <v>0</v>
-      </c>
-      <c r="O7" s="32">
-        <v>0</v>
-      </c>
-      <c r="P7" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="32">
-        <v>0</v>
-      </c>
-      <c r="R7" s="32">
-        <v>0</v>
-      </c>
-      <c r="S7" s="32">
-        <v>0</v>
-      </c>
-      <c r="T7" s="32">
-        <v>0</v>
-      </c>
-      <c r="U7" s="32">
-        <v>0</v>
-      </c>
-      <c r="V7" s="32">
-        <v>0</v>
-      </c>
-      <c r="W7" s="32">
-        <v>0</v>
-      </c>
-      <c r="X7" s="32">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="32">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="32">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="33">
+      <c r="B7" s="26">
+        <v>1</v>
+      </c>
+      <c r="C7" s="26">
+        <v>0</v>
+      </c>
+      <c r="D7" s="26">
+        <v>0</v>
+      </c>
+      <c r="E7" s="26">
+        <v>0</v>
+      </c>
+      <c r="F7" s="26">
+        <v>0</v>
+      </c>
+      <c r="G7" s="26">
+        <v>0</v>
+      </c>
+      <c r="H7" s="26">
+        <v>0</v>
+      </c>
+      <c r="I7" s="26">
+        <v>0</v>
+      </c>
+      <c r="J7" s="26">
+        <v>0</v>
+      </c>
+      <c r="K7" s="26">
+        <v>0</v>
+      </c>
+      <c r="L7" s="26">
+        <v>0</v>
+      </c>
+      <c r="M7" s="26">
+        <v>0</v>
+      </c>
+      <c r="N7" s="26">
+        <v>0</v>
+      </c>
+      <c r="O7" s="26">
+        <v>0</v>
+      </c>
+      <c r="P7" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="26">
+        <v>0</v>
+      </c>
+      <c r="R7" s="26">
+        <v>0</v>
+      </c>
+      <c r="S7" s="26">
+        <v>0</v>
+      </c>
+      <c r="T7" s="26">
+        <v>0</v>
+      </c>
+      <c r="U7" s="26">
+        <v>0</v>
+      </c>
+      <c r="V7" s="26">
+        <v>0</v>
+      </c>
+      <c r="W7" s="26">
+        <v>0</v>
+      </c>
+      <c r="X7" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A8" s="34">
+      <c r="A8" s="28">
         <v>5</v>
       </c>
-      <c r="B8" s="32">
-        <v>1</v>
-      </c>
-      <c r="C8" s="32">
-        <v>0</v>
-      </c>
-      <c r="D8" s="32">
-        <v>1</v>
-      </c>
-      <c r="E8" s="32">
-        <v>0</v>
-      </c>
-      <c r="F8" s="32">
-        <v>0</v>
-      </c>
-      <c r="G8" s="32">
-        <v>0</v>
-      </c>
-      <c r="H8" s="32">
-        <v>1</v>
-      </c>
-      <c r="I8" s="32">
-        <v>0</v>
-      </c>
-      <c r="J8" s="32">
-        <v>0</v>
-      </c>
-      <c r="K8" s="32">
-        <v>1</v>
-      </c>
-      <c r="L8" s="32">
-        <v>0</v>
-      </c>
-      <c r="M8" s="32">
-        <v>0</v>
-      </c>
-      <c r="N8" s="32">
-        <v>0</v>
-      </c>
-      <c r="O8" s="32">
-        <v>1</v>
-      </c>
-      <c r="P8" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="32">
-        <v>0</v>
-      </c>
-      <c r="R8" s="32">
-        <v>1</v>
-      </c>
-      <c r="S8" s="32">
-        <v>0</v>
-      </c>
-      <c r="T8" s="32">
-        <v>0</v>
-      </c>
-      <c r="U8" s="32">
-        <v>0</v>
-      </c>
-      <c r="V8" s="32">
-        <v>1</v>
-      </c>
-      <c r="W8" s="32">
-        <v>1</v>
-      </c>
-      <c r="X8" s="32">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="32">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="32">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="32">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="32">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="33">
+      <c r="B8" s="26">
+        <v>1</v>
+      </c>
+      <c r="C8" s="26">
+        <v>0</v>
+      </c>
+      <c r="D8" s="26">
+        <v>1</v>
+      </c>
+      <c r="E8" s="26">
+        <v>0</v>
+      </c>
+      <c r="F8" s="26">
+        <v>0</v>
+      </c>
+      <c r="G8" s="26">
+        <v>0</v>
+      </c>
+      <c r="H8" s="26">
+        <v>1</v>
+      </c>
+      <c r="I8" s="26">
+        <v>0</v>
+      </c>
+      <c r="J8" s="26">
+        <v>0</v>
+      </c>
+      <c r="K8" s="26">
+        <v>1</v>
+      </c>
+      <c r="L8" s="26">
+        <v>0</v>
+      </c>
+      <c r="M8" s="26">
+        <v>0</v>
+      </c>
+      <c r="N8" s="26">
+        <v>0</v>
+      </c>
+      <c r="O8" s="26">
+        <v>1</v>
+      </c>
+      <c r="P8" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="26">
+        <v>0</v>
+      </c>
+      <c r="R8" s="26">
+        <v>1</v>
+      </c>
+      <c r="S8" s="26">
+        <v>0</v>
+      </c>
+      <c r="T8" s="26">
+        <v>0</v>
+      </c>
+      <c r="U8" s="26">
+        <v>0</v>
+      </c>
+      <c r="V8" s="26">
+        <v>1</v>
+      </c>
+      <c r="W8" s="26">
+        <v>1</v>
+      </c>
+      <c r="X8" s="26">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="26">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A9" s="34">
+      <c r="A9" s="28">
         <v>6</v>
       </c>
-      <c r="B9" s="32">
-        <v>0</v>
-      </c>
-      <c r="C9" s="32">
-        <v>0</v>
-      </c>
-      <c r="D9" s="32">
-        <v>1</v>
-      </c>
-      <c r="E9" s="32">
-        <v>0</v>
-      </c>
-      <c r="F9" s="32">
-        <v>1</v>
-      </c>
-      <c r="G9" s="32">
-        <v>0</v>
-      </c>
-      <c r="H9" s="32">
-        <v>0</v>
-      </c>
-      <c r="I9" s="32">
-        <v>0</v>
-      </c>
-      <c r="J9" s="32">
-        <v>0</v>
-      </c>
-      <c r="K9" s="32">
-        <v>0</v>
-      </c>
-      <c r="L9" s="32">
-        <v>1</v>
-      </c>
-      <c r="M9" s="32">
-        <v>0</v>
-      </c>
-      <c r="N9" s="32">
-        <v>0</v>
-      </c>
-      <c r="O9" s="32">
-        <v>0</v>
-      </c>
-      <c r="P9" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="32">
-        <v>0</v>
-      </c>
-      <c r="R9" s="32">
-        <v>0</v>
-      </c>
-      <c r="S9" s="32">
-        <v>0</v>
-      </c>
-      <c r="T9" s="32">
-        <v>0</v>
-      </c>
-      <c r="U9" s="32">
-        <v>0</v>
-      </c>
-      <c r="V9" s="32">
-        <v>0</v>
-      </c>
-      <c r="W9" s="32">
-        <v>0</v>
-      </c>
-      <c r="X9" s="32">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="32">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="32">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="33">
+      <c r="B9" s="26">
+        <v>0</v>
+      </c>
+      <c r="C9" s="26">
+        <v>0</v>
+      </c>
+      <c r="D9" s="26">
+        <v>1</v>
+      </c>
+      <c r="E9" s="26">
+        <v>0</v>
+      </c>
+      <c r="F9" s="26">
+        <v>1</v>
+      </c>
+      <c r="G9" s="26">
+        <v>0</v>
+      </c>
+      <c r="H9" s="26">
+        <v>0</v>
+      </c>
+      <c r="I9" s="26">
+        <v>0</v>
+      </c>
+      <c r="J9" s="26">
+        <v>0</v>
+      </c>
+      <c r="K9" s="26">
+        <v>0</v>
+      </c>
+      <c r="L9" s="26">
+        <v>1</v>
+      </c>
+      <c r="M9" s="26">
+        <v>0</v>
+      </c>
+      <c r="N9" s="26">
+        <v>0</v>
+      </c>
+      <c r="O9" s="26">
+        <v>0</v>
+      </c>
+      <c r="P9" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="26">
+        <v>0</v>
+      </c>
+      <c r="R9" s="26">
+        <v>0</v>
+      </c>
+      <c r="S9" s="26">
+        <v>0</v>
+      </c>
+      <c r="T9" s="26">
+        <v>0</v>
+      </c>
+      <c r="U9" s="26">
+        <v>0</v>
+      </c>
+      <c r="V9" s="26">
+        <v>0</v>
+      </c>
+      <c r="W9" s="26">
+        <v>0</v>
+      </c>
+      <c r="X9" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A10" s="34">
+      <c r="A10" s="28">
         <v>7</v>
       </c>
-      <c r="B10" s="32">
-        <v>0</v>
-      </c>
-      <c r="C10" s="32">
-        <v>1</v>
-      </c>
-      <c r="D10" s="32">
-        <v>1</v>
-      </c>
-      <c r="E10" s="32">
-        <v>0</v>
-      </c>
-      <c r="F10" s="32">
-        <v>0</v>
-      </c>
-      <c r="G10" s="32">
-        <v>0</v>
-      </c>
-      <c r="H10" s="32">
-        <v>0</v>
-      </c>
-      <c r="I10" s="32">
-        <v>1</v>
-      </c>
-      <c r="J10" s="32">
-        <v>0</v>
-      </c>
-      <c r="K10" s="32">
-        <v>0</v>
-      </c>
-      <c r="L10" s="32">
-        <v>0</v>
-      </c>
-      <c r="M10" s="32">
-        <v>0</v>
-      </c>
-      <c r="N10" s="32">
-        <v>0</v>
-      </c>
-      <c r="O10" s="32">
-        <v>0</v>
-      </c>
-      <c r="P10" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="32">
-        <v>0</v>
-      </c>
-      <c r="R10" s="32">
-        <v>0</v>
-      </c>
-      <c r="S10" s="32">
-        <v>0</v>
-      </c>
-      <c r="T10" s="32">
-        <v>1</v>
-      </c>
-      <c r="U10" s="32">
-        <v>1</v>
-      </c>
-      <c r="V10" s="32">
-        <v>0</v>
-      </c>
-      <c r="W10" s="32">
-        <v>0</v>
-      </c>
-      <c r="X10" s="32">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="32">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="32">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="33">
+      <c r="B10" s="26">
+        <v>0</v>
+      </c>
+      <c r="C10" s="26">
+        <v>1</v>
+      </c>
+      <c r="D10" s="26">
+        <v>1</v>
+      </c>
+      <c r="E10" s="26">
+        <v>0</v>
+      </c>
+      <c r="F10" s="26">
+        <v>0</v>
+      </c>
+      <c r="G10" s="26">
+        <v>0</v>
+      </c>
+      <c r="H10" s="26">
+        <v>0</v>
+      </c>
+      <c r="I10" s="26">
+        <v>1</v>
+      </c>
+      <c r="J10" s="26">
+        <v>0</v>
+      </c>
+      <c r="K10" s="26">
+        <v>0</v>
+      </c>
+      <c r="L10" s="26">
+        <v>0</v>
+      </c>
+      <c r="M10" s="26">
+        <v>0</v>
+      </c>
+      <c r="N10" s="26">
+        <v>0</v>
+      </c>
+      <c r="O10" s="26">
+        <v>0</v>
+      </c>
+      <c r="P10" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="26">
+        <v>0</v>
+      </c>
+      <c r="R10" s="26">
+        <v>0</v>
+      </c>
+      <c r="S10" s="26">
+        <v>0</v>
+      </c>
+      <c r="T10" s="26">
+        <v>1</v>
+      </c>
+      <c r="U10" s="26">
+        <v>1</v>
+      </c>
+      <c r="V10" s="26">
+        <v>0</v>
+      </c>
+      <c r="W10" s="26">
+        <v>0</v>
+      </c>
+      <c r="X10" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A11" s="34">
+      <c r="A11" s="28">
         <v>8</v>
       </c>
-      <c r="B11" s="32">
-        <v>0</v>
-      </c>
-      <c r="C11" s="32">
-        <v>0</v>
-      </c>
-      <c r="D11" s="32">
-        <v>0</v>
-      </c>
-      <c r="E11" s="32">
-        <v>0</v>
-      </c>
-      <c r="F11" s="32">
-        <v>0</v>
-      </c>
-      <c r="G11" s="32">
-        <v>0</v>
-      </c>
-      <c r="H11" s="32">
-        <v>0</v>
-      </c>
-      <c r="I11" s="32">
-        <v>0</v>
-      </c>
-      <c r="J11" s="32">
-        <v>0</v>
-      </c>
-      <c r="K11" s="32">
-        <v>0</v>
-      </c>
-      <c r="L11" s="32">
-        <v>0</v>
-      </c>
-      <c r="M11" s="32">
-        <v>0</v>
-      </c>
-      <c r="N11" s="32">
-        <v>0</v>
-      </c>
-      <c r="O11" s="32">
-        <v>0</v>
-      </c>
-      <c r="P11" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="32">
-        <v>0</v>
-      </c>
-      <c r="R11" s="32">
-        <v>0</v>
-      </c>
-      <c r="S11" s="32">
-        <v>0</v>
-      </c>
-      <c r="T11" s="32">
-        <v>0</v>
-      </c>
-      <c r="U11" s="32">
-        <v>0</v>
-      </c>
-      <c r="V11" s="32">
-        <v>0</v>
-      </c>
-      <c r="W11" s="32">
-        <v>0</v>
-      </c>
-      <c r="X11" s="32">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="32">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="32">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="33">
+      <c r="B11" s="26">
+        <v>0</v>
+      </c>
+      <c r="C11" s="26">
+        <v>0</v>
+      </c>
+      <c r="D11" s="26">
+        <v>0</v>
+      </c>
+      <c r="E11" s="26">
+        <v>0</v>
+      </c>
+      <c r="F11" s="26">
+        <v>0</v>
+      </c>
+      <c r="G11" s="26">
+        <v>0</v>
+      </c>
+      <c r="H11" s="26">
+        <v>0</v>
+      </c>
+      <c r="I11" s="26">
+        <v>0</v>
+      </c>
+      <c r="J11" s="26">
+        <v>0</v>
+      </c>
+      <c r="K11" s="26">
+        <v>0</v>
+      </c>
+      <c r="L11" s="26">
+        <v>0</v>
+      </c>
+      <c r="M11" s="26">
+        <v>0</v>
+      </c>
+      <c r="N11" s="26">
+        <v>0</v>
+      </c>
+      <c r="O11" s="26">
+        <v>0</v>
+      </c>
+      <c r="P11" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="26">
+        <v>0</v>
+      </c>
+      <c r="R11" s="26">
+        <v>0</v>
+      </c>
+      <c r="S11" s="26">
+        <v>0</v>
+      </c>
+      <c r="T11" s="26">
+        <v>0</v>
+      </c>
+      <c r="U11" s="26">
+        <v>0</v>
+      </c>
+      <c r="V11" s="26">
+        <v>0</v>
+      </c>
+      <c r="W11" s="26">
+        <v>0</v>
+      </c>
+      <c r="X11" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A12" s="34">
+      <c r="A12" s="28">
         <v>9</v>
       </c>
-      <c r="B12" s="32">
-        <v>1</v>
-      </c>
-      <c r="C12" s="32">
-        <v>0</v>
-      </c>
-      <c r="D12" s="32">
-        <v>0</v>
-      </c>
-      <c r="E12" s="32">
-        <v>0</v>
-      </c>
-      <c r="F12" s="32">
-        <v>0</v>
-      </c>
-      <c r="G12" s="32">
-        <v>1</v>
-      </c>
-      <c r="H12" s="32">
-        <v>1</v>
-      </c>
-      <c r="I12" s="32">
-        <v>0</v>
-      </c>
-      <c r="J12" s="32">
-        <v>0</v>
-      </c>
-      <c r="K12" s="32">
-        <v>0</v>
-      </c>
-      <c r="L12" s="32">
-        <v>0</v>
-      </c>
-      <c r="M12" s="32">
-        <v>0</v>
-      </c>
-      <c r="N12" s="32">
-        <v>0</v>
-      </c>
-      <c r="O12" s="32">
-        <v>0</v>
-      </c>
-      <c r="P12" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="32">
-        <v>0</v>
-      </c>
-      <c r="R12" s="32">
-        <v>0</v>
-      </c>
-      <c r="S12" s="32">
-        <v>0</v>
-      </c>
-      <c r="T12" s="32">
-        <v>0</v>
-      </c>
-      <c r="U12" s="32">
-        <v>0</v>
-      </c>
-      <c r="V12" s="32">
-        <v>0</v>
-      </c>
-      <c r="W12" s="32">
-        <v>0</v>
-      </c>
-      <c r="X12" s="32">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="32">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="32">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="33">
+      <c r="B12" s="26">
+        <v>1</v>
+      </c>
+      <c r="C12" s="26">
+        <v>0</v>
+      </c>
+      <c r="D12" s="26">
+        <v>0</v>
+      </c>
+      <c r="E12" s="26">
+        <v>0</v>
+      </c>
+      <c r="F12" s="26">
+        <v>0</v>
+      </c>
+      <c r="G12" s="26">
+        <v>1</v>
+      </c>
+      <c r="H12" s="26">
+        <v>1</v>
+      </c>
+      <c r="I12" s="26">
+        <v>0</v>
+      </c>
+      <c r="J12" s="26">
+        <v>0</v>
+      </c>
+      <c r="K12" s="26">
+        <v>0</v>
+      </c>
+      <c r="L12" s="26">
+        <v>0</v>
+      </c>
+      <c r="M12" s="26">
+        <v>0</v>
+      </c>
+      <c r="N12" s="26">
+        <v>0</v>
+      </c>
+      <c r="O12" s="26">
+        <v>0</v>
+      </c>
+      <c r="P12" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="26">
+        <v>0</v>
+      </c>
+      <c r="R12" s="26">
+        <v>0</v>
+      </c>
+      <c r="S12" s="26">
+        <v>0</v>
+      </c>
+      <c r="T12" s="26">
+        <v>0</v>
+      </c>
+      <c r="U12" s="26">
+        <v>0</v>
+      </c>
+      <c r="V12" s="26">
+        <v>0</v>
+      </c>
+      <c r="W12" s="26">
+        <v>0</v>
+      </c>
+      <c r="X12" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A13" s="34">
+      <c r="A13" s="28">
         <v>10</v>
       </c>
-      <c r="B13" s="32">
-        <v>0</v>
-      </c>
-      <c r="C13" s="32">
-        <v>1</v>
-      </c>
-      <c r="D13" s="32">
-        <v>0</v>
-      </c>
-      <c r="E13" s="32">
-        <v>0</v>
-      </c>
-      <c r="F13" s="32">
-        <v>1</v>
-      </c>
-      <c r="G13" s="32">
-        <v>0</v>
-      </c>
-      <c r="H13" s="32">
-        <v>0</v>
-      </c>
-      <c r="I13" s="32">
-        <v>0</v>
-      </c>
-      <c r="J13" s="32">
-        <v>0</v>
-      </c>
-      <c r="K13" s="32">
-        <v>0</v>
-      </c>
-      <c r="L13" s="32">
-        <v>0</v>
-      </c>
-      <c r="M13" s="32">
-        <v>1</v>
-      </c>
-      <c r="N13" s="32">
-        <v>0</v>
-      </c>
-      <c r="O13" s="32">
-        <v>0</v>
-      </c>
-      <c r="P13" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="32">
-        <v>0</v>
-      </c>
-      <c r="R13" s="32">
-        <v>0</v>
-      </c>
-      <c r="S13" s="32">
-        <v>0</v>
-      </c>
-      <c r="T13" s="32">
-        <v>0</v>
-      </c>
-      <c r="U13" s="32">
-        <v>0</v>
-      </c>
-      <c r="V13" s="32">
-        <v>0</v>
-      </c>
-      <c r="W13" s="32">
-        <v>0</v>
-      </c>
-      <c r="X13" s="32">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="32">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="32">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="33">
+      <c r="B13" s="26">
+        <v>0</v>
+      </c>
+      <c r="C13" s="26">
+        <v>1</v>
+      </c>
+      <c r="D13" s="26">
+        <v>0</v>
+      </c>
+      <c r="E13" s="26">
+        <v>0</v>
+      </c>
+      <c r="F13" s="26">
+        <v>1</v>
+      </c>
+      <c r="G13" s="26">
+        <v>0</v>
+      </c>
+      <c r="H13" s="26">
+        <v>0</v>
+      </c>
+      <c r="I13" s="26">
+        <v>0</v>
+      </c>
+      <c r="J13" s="26">
+        <v>0</v>
+      </c>
+      <c r="K13" s="26">
+        <v>0</v>
+      </c>
+      <c r="L13" s="26">
+        <v>0</v>
+      </c>
+      <c r="M13" s="26">
+        <v>1</v>
+      </c>
+      <c r="N13" s="26">
+        <v>0</v>
+      </c>
+      <c r="O13" s="26">
+        <v>0</v>
+      </c>
+      <c r="P13" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="26">
+        <v>0</v>
+      </c>
+      <c r="R13" s="26">
+        <v>0</v>
+      </c>
+      <c r="S13" s="26">
+        <v>0</v>
+      </c>
+      <c r="T13" s="26">
+        <v>0</v>
+      </c>
+      <c r="U13" s="26">
+        <v>0</v>
+      </c>
+      <c r="V13" s="26">
+        <v>0</v>
+      </c>
+      <c r="W13" s="26">
+        <v>0</v>
+      </c>
+      <c r="X13" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A14" s="34">
+      <c r="A14" s="28">
         <v>11</v>
       </c>
-      <c r="B14" s="32">
-        <v>1</v>
-      </c>
-      <c r="C14" s="32">
-        <v>0</v>
-      </c>
-      <c r="D14" s="32">
-        <v>1</v>
-      </c>
-      <c r="E14" s="32">
-        <v>1</v>
-      </c>
-      <c r="F14" s="32">
-        <v>0</v>
-      </c>
-      <c r="G14" s="32">
-        <v>0</v>
-      </c>
-      <c r="H14" s="32">
-        <v>0</v>
-      </c>
-      <c r="I14" s="32">
-        <v>0</v>
-      </c>
-      <c r="J14" s="32">
-        <v>0</v>
-      </c>
-      <c r="K14" s="32">
-        <v>0</v>
-      </c>
-      <c r="L14" s="32">
-        <v>0</v>
-      </c>
-      <c r="M14" s="32">
-        <v>0</v>
-      </c>
-      <c r="N14" s="32">
-        <v>0</v>
-      </c>
-      <c r="O14" s="32">
-        <v>0</v>
-      </c>
-      <c r="P14" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="32">
-        <v>0</v>
-      </c>
-      <c r="R14" s="32">
-        <v>0</v>
-      </c>
-      <c r="S14" s="32">
-        <v>0</v>
-      </c>
-      <c r="T14" s="32">
-        <v>0</v>
-      </c>
-      <c r="U14" s="32">
-        <v>0</v>
-      </c>
-      <c r="V14" s="32">
-        <v>0</v>
-      </c>
-      <c r="W14" s="32">
-        <v>0</v>
-      </c>
-      <c r="X14" s="32">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="32">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="32">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="33">
+      <c r="B14" s="26">
+        <v>1</v>
+      </c>
+      <c r="C14" s="26">
+        <v>0</v>
+      </c>
+      <c r="D14" s="26">
+        <v>1</v>
+      </c>
+      <c r="E14" s="26">
+        <v>1</v>
+      </c>
+      <c r="F14" s="26">
+        <v>0</v>
+      </c>
+      <c r="G14" s="26">
+        <v>0</v>
+      </c>
+      <c r="H14" s="26">
+        <v>0</v>
+      </c>
+      <c r="I14" s="26">
+        <v>0</v>
+      </c>
+      <c r="J14" s="26">
+        <v>0</v>
+      </c>
+      <c r="K14" s="26">
+        <v>0</v>
+      </c>
+      <c r="L14" s="26">
+        <v>0</v>
+      </c>
+      <c r="M14" s="26">
+        <v>0</v>
+      </c>
+      <c r="N14" s="26">
+        <v>0</v>
+      </c>
+      <c r="O14" s="26">
+        <v>0</v>
+      </c>
+      <c r="P14" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="26">
+        <v>0</v>
+      </c>
+      <c r="R14" s="26">
+        <v>0</v>
+      </c>
+      <c r="S14" s="26">
+        <v>0</v>
+      </c>
+      <c r="T14" s="26">
+        <v>0</v>
+      </c>
+      <c r="U14" s="26">
+        <v>0</v>
+      </c>
+      <c r="V14" s="26">
+        <v>0</v>
+      </c>
+      <c r="W14" s="26">
+        <v>0</v>
+      </c>
+      <c r="X14" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A15" s="34">
+      <c r="A15" s="28">
         <v>12</v>
       </c>
-      <c r="B15" s="32">
-        <v>1</v>
-      </c>
-      <c r="C15" s="32">
-        <v>0</v>
-      </c>
-      <c r="D15" s="32">
-        <v>0</v>
-      </c>
-      <c r="E15" s="32">
-        <v>0</v>
-      </c>
-      <c r="F15" s="32">
-        <v>0</v>
-      </c>
-      <c r="G15" s="32">
-        <v>0</v>
-      </c>
-      <c r="H15" s="32">
-        <v>0</v>
-      </c>
-      <c r="I15" s="32">
-        <v>0</v>
-      </c>
-      <c r="J15" s="32">
-        <v>0</v>
-      </c>
-      <c r="K15" s="32">
-        <v>0</v>
-      </c>
-      <c r="L15" s="32">
-        <v>0</v>
-      </c>
-      <c r="M15" s="32">
-        <v>0</v>
-      </c>
-      <c r="N15" s="32">
-        <v>0</v>
-      </c>
-      <c r="O15" s="32">
-        <v>0</v>
-      </c>
-      <c r="P15" s="32">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="32">
-        <v>0</v>
-      </c>
-      <c r="R15" s="32">
-        <v>0</v>
-      </c>
-      <c r="S15" s="32">
-        <v>0</v>
-      </c>
-      <c r="T15" s="32">
-        <v>0</v>
-      </c>
-      <c r="U15" s="32">
-        <v>0</v>
-      </c>
-      <c r="V15" s="32">
-        <v>0</v>
-      </c>
-      <c r="W15" s="32">
-        <v>0</v>
-      </c>
-      <c r="X15" s="32">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="32">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="32">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="33">
+      <c r="B15" s="26">
+        <v>1</v>
+      </c>
+      <c r="C15" s="26">
+        <v>0</v>
+      </c>
+      <c r="D15" s="26">
+        <v>0</v>
+      </c>
+      <c r="E15" s="26">
+        <v>0</v>
+      </c>
+      <c r="F15" s="26">
+        <v>0</v>
+      </c>
+      <c r="G15" s="26">
+        <v>0</v>
+      </c>
+      <c r="H15" s="26">
+        <v>0</v>
+      </c>
+      <c r="I15" s="26">
+        <v>0</v>
+      </c>
+      <c r="J15" s="26">
+        <v>0</v>
+      </c>
+      <c r="K15" s="26">
+        <v>0</v>
+      </c>
+      <c r="L15" s="26">
+        <v>0</v>
+      </c>
+      <c r="M15" s="26">
+        <v>0</v>
+      </c>
+      <c r="N15" s="26">
+        <v>0</v>
+      </c>
+      <c r="O15" s="26">
+        <v>0</v>
+      </c>
+      <c r="P15" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="26">
+        <v>0</v>
+      </c>
+      <c r="R15" s="26">
+        <v>0</v>
+      </c>
+      <c r="S15" s="26">
+        <v>0</v>
+      </c>
+      <c r="T15" s="26">
+        <v>0</v>
+      </c>
+      <c r="U15" s="26">
+        <v>0</v>
+      </c>
+      <c r="V15" s="26">
+        <v>0</v>
+      </c>
+      <c r="W15" s="26">
+        <v>0</v>
+      </c>
+      <c r="X15" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A16" s="34">
+      <c r="A16" s="28">
         <v>13</v>
       </c>
-      <c r="B16" s="32">
-        <v>1</v>
-      </c>
-      <c r="C16" s="32">
-        <v>0</v>
-      </c>
-      <c r="D16" s="32">
-        <v>0</v>
-      </c>
-      <c r="E16" s="32">
-        <v>0</v>
-      </c>
-      <c r="F16" s="32">
-        <v>0</v>
-      </c>
-      <c r="G16" s="32">
-        <v>0</v>
-      </c>
-      <c r="H16" s="32">
-        <v>0</v>
-      </c>
-      <c r="I16" s="32">
-        <v>0</v>
-      </c>
-      <c r="J16" s="32">
-        <v>0</v>
-      </c>
-      <c r="K16" s="32">
-        <v>0</v>
-      </c>
-      <c r="L16" s="32">
-        <v>0</v>
-      </c>
-      <c r="M16" s="32">
-        <v>0</v>
-      </c>
-      <c r="N16" s="32">
-        <v>0</v>
-      </c>
-      <c r="O16" s="32">
-        <v>0</v>
-      </c>
-      <c r="P16" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="32">
-        <v>0</v>
-      </c>
-      <c r="R16" s="32">
-        <v>0</v>
-      </c>
-      <c r="S16" s="32">
-        <v>0</v>
-      </c>
-      <c r="T16" s="32">
-        <v>0</v>
-      </c>
-      <c r="U16" s="32">
-        <v>0</v>
-      </c>
-      <c r="V16" s="32">
-        <v>0</v>
-      </c>
-      <c r="W16" s="32">
-        <v>0</v>
-      </c>
-      <c r="X16" s="32">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="32">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="32">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="33">
+      <c r="B16" s="26">
+        <v>1</v>
+      </c>
+      <c r="C16" s="26">
+        <v>0</v>
+      </c>
+      <c r="D16" s="26">
+        <v>0</v>
+      </c>
+      <c r="E16" s="26">
+        <v>0</v>
+      </c>
+      <c r="F16" s="26">
+        <v>0</v>
+      </c>
+      <c r="G16" s="26">
+        <v>0</v>
+      </c>
+      <c r="H16" s="26">
+        <v>0</v>
+      </c>
+      <c r="I16" s="26">
+        <v>0</v>
+      </c>
+      <c r="J16" s="26">
+        <v>0</v>
+      </c>
+      <c r="K16" s="26">
+        <v>0</v>
+      </c>
+      <c r="L16" s="26">
+        <v>0</v>
+      </c>
+      <c r="M16" s="26">
+        <v>0</v>
+      </c>
+      <c r="N16" s="26">
+        <v>0</v>
+      </c>
+      <c r="O16" s="26">
+        <v>0</v>
+      </c>
+      <c r="P16" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="26">
+        <v>0</v>
+      </c>
+      <c r="R16" s="26">
+        <v>0</v>
+      </c>
+      <c r="S16" s="26">
+        <v>0</v>
+      </c>
+      <c r="T16" s="26">
+        <v>0</v>
+      </c>
+      <c r="U16" s="26">
+        <v>0</v>
+      </c>
+      <c r="V16" s="26">
+        <v>0</v>
+      </c>
+      <c r="W16" s="26">
+        <v>0</v>
+      </c>
+      <c r="X16" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A17" s="34">
+      <c r="A17" s="28">
         <v>14</v>
       </c>
-      <c r="B17" s="32">
-        <v>0</v>
-      </c>
-      <c r="C17" s="32">
-        <v>1</v>
-      </c>
-      <c r="D17" s="32">
-        <v>0</v>
-      </c>
-      <c r="E17" s="32">
-        <v>1</v>
-      </c>
-      <c r="F17" s="32">
-        <v>0</v>
-      </c>
-      <c r="G17" s="32">
-        <v>0</v>
-      </c>
-      <c r="H17" s="32">
-        <v>0</v>
-      </c>
-      <c r="I17" s="32">
-        <v>0</v>
-      </c>
-      <c r="J17" s="32">
-        <v>0</v>
-      </c>
-      <c r="K17" s="32">
-        <v>0</v>
-      </c>
-      <c r="L17" s="32">
-        <v>0</v>
-      </c>
-      <c r="M17" s="32">
-        <v>0</v>
-      </c>
-      <c r="N17" s="32">
-        <v>0</v>
-      </c>
-      <c r="O17" s="32">
-        <v>0</v>
-      </c>
-      <c r="P17" s="32">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="32">
-        <v>0</v>
-      </c>
-      <c r="R17" s="32">
-        <v>0</v>
-      </c>
-      <c r="S17" s="32">
-        <v>0</v>
-      </c>
-      <c r="T17" s="32">
-        <v>0</v>
-      </c>
-      <c r="U17" s="32">
-        <v>0</v>
-      </c>
-      <c r="V17" s="32">
-        <v>0</v>
-      </c>
-      <c r="W17" s="32">
-        <v>0</v>
-      </c>
-      <c r="X17" s="32">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="32">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="32">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="33">
+      <c r="B17" s="26">
+        <v>0</v>
+      </c>
+      <c r="C17" s="26">
+        <v>1</v>
+      </c>
+      <c r="D17" s="26">
+        <v>0</v>
+      </c>
+      <c r="E17" s="26">
+        <v>1</v>
+      </c>
+      <c r="F17" s="26">
+        <v>0</v>
+      </c>
+      <c r="G17" s="26">
+        <v>0</v>
+      </c>
+      <c r="H17" s="26">
+        <v>0</v>
+      </c>
+      <c r="I17" s="26">
+        <v>0</v>
+      </c>
+      <c r="J17" s="26">
+        <v>0</v>
+      </c>
+      <c r="K17" s="26">
+        <v>0</v>
+      </c>
+      <c r="L17" s="26">
+        <v>0</v>
+      </c>
+      <c r="M17" s="26">
+        <v>0</v>
+      </c>
+      <c r="N17" s="26">
+        <v>0</v>
+      </c>
+      <c r="O17" s="26">
+        <v>0</v>
+      </c>
+      <c r="P17" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="26">
+        <v>0</v>
+      </c>
+      <c r="R17" s="26">
+        <v>0</v>
+      </c>
+      <c r="S17" s="26">
+        <v>0</v>
+      </c>
+      <c r="T17" s="26">
+        <v>0</v>
+      </c>
+      <c r="U17" s="26">
+        <v>0</v>
+      </c>
+      <c r="V17" s="26">
+        <v>0</v>
+      </c>
+      <c r="W17" s="26">
+        <v>0</v>
+      </c>
+      <c r="X17" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A18" s="34">
+      <c r="A18" s="28">
         <v>15</v>
       </c>
-      <c r="B18" s="32">
-        <v>0</v>
-      </c>
-      <c r="C18" s="32">
-        <v>0</v>
-      </c>
-      <c r="D18" s="32">
-        <v>0</v>
-      </c>
-      <c r="E18" s="32">
-        <v>1</v>
-      </c>
-      <c r="F18" s="32">
-        <v>0</v>
-      </c>
-      <c r="G18" s="32">
-        <v>0</v>
-      </c>
-      <c r="H18" s="32">
-        <v>0</v>
-      </c>
-      <c r="I18" s="32">
-        <v>0</v>
-      </c>
-      <c r="J18" s="32">
-        <v>0</v>
-      </c>
-      <c r="K18" s="32">
-        <v>0</v>
-      </c>
-      <c r="L18" s="32">
-        <v>0</v>
-      </c>
-      <c r="M18" s="32">
-        <v>0</v>
-      </c>
-      <c r="N18" s="32">
-        <v>0</v>
-      </c>
-      <c r="O18" s="32">
-        <v>0</v>
-      </c>
-      <c r="P18" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="32">
-        <v>0</v>
-      </c>
-      <c r="R18" s="32">
-        <v>0</v>
-      </c>
-      <c r="S18" s="32">
-        <v>0</v>
-      </c>
-      <c r="T18" s="32">
-        <v>0</v>
-      </c>
-      <c r="U18" s="32">
-        <v>0</v>
-      </c>
-      <c r="V18" s="32">
-        <v>0</v>
-      </c>
-      <c r="W18" s="32">
-        <v>0</v>
-      </c>
-      <c r="X18" s="32">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="32">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="32">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="33">
+      <c r="B18" s="26">
+        <v>0</v>
+      </c>
+      <c r="C18" s="26">
+        <v>0</v>
+      </c>
+      <c r="D18" s="26">
+        <v>0</v>
+      </c>
+      <c r="E18" s="26">
+        <v>1</v>
+      </c>
+      <c r="F18" s="26">
+        <v>0</v>
+      </c>
+      <c r="G18" s="26">
+        <v>0</v>
+      </c>
+      <c r="H18" s="26">
+        <v>0</v>
+      </c>
+      <c r="I18" s="26">
+        <v>0</v>
+      </c>
+      <c r="J18" s="26">
+        <v>0</v>
+      </c>
+      <c r="K18" s="26">
+        <v>0</v>
+      </c>
+      <c r="L18" s="26">
+        <v>0</v>
+      </c>
+      <c r="M18" s="26">
+        <v>0</v>
+      </c>
+      <c r="N18" s="26">
+        <v>0</v>
+      </c>
+      <c r="O18" s="26">
+        <v>0</v>
+      </c>
+      <c r="P18" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="26">
+        <v>0</v>
+      </c>
+      <c r="R18" s="26">
+        <v>0</v>
+      </c>
+      <c r="S18" s="26">
+        <v>0</v>
+      </c>
+      <c r="T18" s="26">
+        <v>0</v>
+      </c>
+      <c r="U18" s="26">
+        <v>0</v>
+      </c>
+      <c r="V18" s="26">
+        <v>0</v>
+      </c>
+      <c r="W18" s="26">
+        <v>0</v>
+      </c>
+      <c r="X18" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A19" s="34">
+      <c r="A19" s="28">
         <v>16</v>
       </c>
-      <c r="B19" s="32">
-        <v>0</v>
-      </c>
-      <c r="C19" s="32">
-        <v>0</v>
-      </c>
-      <c r="D19" s="32">
-        <v>0</v>
-      </c>
-      <c r="E19" s="32">
-        <v>0</v>
-      </c>
-      <c r="F19" s="32">
-        <v>0</v>
-      </c>
-      <c r="G19" s="32">
-        <v>0</v>
-      </c>
-      <c r="H19" s="32">
-        <v>0</v>
-      </c>
-      <c r="I19" s="32">
-        <v>0</v>
-      </c>
-      <c r="J19" s="32">
-        <v>0</v>
-      </c>
-      <c r="K19" s="32">
-        <v>0</v>
-      </c>
-      <c r="L19" s="32">
-        <v>0</v>
-      </c>
-      <c r="M19" s="32">
-        <v>0</v>
-      </c>
-      <c r="N19" s="32">
-        <v>0</v>
-      </c>
-      <c r="O19" s="32">
-        <v>0</v>
-      </c>
-      <c r="P19" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="32">
-        <v>0</v>
-      </c>
-      <c r="R19" s="32">
-        <v>0</v>
-      </c>
-      <c r="S19" s="32">
-        <v>0</v>
-      </c>
-      <c r="T19" s="32">
-        <v>0</v>
-      </c>
-      <c r="U19" s="32">
-        <v>0</v>
-      </c>
-      <c r="V19" s="32">
-        <v>0</v>
-      </c>
-      <c r="W19" s="32">
-        <v>0</v>
-      </c>
-      <c r="X19" s="32">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="32">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="32">
-        <v>1</v>
-      </c>
-      <c r="AC19" s="33">
+      <c r="B19" s="26">
+        <v>0</v>
+      </c>
+      <c r="C19" s="26">
+        <v>0</v>
+      </c>
+      <c r="D19" s="26">
+        <v>0</v>
+      </c>
+      <c r="E19" s="26">
+        <v>0</v>
+      </c>
+      <c r="F19" s="26">
+        <v>0</v>
+      </c>
+      <c r="G19" s="26">
+        <v>0</v>
+      </c>
+      <c r="H19" s="26">
+        <v>0</v>
+      </c>
+      <c r="I19" s="26">
+        <v>0</v>
+      </c>
+      <c r="J19" s="26">
+        <v>0</v>
+      </c>
+      <c r="K19" s="26">
+        <v>0</v>
+      </c>
+      <c r="L19" s="26">
+        <v>0</v>
+      </c>
+      <c r="M19" s="26">
+        <v>0</v>
+      </c>
+      <c r="N19" s="26">
+        <v>0</v>
+      </c>
+      <c r="O19" s="26">
+        <v>0</v>
+      </c>
+      <c r="P19" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="26">
+        <v>0</v>
+      </c>
+      <c r="R19" s="26">
+        <v>0</v>
+      </c>
+      <c r="S19" s="26">
+        <v>0</v>
+      </c>
+      <c r="T19" s="26">
+        <v>0</v>
+      </c>
+      <c r="U19" s="26">
+        <v>0</v>
+      </c>
+      <c r="V19" s="26">
+        <v>0</v>
+      </c>
+      <c r="W19" s="26">
+        <v>0</v>
+      </c>
+      <c r="X19" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A20" s="34">
+      <c r="A20" s="28">
         <v>17</v>
       </c>
-      <c r="B20" s="32">
-        <v>0</v>
-      </c>
-      <c r="C20" s="32">
-        <v>0</v>
-      </c>
-      <c r="D20" s="32">
-        <v>0</v>
-      </c>
-      <c r="E20" s="32">
-        <v>0</v>
-      </c>
-      <c r="F20" s="32">
-        <v>0</v>
-      </c>
-      <c r="G20" s="32">
-        <v>0</v>
-      </c>
-      <c r="H20" s="32">
-        <v>0</v>
-      </c>
-      <c r="I20" s="32">
-        <v>0</v>
-      </c>
-      <c r="J20" s="32">
-        <v>0</v>
-      </c>
-      <c r="K20" s="32">
-        <v>0</v>
-      </c>
-      <c r="L20" s="32">
-        <v>0</v>
-      </c>
-      <c r="M20" s="32">
-        <v>0</v>
-      </c>
-      <c r="N20" s="32">
-        <v>0</v>
-      </c>
-      <c r="O20" s="32">
-        <v>0</v>
-      </c>
-      <c r="P20" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="32">
-        <v>0</v>
-      </c>
-      <c r="R20" s="32">
-        <v>0</v>
-      </c>
-      <c r="S20" s="32">
-        <v>0</v>
-      </c>
-      <c r="T20" s="32">
-        <v>0</v>
-      </c>
-      <c r="U20" s="32">
-        <v>0</v>
-      </c>
-      <c r="V20" s="32">
-        <v>0</v>
-      </c>
-      <c r="W20" s="32">
-        <v>0</v>
-      </c>
-      <c r="X20" s="32">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="32">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="32">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="33">
+      <c r="B20" s="26">
+        <v>0</v>
+      </c>
+      <c r="C20" s="26">
+        <v>0</v>
+      </c>
+      <c r="D20" s="26">
+        <v>0</v>
+      </c>
+      <c r="E20" s="26">
+        <v>0</v>
+      </c>
+      <c r="F20" s="26">
+        <v>0</v>
+      </c>
+      <c r="G20" s="26">
+        <v>0</v>
+      </c>
+      <c r="H20" s="26">
+        <v>0</v>
+      </c>
+      <c r="I20" s="26">
+        <v>0</v>
+      </c>
+      <c r="J20" s="26">
+        <v>0</v>
+      </c>
+      <c r="K20" s="26">
+        <v>0</v>
+      </c>
+      <c r="L20" s="26">
+        <v>0</v>
+      </c>
+      <c r="M20" s="26">
+        <v>0</v>
+      </c>
+      <c r="N20" s="26">
+        <v>0</v>
+      </c>
+      <c r="O20" s="26">
+        <v>0</v>
+      </c>
+      <c r="P20" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="26">
+        <v>0</v>
+      </c>
+      <c r="R20" s="26">
+        <v>0</v>
+      </c>
+      <c r="S20" s="26">
+        <v>0</v>
+      </c>
+      <c r="T20" s="26">
+        <v>0</v>
+      </c>
+      <c r="U20" s="26">
+        <v>0</v>
+      </c>
+      <c r="V20" s="26">
+        <v>0</v>
+      </c>
+      <c r="W20" s="26">
+        <v>0</v>
+      </c>
+      <c r="X20" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A21" s="34">
+      <c r="A21" s="28">
         <v>18</v>
       </c>
-      <c r="B21" s="32">
-        <v>0</v>
-      </c>
-      <c r="C21" s="32">
-        <v>0</v>
-      </c>
-      <c r="D21" s="32">
-        <v>0</v>
-      </c>
-      <c r="E21" s="32">
-        <v>1</v>
-      </c>
-      <c r="F21" s="32">
-        <v>0</v>
-      </c>
-      <c r="G21" s="32">
-        <v>0</v>
-      </c>
-      <c r="H21" s="32">
-        <v>0</v>
-      </c>
-      <c r="I21" s="32">
-        <v>0</v>
-      </c>
-      <c r="J21" s="32">
-        <v>1</v>
-      </c>
-      <c r="K21" s="32">
-        <v>0</v>
-      </c>
-      <c r="L21" s="32">
-        <v>0</v>
-      </c>
-      <c r="M21" s="32">
-        <v>0</v>
-      </c>
-      <c r="N21" s="32">
-        <v>0</v>
-      </c>
-      <c r="O21" s="32">
-        <v>0</v>
-      </c>
-      <c r="P21" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="32">
-        <v>1</v>
-      </c>
-      <c r="R21" s="32">
-        <v>0</v>
-      </c>
-      <c r="S21" s="32">
-        <v>1</v>
-      </c>
-      <c r="T21" s="32">
-        <v>0</v>
-      </c>
-      <c r="U21" s="32">
-        <v>0</v>
-      </c>
-      <c r="V21" s="32">
-        <v>0</v>
-      </c>
-      <c r="W21" s="32">
-        <v>0</v>
-      </c>
-      <c r="X21" s="32">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="32">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="32">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="33">
+      <c r="B21" s="26">
+        <v>0</v>
+      </c>
+      <c r="C21" s="26">
+        <v>0</v>
+      </c>
+      <c r="D21" s="26">
+        <v>0</v>
+      </c>
+      <c r="E21" s="26">
+        <v>1</v>
+      </c>
+      <c r="F21" s="26">
+        <v>0</v>
+      </c>
+      <c r="G21" s="26">
+        <v>0</v>
+      </c>
+      <c r="H21" s="26">
+        <v>0</v>
+      </c>
+      <c r="I21" s="26">
+        <v>0</v>
+      </c>
+      <c r="J21" s="26">
+        <v>1</v>
+      </c>
+      <c r="K21" s="26">
+        <v>0</v>
+      </c>
+      <c r="L21" s="26">
+        <v>0</v>
+      </c>
+      <c r="M21" s="26">
+        <v>0</v>
+      </c>
+      <c r="N21" s="26">
+        <v>0</v>
+      </c>
+      <c r="O21" s="26">
+        <v>0</v>
+      </c>
+      <c r="P21" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="26">
+        <v>1</v>
+      </c>
+      <c r="R21" s="26">
+        <v>0</v>
+      </c>
+      <c r="S21" s="26">
+        <v>1</v>
+      </c>
+      <c r="T21" s="26">
+        <v>0</v>
+      </c>
+      <c r="U21" s="26">
+        <v>0</v>
+      </c>
+      <c r="V21" s="26">
+        <v>0</v>
+      </c>
+      <c r="W21" s="26">
+        <v>0</v>
+      </c>
+      <c r="X21" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A22" s="34">
+      <c r="A22" s="28">
         <v>19</v>
       </c>
-      <c r="B22" s="32">
-        <v>0</v>
-      </c>
-      <c r="C22" s="32">
-        <v>1</v>
-      </c>
-      <c r="D22" s="32">
-        <v>0</v>
-      </c>
-      <c r="E22" s="32">
-        <v>0</v>
-      </c>
-      <c r="F22" s="32">
-        <v>1</v>
-      </c>
-      <c r="G22" s="32">
-        <v>0</v>
-      </c>
-      <c r="H22" s="32">
-        <v>0</v>
-      </c>
-      <c r="I22" s="32">
-        <v>0</v>
-      </c>
-      <c r="J22" s="32">
-        <v>0</v>
-      </c>
-      <c r="K22" s="32">
-        <v>0</v>
-      </c>
-      <c r="L22" s="32">
-        <v>0</v>
-      </c>
-      <c r="M22" s="32">
-        <v>0</v>
-      </c>
-      <c r="N22" s="32">
-        <v>1</v>
-      </c>
-      <c r="O22" s="32">
-        <v>0</v>
-      </c>
-      <c r="P22" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="32">
-        <v>0</v>
-      </c>
-      <c r="R22" s="32">
-        <v>0</v>
-      </c>
-      <c r="S22" s="32">
-        <v>0</v>
-      </c>
-      <c r="T22" s="32">
-        <v>0</v>
-      </c>
-      <c r="U22" s="32">
-        <v>0</v>
-      </c>
-      <c r="V22" s="32">
-        <v>0</v>
-      </c>
-      <c r="W22" s="32">
-        <v>0</v>
-      </c>
-      <c r="X22" s="32">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="32">
-        <v>1</v>
-      </c>
-      <c r="AB22" s="32">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="33">
+      <c r="B22" s="26">
+        <v>0</v>
+      </c>
+      <c r="C22" s="26">
+        <v>1</v>
+      </c>
+      <c r="D22" s="26">
+        <v>0</v>
+      </c>
+      <c r="E22" s="26">
+        <v>0</v>
+      </c>
+      <c r="F22" s="26">
+        <v>1</v>
+      </c>
+      <c r="G22" s="26">
+        <v>0</v>
+      </c>
+      <c r="H22" s="26">
+        <v>0</v>
+      </c>
+      <c r="I22" s="26">
+        <v>0</v>
+      </c>
+      <c r="J22" s="26">
+        <v>0</v>
+      </c>
+      <c r="K22" s="26">
+        <v>0</v>
+      </c>
+      <c r="L22" s="26">
+        <v>0</v>
+      </c>
+      <c r="M22" s="26">
+        <v>0</v>
+      </c>
+      <c r="N22" s="26">
+        <v>1</v>
+      </c>
+      <c r="O22" s="26">
+        <v>0</v>
+      </c>
+      <c r="P22" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="26">
+        <v>0</v>
+      </c>
+      <c r="R22" s="26">
+        <v>0</v>
+      </c>
+      <c r="S22" s="26">
+        <v>0</v>
+      </c>
+      <c r="T22" s="26">
+        <v>0</v>
+      </c>
+      <c r="U22" s="26">
+        <v>0</v>
+      </c>
+      <c r="V22" s="26">
+        <v>0</v>
+      </c>
+      <c r="W22" s="26">
+        <v>0</v>
+      </c>
+      <c r="X22" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A23" s="34">
+      <c r="A23" s="28">
         <v>20</v>
       </c>
-      <c r="B23" s="32">
-        <v>0</v>
-      </c>
-      <c r="C23" s="32">
-        <v>0</v>
-      </c>
-      <c r="D23" s="32">
-        <v>0</v>
-      </c>
-      <c r="E23" s="32">
-        <v>1</v>
-      </c>
-      <c r="F23" s="32">
-        <v>0</v>
-      </c>
-      <c r="G23" s="32">
-        <v>0</v>
-      </c>
-      <c r="H23" s="32">
-        <v>0</v>
-      </c>
-      <c r="I23" s="32">
-        <v>0</v>
-      </c>
-      <c r="J23" s="32">
-        <v>1</v>
-      </c>
-      <c r="K23" s="32">
-        <v>0</v>
-      </c>
-      <c r="L23" s="32">
-        <v>0</v>
-      </c>
-      <c r="M23" s="32">
-        <v>0</v>
-      </c>
-      <c r="N23" s="32">
-        <v>0</v>
-      </c>
-      <c r="O23" s="32">
-        <v>0</v>
-      </c>
-      <c r="P23" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="32">
-        <v>1</v>
-      </c>
-      <c r="R23" s="32">
-        <v>0</v>
-      </c>
-      <c r="S23" s="32">
-        <v>1</v>
-      </c>
-      <c r="T23" s="32">
-        <v>0</v>
-      </c>
-      <c r="U23" s="32">
-        <v>0</v>
-      </c>
-      <c r="V23" s="32">
-        <v>0</v>
-      </c>
-      <c r="W23" s="32">
-        <v>0</v>
-      </c>
-      <c r="X23" s="32">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="32">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="32">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="33">
+      <c r="B23" s="26">
+        <v>0</v>
+      </c>
+      <c r="C23" s="26">
+        <v>0</v>
+      </c>
+      <c r="D23" s="26">
+        <v>0</v>
+      </c>
+      <c r="E23" s="26">
+        <v>1</v>
+      </c>
+      <c r="F23" s="26">
+        <v>0</v>
+      </c>
+      <c r="G23" s="26">
+        <v>0</v>
+      </c>
+      <c r="H23" s="26">
+        <v>0</v>
+      </c>
+      <c r="I23" s="26">
+        <v>0</v>
+      </c>
+      <c r="J23" s="26">
+        <v>1</v>
+      </c>
+      <c r="K23" s="26">
+        <v>0</v>
+      </c>
+      <c r="L23" s="26">
+        <v>0</v>
+      </c>
+      <c r="M23" s="26">
+        <v>0</v>
+      </c>
+      <c r="N23" s="26">
+        <v>0</v>
+      </c>
+      <c r="O23" s="26">
+        <v>0</v>
+      </c>
+      <c r="P23" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="26">
+        <v>1</v>
+      </c>
+      <c r="R23" s="26">
+        <v>0</v>
+      </c>
+      <c r="S23" s="26">
+        <v>1</v>
+      </c>
+      <c r="T23" s="26">
+        <v>0</v>
+      </c>
+      <c r="U23" s="26">
+        <v>0</v>
+      </c>
+      <c r="V23" s="26">
+        <v>0</v>
+      </c>
+      <c r="W23" s="26">
+        <v>0</v>
+      </c>
+      <c r="X23" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A24" s="34">
+      <c r="A24" s="28">
         <v>21</v>
       </c>
-      <c r="B24" s="32">
-        <v>1</v>
-      </c>
-      <c r="C24" s="32">
-        <v>0</v>
-      </c>
-      <c r="D24" s="32">
-        <v>0</v>
-      </c>
-      <c r="E24" s="32">
-        <v>0</v>
-      </c>
-      <c r="F24" s="32">
-        <v>0</v>
-      </c>
-      <c r="G24" s="32">
-        <v>1</v>
-      </c>
-      <c r="H24" s="32">
-        <v>1</v>
-      </c>
-      <c r="I24" s="32">
-        <v>0</v>
-      </c>
-      <c r="J24" s="32">
-        <v>0</v>
-      </c>
-      <c r="K24" s="32">
-        <v>0</v>
-      </c>
-      <c r="L24" s="32">
-        <v>0</v>
-      </c>
-      <c r="M24" s="32">
-        <v>0</v>
-      </c>
-      <c r="N24" s="32">
-        <v>0</v>
-      </c>
-      <c r="O24" s="32">
-        <v>0</v>
-      </c>
-      <c r="P24" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="32">
-        <v>0</v>
-      </c>
-      <c r="R24" s="32">
-        <v>0</v>
-      </c>
-      <c r="S24" s="32">
-        <v>0</v>
-      </c>
-      <c r="T24" s="32">
-        <v>0</v>
-      </c>
-      <c r="U24" s="32">
-        <v>0</v>
-      </c>
-      <c r="V24" s="32">
-        <v>0</v>
-      </c>
-      <c r="W24" s="32">
-        <v>0</v>
-      </c>
-      <c r="X24" s="32">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="32">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="32">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="33">
+      <c r="B24" s="26">
+        <v>1</v>
+      </c>
+      <c r="C24" s="26">
+        <v>0</v>
+      </c>
+      <c r="D24" s="26">
+        <v>0</v>
+      </c>
+      <c r="E24" s="26">
+        <v>0</v>
+      </c>
+      <c r="F24" s="26">
+        <v>0</v>
+      </c>
+      <c r="G24" s="26">
+        <v>1</v>
+      </c>
+      <c r="H24" s="26">
+        <v>1</v>
+      </c>
+      <c r="I24" s="26">
+        <v>0</v>
+      </c>
+      <c r="J24" s="26">
+        <v>0</v>
+      </c>
+      <c r="K24" s="26">
+        <v>0</v>
+      </c>
+      <c r="L24" s="26">
+        <v>0</v>
+      </c>
+      <c r="M24" s="26">
+        <v>0</v>
+      </c>
+      <c r="N24" s="26">
+        <v>0</v>
+      </c>
+      <c r="O24" s="26">
+        <v>0</v>
+      </c>
+      <c r="P24" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="26">
+        <v>0</v>
+      </c>
+      <c r="R24" s="26">
+        <v>0</v>
+      </c>
+      <c r="S24" s="26">
+        <v>0</v>
+      </c>
+      <c r="T24" s="26">
+        <v>0</v>
+      </c>
+      <c r="U24" s="26">
+        <v>0</v>
+      </c>
+      <c r="V24" s="26">
+        <v>0</v>
+      </c>
+      <c r="W24" s="26">
+        <v>0</v>
+      </c>
+      <c r="X24" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A25" s="34">
+      <c r="A25" s="28">
         <v>22</v>
       </c>
-      <c r="B25" s="32">
-        <v>0</v>
-      </c>
-      <c r="C25" s="32">
-        <v>0</v>
-      </c>
-      <c r="D25" s="32">
-        <v>0</v>
-      </c>
-      <c r="E25" s="32">
-        <v>0</v>
-      </c>
-      <c r="F25" s="32">
-        <v>0</v>
-      </c>
-      <c r="G25" s="32">
-        <v>0</v>
-      </c>
-      <c r="H25" s="32">
-        <v>0</v>
-      </c>
-      <c r="I25" s="32">
-        <v>0</v>
-      </c>
-      <c r="J25" s="32">
-        <v>0</v>
-      </c>
-      <c r="K25" s="32">
-        <v>0</v>
-      </c>
-      <c r="L25" s="32">
-        <v>0</v>
-      </c>
-      <c r="M25" s="32">
-        <v>0</v>
-      </c>
-      <c r="N25" s="32">
-        <v>0</v>
-      </c>
-      <c r="O25" s="32">
-        <v>0</v>
-      </c>
-      <c r="P25" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="32">
-        <v>0</v>
-      </c>
-      <c r="R25" s="32">
-        <v>0</v>
-      </c>
-      <c r="S25" s="32">
-        <v>0</v>
-      </c>
-      <c r="T25" s="32">
-        <v>0</v>
-      </c>
-      <c r="U25" s="32">
-        <v>0</v>
-      </c>
-      <c r="V25" s="32">
-        <v>0</v>
-      </c>
-      <c r="W25" s="32">
-        <v>0</v>
-      </c>
-      <c r="X25" s="32">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="32">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="32">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="33">
+      <c r="B25" s="26">
+        <v>0</v>
+      </c>
+      <c r="C25" s="26">
+        <v>0</v>
+      </c>
+      <c r="D25" s="26">
+        <v>0</v>
+      </c>
+      <c r="E25" s="26">
+        <v>0</v>
+      </c>
+      <c r="F25" s="26">
+        <v>0</v>
+      </c>
+      <c r="G25" s="26">
+        <v>0</v>
+      </c>
+      <c r="H25" s="26">
+        <v>0</v>
+      </c>
+      <c r="I25" s="26">
+        <v>0</v>
+      </c>
+      <c r="J25" s="26">
+        <v>0</v>
+      </c>
+      <c r="K25" s="26">
+        <v>0</v>
+      </c>
+      <c r="L25" s="26">
+        <v>0</v>
+      </c>
+      <c r="M25" s="26">
+        <v>0</v>
+      </c>
+      <c r="N25" s="26">
+        <v>0</v>
+      </c>
+      <c r="O25" s="26">
+        <v>0</v>
+      </c>
+      <c r="P25" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="26">
+        <v>0</v>
+      </c>
+      <c r="R25" s="26">
+        <v>0</v>
+      </c>
+      <c r="S25" s="26">
+        <v>0</v>
+      </c>
+      <c r="T25" s="26">
+        <v>0</v>
+      </c>
+      <c r="U25" s="26">
+        <v>0</v>
+      </c>
+      <c r="V25" s="26">
+        <v>0</v>
+      </c>
+      <c r="W25" s="26">
+        <v>0</v>
+      </c>
+      <c r="X25" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A26" s="34">
+      <c r="A26" s="28">
         <v>23</v>
       </c>
-      <c r="B26" s="32">
-        <v>1</v>
-      </c>
-      <c r="C26" s="32">
-        <v>0</v>
-      </c>
-      <c r="D26" s="32">
-        <v>1</v>
-      </c>
-      <c r="E26" s="32">
-        <v>0</v>
-      </c>
-      <c r="F26" s="32">
-        <v>0</v>
-      </c>
-      <c r="G26" s="32">
-        <v>0</v>
-      </c>
-      <c r="H26" s="32">
-        <v>1</v>
-      </c>
-      <c r="I26" s="32">
-        <v>0</v>
-      </c>
-      <c r="J26" s="32">
-        <v>0</v>
-      </c>
-      <c r="K26" s="32">
-        <v>1</v>
-      </c>
-      <c r="L26" s="32">
-        <v>0</v>
-      </c>
-      <c r="M26" s="32">
-        <v>0</v>
-      </c>
-      <c r="N26" s="32">
-        <v>0</v>
-      </c>
-      <c r="O26" s="32">
-        <v>1</v>
-      </c>
-      <c r="P26" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="32">
-        <v>0</v>
-      </c>
-      <c r="R26" s="32">
-        <v>1</v>
-      </c>
-      <c r="S26" s="32">
-        <v>0</v>
-      </c>
-      <c r="T26" s="32">
-        <v>0</v>
-      </c>
-      <c r="U26" s="32">
-        <v>0</v>
-      </c>
-      <c r="V26" s="32">
-        <v>1</v>
-      </c>
-      <c r="W26" s="32">
-        <v>1</v>
-      </c>
-      <c r="X26" s="32">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="32">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="32">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="32">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="32">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="33">
+      <c r="B26" s="26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="26">
+        <v>0</v>
+      </c>
+      <c r="D26" s="26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="26">
+        <v>0</v>
+      </c>
+      <c r="F26" s="26">
+        <v>0</v>
+      </c>
+      <c r="G26" s="26">
+        <v>0</v>
+      </c>
+      <c r="H26" s="26">
+        <v>1</v>
+      </c>
+      <c r="I26" s="26">
+        <v>0</v>
+      </c>
+      <c r="J26" s="26">
+        <v>0</v>
+      </c>
+      <c r="K26" s="26">
+        <v>1</v>
+      </c>
+      <c r="L26" s="26">
+        <v>0</v>
+      </c>
+      <c r="M26" s="26">
+        <v>0</v>
+      </c>
+      <c r="N26" s="26">
+        <v>0</v>
+      </c>
+      <c r="O26" s="26">
+        <v>1</v>
+      </c>
+      <c r="P26" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="26">
+        <v>0</v>
+      </c>
+      <c r="R26" s="26">
+        <v>1</v>
+      </c>
+      <c r="S26" s="26">
+        <v>0</v>
+      </c>
+      <c r="T26" s="26">
+        <v>0</v>
+      </c>
+      <c r="U26" s="26">
+        <v>0</v>
+      </c>
+      <c r="V26" s="26">
+        <v>1</v>
+      </c>
+      <c r="W26" s="26">
+        <v>1</v>
+      </c>
+      <c r="X26" s="26">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="26">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A27" s="34">
+      <c r="A27" s="28">
         <v>24</v>
       </c>
-      <c r="B27" s="32">
-        <v>0</v>
-      </c>
-      <c r="C27" s="32">
-        <v>0</v>
-      </c>
-      <c r="D27" s="32">
-        <v>0</v>
-      </c>
-      <c r="E27" s="32">
-        <v>0</v>
-      </c>
-      <c r="F27" s="32">
-        <v>1</v>
-      </c>
-      <c r="G27" s="32">
-        <v>0</v>
-      </c>
-      <c r="H27" s="32">
-        <v>0</v>
-      </c>
-      <c r="I27" s="32">
-        <v>0</v>
-      </c>
-      <c r="J27" s="32">
-        <v>0</v>
-      </c>
-      <c r="K27" s="32">
-        <v>0</v>
-      </c>
-      <c r="L27" s="32">
-        <v>0</v>
-      </c>
-      <c r="M27" s="32">
-        <v>0</v>
-      </c>
-      <c r="N27" s="32">
-        <v>0</v>
-      </c>
-      <c r="O27" s="32">
-        <v>0</v>
-      </c>
-      <c r="P27" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="32">
-        <v>0</v>
-      </c>
-      <c r="R27" s="32">
-        <v>0</v>
-      </c>
-      <c r="S27" s="32">
-        <v>0</v>
-      </c>
-      <c r="T27" s="32">
-        <v>0</v>
-      </c>
-      <c r="U27" s="32">
-        <v>0</v>
-      </c>
-      <c r="V27" s="32">
-        <v>0</v>
-      </c>
-      <c r="W27" s="32">
-        <v>0</v>
-      </c>
-      <c r="X27" s="32">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="32">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="32">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="33">
+      <c r="B27" s="26">
+        <v>0</v>
+      </c>
+      <c r="C27" s="26">
+        <v>0</v>
+      </c>
+      <c r="D27" s="26">
+        <v>0</v>
+      </c>
+      <c r="E27" s="26">
+        <v>0</v>
+      </c>
+      <c r="F27" s="26">
+        <v>1</v>
+      </c>
+      <c r="G27" s="26">
+        <v>0</v>
+      </c>
+      <c r="H27" s="26">
+        <v>0</v>
+      </c>
+      <c r="I27" s="26">
+        <v>0</v>
+      </c>
+      <c r="J27" s="26">
+        <v>0</v>
+      </c>
+      <c r="K27" s="26">
+        <v>0</v>
+      </c>
+      <c r="L27" s="26">
+        <v>0</v>
+      </c>
+      <c r="M27" s="26">
+        <v>0</v>
+      </c>
+      <c r="N27" s="26">
+        <v>0</v>
+      </c>
+      <c r="O27" s="26">
+        <v>0</v>
+      </c>
+      <c r="P27" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="26">
+        <v>0</v>
+      </c>
+      <c r="R27" s="26">
+        <v>0</v>
+      </c>
+      <c r="S27" s="26">
+        <v>0</v>
+      </c>
+      <c r="T27" s="26">
+        <v>0</v>
+      </c>
+      <c r="U27" s="26">
+        <v>0</v>
+      </c>
+      <c r="V27" s="26">
+        <v>0</v>
+      </c>
+      <c r="W27" s="26">
+        <v>0</v>
+      </c>
+      <c r="X27" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A28" s="34">
+      <c r="A28" s="28">
         <v>25</v>
       </c>
-      <c r="B28" s="32">
-        <v>0</v>
-      </c>
-      <c r="C28" s="32">
-        <v>0</v>
-      </c>
-      <c r="D28" s="32">
-        <v>0</v>
-      </c>
-      <c r="E28" s="32">
-        <v>0</v>
-      </c>
-      <c r="F28" s="32">
-        <v>0</v>
-      </c>
-      <c r="G28" s="32">
-        <v>1</v>
-      </c>
-      <c r="H28" s="32">
-        <v>0</v>
-      </c>
-      <c r="I28" s="32">
-        <v>0</v>
-      </c>
-      <c r="J28" s="32">
-        <v>0</v>
-      </c>
-      <c r="K28" s="32">
-        <v>0</v>
-      </c>
-      <c r="L28" s="32">
-        <v>0</v>
-      </c>
-      <c r="M28" s="32">
-        <v>0</v>
-      </c>
-      <c r="N28" s="32">
-        <v>0</v>
-      </c>
-      <c r="O28" s="32">
-        <v>0</v>
-      </c>
-      <c r="P28" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="32">
-        <v>0</v>
-      </c>
-      <c r="R28" s="32">
-        <v>0</v>
-      </c>
-      <c r="S28" s="32">
-        <v>0</v>
-      </c>
-      <c r="T28" s="32">
-        <v>0</v>
-      </c>
-      <c r="U28" s="32">
-        <v>0</v>
-      </c>
-      <c r="V28" s="32">
-        <v>0</v>
-      </c>
-      <c r="W28" s="32">
-        <v>0</v>
-      </c>
-      <c r="X28" s="32">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="32">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="32">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="33">
+      <c r="B28" s="26">
+        <v>0</v>
+      </c>
+      <c r="C28" s="26">
+        <v>0</v>
+      </c>
+      <c r="D28" s="26">
+        <v>0</v>
+      </c>
+      <c r="E28" s="26">
+        <v>0</v>
+      </c>
+      <c r="F28" s="26">
+        <v>0</v>
+      </c>
+      <c r="G28" s="26">
+        <v>1</v>
+      </c>
+      <c r="H28" s="26">
+        <v>0</v>
+      </c>
+      <c r="I28" s="26">
+        <v>0</v>
+      </c>
+      <c r="J28" s="26">
+        <v>0</v>
+      </c>
+      <c r="K28" s="26">
+        <v>0</v>
+      </c>
+      <c r="L28" s="26">
+        <v>0</v>
+      </c>
+      <c r="M28" s="26">
+        <v>0</v>
+      </c>
+      <c r="N28" s="26">
+        <v>0</v>
+      </c>
+      <c r="O28" s="26">
+        <v>0</v>
+      </c>
+      <c r="P28" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="26">
+        <v>0</v>
+      </c>
+      <c r="R28" s="26">
+        <v>0</v>
+      </c>
+      <c r="S28" s="26">
+        <v>0</v>
+      </c>
+      <c r="T28" s="26">
+        <v>0</v>
+      </c>
+      <c r="U28" s="26">
+        <v>0</v>
+      </c>
+      <c r="V28" s="26">
+        <v>0</v>
+      </c>
+      <c r="W28" s="26">
+        <v>0</v>
+      </c>
+      <c r="X28" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A29" s="34">
+      <c r="A29" s="28">
         <v>26</v>
       </c>
-      <c r="B29" s="32">
-        <v>0</v>
-      </c>
-      <c r="C29" s="32">
-        <v>0</v>
-      </c>
-      <c r="D29" s="32">
-        <v>0</v>
-      </c>
-      <c r="E29" s="32">
-        <v>0</v>
-      </c>
-      <c r="F29" s="32">
-        <v>0</v>
-      </c>
-      <c r="G29" s="32">
-        <v>1</v>
-      </c>
-      <c r="H29" s="32">
-        <v>0</v>
-      </c>
-      <c r="I29" s="32">
-        <v>0</v>
-      </c>
-      <c r="J29" s="32">
-        <v>0</v>
-      </c>
-      <c r="K29" s="32">
-        <v>0</v>
-      </c>
-      <c r="L29" s="32">
-        <v>0</v>
-      </c>
-      <c r="M29" s="32">
-        <v>0</v>
-      </c>
-      <c r="N29" s="32">
-        <v>0</v>
-      </c>
-      <c r="O29" s="32">
-        <v>0</v>
-      </c>
-      <c r="P29" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="32">
-        <v>0</v>
-      </c>
-      <c r="R29" s="32">
-        <v>0</v>
-      </c>
-      <c r="S29" s="32">
-        <v>0</v>
-      </c>
-      <c r="T29" s="32">
-        <v>0</v>
-      </c>
-      <c r="U29" s="32">
-        <v>0</v>
-      </c>
-      <c r="V29" s="32">
-        <v>0</v>
-      </c>
-      <c r="W29" s="32">
-        <v>0</v>
-      </c>
-      <c r="X29" s="32">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="32">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="32">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="33">
+      <c r="B29" s="26">
+        <v>0</v>
+      </c>
+      <c r="C29" s="26">
+        <v>0</v>
+      </c>
+      <c r="D29" s="26">
+        <v>0</v>
+      </c>
+      <c r="E29" s="26">
+        <v>0</v>
+      </c>
+      <c r="F29" s="26">
+        <v>0</v>
+      </c>
+      <c r="G29" s="26">
+        <v>1</v>
+      </c>
+      <c r="H29" s="26">
+        <v>0</v>
+      </c>
+      <c r="I29" s="26">
+        <v>0</v>
+      </c>
+      <c r="J29" s="26">
+        <v>0</v>
+      </c>
+      <c r="K29" s="26">
+        <v>0</v>
+      </c>
+      <c r="L29" s="26">
+        <v>0</v>
+      </c>
+      <c r="M29" s="26">
+        <v>0</v>
+      </c>
+      <c r="N29" s="26">
+        <v>0</v>
+      </c>
+      <c r="O29" s="26">
+        <v>0</v>
+      </c>
+      <c r="P29" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="26">
+        <v>0</v>
+      </c>
+      <c r="R29" s="26">
+        <v>0</v>
+      </c>
+      <c r="S29" s="26">
+        <v>0</v>
+      </c>
+      <c r="T29" s="26">
+        <v>0</v>
+      </c>
+      <c r="U29" s="26">
+        <v>0</v>
+      </c>
+      <c r="V29" s="26">
+        <v>0</v>
+      </c>
+      <c r="W29" s="26">
+        <v>0</v>
+      </c>
+      <c r="X29" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A30" s="34">
+      <c r="A30" s="28">
         <v>27</v>
       </c>
-      <c r="B30" s="32">
-        <v>0</v>
-      </c>
-      <c r="C30" s="32">
-        <v>0</v>
-      </c>
-      <c r="D30" s="32">
-        <v>0</v>
-      </c>
-      <c r="E30" s="32">
-        <v>0</v>
-      </c>
-      <c r="F30" s="32">
-        <v>1</v>
-      </c>
-      <c r="G30" s="32">
-        <v>0</v>
-      </c>
-      <c r="H30" s="32">
-        <v>0</v>
-      </c>
-      <c r="I30" s="32">
-        <v>0</v>
-      </c>
-      <c r="J30" s="32">
-        <v>0</v>
-      </c>
-      <c r="K30" s="32">
-        <v>0</v>
-      </c>
-      <c r="L30" s="32">
-        <v>0</v>
-      </c>
-      <c r="M30" s="32">
-        <v>0</v>
-      </c>
-      <c r="N30" s="32">
-        <v>0</v>
-      </c>
-      <c r="O30" s="32">
-        <v>0</v>
-      </c>
-      <c r="P30" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="32">
-        <v>0</v>
-      </c>
-      <c r="R30" s="32">
-        <v>0</v>
-      </c>
-      <c r="S30" s="32">
-        <v>0</v>
-      </c>
-      <c r="T30" s="32">
-        <v>0</v>
-      </c>
-      <c r="U30" s="32">
-        <v>0</v>
-      </c>
-      <c r="V30" s="32">
-        <v>0</v>
-      </c>
-      <c r="W30" s="32">
-        <v>0</v>
-      </c>
-      <c r="X30" s="32">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="32">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="32">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="33">
+      <c r="B30" s="26">
+        <v>0</v>
+      </c>
+      <c r="C30" s="26">
+        <v>0</v>
+      </c>
+      <c r="D30" s="26">
+        <v>0</v>
+      </c>
+      <c r="E30" s="26">
+        <v>0</v>
+      </c>
+      <c r="F30" s="26">
+        <v>1</v>
+      </c>
+      <c r="G30" s="26">
+        <v>0</v>
+      </c>
+      <c r="H30" s="26">
+        <v>0</v>
+      </c>
+      <c r="I30" s="26">
+        <v>0</v>
+      </c>
+      <c r="J30" s="26">
+        <v>0</v>
+      </c>
+      <c r="K30" s="26">
+        <v>0</v>
+      </c>
+      <c r="L30" s="26">
+        <v>0</v>
+      </c>
+      <c r="M30" s="26">
+        <v>0</v>
+      </c>
+      <c r="N30" s="26">
+        <v>0</v>
+      </c>
+      <c r="O30" s="26">
+        <v>0</v>
+      </c>
+      <c r="P30" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="26">
+        <v>0</v>
+      </c>
+      <c r="R30" s="26">
+        <v>0</v>
+      </c>
+      <c r="S30" s="26">
+        <v>0</v>
+      </c>
+      <c r="T30" s="26">
+        <v>0</v>
+      </c>
+      <c r="U30" s="26">
+        <v>0</v>
+      </c>
+      <c r="V30" s="26">
+        <v>0</v>
+      </c>
+      <c r="W30" s="26">
+        <v>0</v>
+      </c>
+      <c r="X30" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A31" s="35">
+      <c r="A31" s="29">
         <v>28</v>
       </c>
-      <c r="B31" s="36">
-        <v>0</v>
-      </c>
-      <c r="C31" s="36">
-        <v>0</v>
-      </c>
-      <c r="D31" s="36">
-        <v>0</v>
-      </c>
-      <c r="E31" s="36">
-        <v>0</v>
-      </c>
-      <c r="F31" s="36">
-        <v>0</v>
-      </c>
-      <c r="G31" s="36">
-        <v>0</v>
-      </c>
-      <c r="H31" s="36">
-        <v>0</v>
-      </c>
-      <c r="I31" s="36">
-        <v>0</v>
-      </c>
-      <c r="J31" s="36">
-        <v>0</v>
-      </c>
-      <c r="K31" s="36">
-        <v>0</v>
-      </c>
-      <c r="L31" s="36">
-        <v>0</v>
-      </c>
-      <c r="M31" s="36">
-        <v>1</v>
-      </c>
-      <c r="N31" s="36">
-        <v>1</v>
-      </c>
-      <c r="O31" s="36">
-        <v>0</v>
-      </c>
-      <c r="P31" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="36">
-        <v>0</v>
-      </c>
-      <c r="R31" s="36">
-        <v>0</v>
-      </c>
-      <c r="S31" s="36">
-        <v>0</v>
-      </c>
-      <c r="T31" s="36">
-        <v>0</v>
-      </c>
-      <c r="U31" s="36">
-        <v>0</v>
-      </c>
-      <c r="V31" s="36">
-        <v>0</v>
-      </c>
-      <c r="W31" s="36">
-        <v>0</v>
-      </c>
-      <c r="X31" s="36">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="36">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="36">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="36">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="36">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="37">
+      <c r="B31" s="30">
+        <v>0</v>
+      </c>
+      <c r="C31" s="30">
+        <v>0</v>
+      </c>
+      <c r="D31" s="30">
+        <v>0</v>
+      </c>
+      <c r="E31" s="30">
+        <v>0</v>
+      </c>
+      <c r="F31" s="30">
+        <v>0</v>
+      </c>
+      <c r="G31" s="30">
+        <v>0</v>
+      </c>
+      <c r="H31" s="30">
+        <v>0</v>
+      </c>
+      <c r="I31" s="30">
+        <v>0</v>
+      </c>
+      <c r="J31" s="30">
+        <v>0</v>
+      </c>
+      <c r="K31" s="30">
+        <v>0</v>
+      </c>
+      <c r="L31" s="30">
+        <v>0</v>
+      </c>
+      <c r="M31" s="30">
+        <v>1</v>
+      </c>
+      <c r="N31" s="30">
+        <v>1</v>
+      </c>
+      <c r="O31" s="30">
+        <v>0</v>
+      </c>
+      <c r="P31" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="30">
+        <v>0</v>
+      </c>
+      <c r="R31" s="30">
+        <v>0</v>
+      </c>
+      <c r="S31" s="30">
+        <v>0</v>
+      </c>
+      <c r="T31" s="30">
+        <v>0</v>
+      </c>
+      <c r="U31" s="30">
+        <v>0</v>
+      </c>
+      <c r="V31" s="30">
+        <v>0</v>
+      </c>
+      <c r="W31" s="30">
+        <v>0</v>
+      </c>
+      <c r="X31" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="31">
         <v>0</v>
       </c>
     </row>
@@ -11466,4 +11600,1452 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB7B01C-4BC8-CE45-B092-DE06B60C5EC6}">
+  <dimension ref="A1:AC14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AD5" sqref="AD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="29" width="6.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q1" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="R1" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="T1" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="V1" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="W1" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="X1" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z1" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA1" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB1" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC1" s="56" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="12"/>
+    </row>
+    <row r="3" spans="1:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="43">
+        <v>1</v>
+      </c>
+      <c r="C3" s="38">
+        <v>2</v>
+      </c>
+      <c r="D3" s="38">
+        <v>0</v>
+      </c>
+      <c r="E3" s="38">
+        <v>0</v>
+      </c>
+      <c r="F3" s="38">
+        <v>1</v>
+      </c>
+      <c r="G3" s="38">
+        <v>0</v>
+      </c>
+      <c r="H3" s="38">
+        <v>0</v>
+      </c>
+      <c r="I3" s="38">
+        <v>2</v>
+      </c>
+      <c r="J3" s="38">
+        <v>0</v>
+      </c>
+      <c r="K3" s="38">
+        <v>0</v>
+      </c>
+      <c r="L3" s="38">
+        <v>1</v>
+      </c>
+      <c r="M3" s="38">
+        <v>0</v>
+      </c>
+      <c r="N3" s="38">
+        <v>0</v>
+      </c>
+      <c r="O3" s="38">
+        <v>0</v>
+      </c>
+      <c r="P3" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="38">
+        <v>0</v>
+      </c>
+      <c r="R3" s="38">
+        <v>0</v>
+      </c>
+      <c r="S3" s="38">
+        <v>0</v>
+      </c>
+      <c r="T3" s="38">
+        <v>1</v>
+      </c>
+      <c r="U3" s="38">
+        <v>1</v>
+      </c>
+      <c r="V3" s="38">
+        <v>0</v>
+      </c>
+      <c r="W3" s="38">
+        <v>0</v>
+      </c>
+      <c r="X3" s="38">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="38">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="38">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="38">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="43">
+        <v>0</v>
+      </c>
+      <c r="C4" s="38">
+        <v>0</v>
+      </c>
+      <c r="D4" s="38">
+        <v>0</v>
+      </c>
+      <c r="E4" s="38">
+        <v>0</v>
+      </c>
+      <c r="F4" s="38">
+        <v>0</v>
+      </c>
+      <c r="G4" s="38">
+        <v>1</v>
+      </c>
+      <c r="H4" s="38">
+        <v>0</v>
+      </c>
+      <c r="I4" s="38">
+        <v>0</v>
+      </c>
+      <c r="J4" s="38">
+        <v>0</v>
+      </c>
+      <c r="K4" s="38">
+        <v>0</v>
+      </c>
+      <c r="L4" s="38">
+        <v>0</v>
+      </c>
+      <c r="M4" s="38">
+        <v>0</v>
+      </c>
+      <c r="N4" s="38">
+        <v>0</v>
+      </c>
+      <c r="O4" s="38">
+        <v>0</v>
+      </c>
+      <c r="P4" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="38">
+        <v>0</v>
+      </c>
+      <c r="R4" s="38">
+        <v>0</v>
+      </c>
+      <c r="S4" s="38">
+        <v>0</v>
+      </c>
+      <c r="T4" s="38">
+        <v>0</v>
+      </c>
+      <c r="U4" s="38">
+        <v>0</v>
+      </c>
+      <c r="V4" s="38">
+        <v>0</v>
+      </c>
+      <c r="W4" s="38">
+        <v>0</v>
+      </c>
+      <c r="X4" s="38">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="38">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="38">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="38">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="43">
+        <v>0</v>
+      </c>
+      <c r="C5" s="38">
+        <v>1</v>
+      </c>
+      <c r="D5" s="38">
+        <v>1</v>
+      </c>
+      <c r="E5" s="38">
+        <v>1</v>
+      </c>
+      <c r="F5" s="38">
+        <v>0</v>
+      </c>
+      <c r="G5" s="38">
+        <v>0</v>
+      </c>
+      <c r="H5" s="38">
+        <v>0</v>
+      </c>
+      <c r="I5" s="38">
+        <v>0</v>
+      </c>
+      <c r="J5" s="38">
+        <v>0</v>
+      </c>
+      <c r="K5" s="38">
+        <v>0</v>
+      </c>
+      <c r="L5" s="38">
+        <v>0</v>
+      </c>
+      <c r="M5" s="38">
+        <v>0</v>
+      </c>
+      <c r="N5" s="38">
+        <v>0</v>
+      </c>
+      <c r="O5" s="38">
+        <v>0</v>
+      </c>
+      <c r="P5" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="38">
+        <v>0</v>
+      </c>
+      <c r="R5" s="38">
+        <v>0</v>
+      </c>
+      <c r="S5" s="38">
+        <v>0</v>
+      </c>
+      <c r="T5" s="38">
+        <v>0</v>
+      </c>
+      <c r="U5" s="38">
+        <v>0</v>
+      </c>
+      <c r="V5" s="38">
+        <v>0</v>
+      </c>
+      <c r="W5" s="38">
+        <v>0</v>
+      </c>
+      <c r="X5" s="38">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="38">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="38">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="38">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="43">
+        <v>1</v>
+      </c>
+      <c r="C6" s="38">
+        <v>1</v>
+      </c>
+      <c r="D6" s="38">
+        <v>1</v>
+      </c>
+      <c r="E6" s="38">
+        <v>5</v>
+      </c>
+      <c r="F6" s="38">
+        <v>1</v>
+      </c>
+      <c r="G6" s="38">
+        <v>0</v>
+      </c>
+      <c r="H6" s="38">
+        <v>0</v>
+      </c>
+      <c r="I6" s="38">
+        <v>0</v>
+      </c>
+      <c r="J6" s="38">
+        <v>2</v>
+      </c>
+      <c r="K6" s="38">
+        <v>0</v>
+      </c>
+      <c r="L6" s="38">
+        <v>0</v>
+      </c>
+      <c r="M6" s="38">
+        <v>0</v>
+      </c>
+      <c r="N6" s="38">
+        <v>0</v>
+      </c>
+      <c r="O6" s="38">
+        <v>0</v>
+      </c>
+      <c r="P6" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="38">
+        <v>2</v>
+      </c>
+      <c r="R6" s="38">
+        <v>0</v>
+      </c>
+      <c r="S6" s="38">
+        <v>2</v>
+      </c>
+      <c r="T6" s="38">
+        <v>0</v>
+      </c>
+      <c r="U6" s="38">
+        <v>0</v>
+      </c>
+      <c r="V6" s="38">
+        <v>0</v>
+      </c>
+      <c r="W6" s="38">
+        <v>0</v>
+      </c>
+      <c r="X6" s="38">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="38">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="38">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="38">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="44">
+        <v>1</v>
+      </c>
+      <c r="C7" s="45">
+        <v>0</v>
+      </c>
+      <c r="D7" s="45">
+        <v>0</v>
+      </c>
+      <c r="E7" s="45">
+        <v>0</v>
+      </c>
+      <c r="F7" s="45">
+        <v>0</v>
+      </c>
+      <c r="G7" s="45">
+        <v>0</v>
+      </c>
+      <c r="H7" s="45">
+        <v>0</v>
+      </c>
+      <c r="I7" s="45">
+        <v>0</v>
+      </c>
+      <c r="J7" s="45">
+        <v>0</v>
+      </c>
+      <c r="K7" s="45">
+        <v>0</v>
+      </c>
+      <c r="L7" s="45">
+        <v>0</v>
+      </c>
+      <c r="M7" s="45">
+        <v>0</v>
+      </c>
+      <c r="N7" s="45">
+        <v>0</v>
+      </c>
+      <c r="O7" s="45">
+        <v>0</v>
+      </c>
+      <c r="P7" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="45">
+        <v>0</v>
+      </c>
+      <c r="R7" s="45">
+        <v>0</v>
+      </c>
+      <c r="S7" s="45">
+        <v>0</v>
+      </c>
+      <c r="T7" s="45">
+        <v>0</v>
+      </c>
+      <c r="U7" s="45">
+        <v>0</v>
+      </c>
+      <c r="V7" s="45">
+        <v>0</v>
+      </c>
+      <c r="W7" s="45">
+        <v>0</v>
+      </c>
+      <c r="X7" s="45">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="45">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="45">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="45">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="45">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="44">
+        <v>2</v>
+      </c>
+      <c r="C8" s="45">
+        <v>0</v>
+      </c>
+      <c r="D8" s="46">
+        <v>2</v>
+      </c>
+      <c r="E8" s="45">
+        <v>0</v>
+      </c>
+      <c r="F8" s="45">
+        <v>0</v>
+      </c>
+      <c r="G8" s="45">
+        <v>0</v>
+      </c>
+      <c r="H8" s="46">
+        <v>2</v>
+      </c>
+      <c r="I8" s="45">
+        <v>0</v>
+      </c>
+      <c r="J8" s="45">
+        <v>0</v>
+      </c>
+      <c r="K8" s="46">
+        <v>2</v>
+      </c>
+      <c r="L8" s="45">
+        <v>0</v>
+      </c>
+      <c r="M8" s="45">
+        <v>0</v>
+      </c>
+      <c r="N8" s="45">
+        <v>0</v>
+      </c>
+      <c r="O8" s="46">
+        <v>2</v>
+      </c>
+      <c r="P8" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="45">
+        <v>0</v>
+      </c>
+      <c r="R8" s="46">
+        <v>2</v>
+      </c>
+      <c r="S8" s="45">
+        <v>0</v>
+      </c>
+      <c r="T8" s="45">
+        <v>0</v>
+      </c>
+      <c r="U8" s="45">
+        <v>0</v>
+      </c>
+      <c r="V8" s="46">
+        <v>2</v>
+      </c>
+      <c r="W8" s="46">
+        <v>2</v>
+      </c>
+      <c r="X8" s="46">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="46">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="46">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="45">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="45">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="43">
+        <v>0</v>
+      </c>
+      <c r="C9" s="38">
+        <v>0</v>
+      </c>
+      <c r="D9" s="38">
+        <v>1</v>
+      </c>
+      <c r="E9" s="38">
+        <v>0</v>
+      </c>
+      <c r="F9" s="38">
+        <v>1</v>
+      </c>
+      <c r="G9" s="38">
+        <v>0</v>
+      </c>
+      <c r="H9" s="38">
+        <v>0</v>
+      </c>
+      <c r="I9" s="38">
+        <v>0</v>
+      </c>
+      <c r="J9" s="38">
+        <v>0</v>
+      </c>
+      <c r="K9" s="38">
+        <v>0</v>
+      </c>
+      <c r="L9" s="38">
+        <v>1</v>
+      </c>
+      <c r="M9" s="38">
+        <v>0</v>
+      </c>
+      <c r="N9" s="38">
+        <v>0</v>
+      </c>
+      <c r="O9" s="38">
+        <v>0</v>
+      </c>
+      <c r="P9" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="38">
+        <v>0</v>
+      </c>
+      <c r="R9" s="38">
+        <v>0</v>
+      </c>
+      <c r="S9" s="38">
+        <v>0</v>
+      </c>
+      <c r="T9" s="38">
+        <v>0</v>
+      </c>
+      <c r="U9" s="38">
+        <v>0</v>
+      </c>
+      <c r="V9" s="38">
+        <v>0</v>
+      </c>
+      <c r="W9" s="38">
+        <v>0</v>
+      </c>
+      <c r="X9" s="38">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="38">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="38">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="38">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="47">
+        <v>0</v>
+      </c>
+      <c r="C10" s="48">
+        <v>0</v>
+      </c>
+      <c r="D10" s="48">
+        <v>0</v>
+      </c>
+      <c r="E10" s="48">
+        <v>0</v>
+      </c>
+      <c r="F10" s="48">
+        <v>1</v>
+      </c>
+      <c r="G10" s="41">
+        <v>0</v>
+      </c>
+      <c r="H10" s="41">
+        <v>0</v>
+      </c>
+      <c r="I10" s="41">
+        <v>0</v>
+      </c>
+      <c r="J10" s="41">
+        <v>0</v>
+      </c>
+      <c r="K10" s="41">
+        <v>0</v>
+      </c>
+      <c r="L10" s="41">
+        <v>0</v>
+      </c>
+      <c r="M10" s="41">
+        <v>0</v>
+      </c>
+      <c r="N10" s="41">
+        <v>0</v>
+      </c>
+      <c r="O10" s="41">
+        <v>0</v>
+      </c>
+      <c r="P10" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="41">
+        <v>0</v>
+      </c>
+      <c r="R10" s="41">
+        <v>0</v>
+      </c>
+      <c r="S10" s="41">
+        <v>0</v>
+      </c>
+      <c r="T10" s="41">
+        <v>0</v>
+      </c>
+      <c r="U10" s="41">
+        <v>0</v>
+      </c>
+      <c r="V10" s="41">
+        <v>0</v>
+      </c>
+      <c r="W10" s="41">
+        <v>0</v>
+      </c>
+      <c r="X10" s="41">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="41">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="41">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="41">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="41">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="50">
+        <v>0</v>
+      </c>
+      <c r="C11" s="46">
+        <v>1</v>
+      </c>
+      <c r="D11" s="45">
+        <v>0</v>
+      </c>
+      <c r="E11" s="45">
+        <v>0</v>
+      </c>
+      <c r="F11" s="46">
+        <v>1</v>
+      </c>
+      <c r="G11" s="45">
+        <v>0</v>
+      </c>
+      <c r="H11" s="45">
+        <v>0</v>
+      </c>
+      <c r="I11" s="45">
+        <v>0</v>
+      </c>
+      <c r="J11" s="45">
+        <v>0</v>
+      </c>
+      <c r="K11" s="45">
+        <v>0</v>
+      </c>
+      <c r="L11" s="45">
+        <v>0</v>
+      </c>
+      <c r="M11" s="46">
+        <v>1</v>
+      </c>
+      <c r="N11" s="45">
+        <v>0</v>
+      </c>
+      <c r="O11" s="45">
+        <v>0</v>
+      </c>
+      <c r="P11" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="45">
+        <v>0</v>
+      </c>
+      <c r="R11" s="45">
+        <v>0</v>
+      </c>
+      <c r="S11" s="45">
+        <v>0</v>
+      </c>
+      <c r="T11" s="45">
+        <v>0</v>
+      </c>
+      <c r="U11" s="45">
+        <v>0</v>
+      </c>
+      <c r="V11" s="45">
+        <v>0</v>
+      </c>
+      <c r="W11" s="45">
+        <v>0</v>
+      </c>
+      <c r="X11" s="45">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="45">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="45">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="46">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="45">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="47">
+        <v>0</v>
+      </c>
+      <c r="C12" s="48">
+        <v>1</v>
+      </c>
+      <c r="D12" s="48">
+        <v>0</v>
+      </c>
+      <c r="E12" s="48">
+        <v>0</v>
+      </c>
+      <c r="F12" s="48">
+        <v>1</v>
+      </c>
+      <c r="G12" s="45">
+        <v>1</v>
+      </c>
+      <c r="H12" s="48">
+        <v>0</v>
+      </c>
+      <c r="I12" s="48">
+        <v>0</v>
+      </c>
+      <c r="J12" s="48">
+        <v>0</v>
+      </c>
+      <c r="K12" s="48">
+        <v>0</v>
+      </c>
+      <c r="L12" s="48">
+        <v>0</v>
+      </c>
+      <c r="M12" s="48">
+        <v>1</v>
+      </c>
+      <c r="N12" s="45">
+        <v>2</v>
+      </c>
+      <c r="O12" s="48">
+        <v>0</v>
+      </c>
+      <c r="P12" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="48">
+        <v>0</v>
+      </c>
+      <c r="R12" s="48">
+        <v>0</v>
+      </c>
+      <c r="S12" s="48">
+        <v>0</v>
+      </c>
+      <c r="T12" s="48">
+        <v>0</v>
+      </c>
+      <c r="U12" s="48">
+        <v>0</v>
+      </c>
+      <c r="V12" s="48">
+        <v>0</v>
+      </c>
+      <c r="W12" s="48">
+        <v>0</v>
+      </c>
+      <c r="X12" s="48">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="48">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="48">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="48">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="48">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="52">
+        <v>3</v>
+      </c>
+      <c r="C13" s="26">
+        <v>1</v>
+      </c>
+      <c r="D13" s="26">
+        <v>1</v>
+      </c>
+      <c r="E13" s="26">
+        <v>0</v>
+      </c>
+      <c r="F13" s="26">
+        <v>0</v>
+      </c>
+      <c r="G13" s="26">
+        <v>2</v>
+      </c>
+      <c r="H13" s="26">
+        <v>2</v>
+      </c>
+      <c r="I13" s="26">
+        <v>1</v>
+      </c>
+      <c r="J13" s="26">
+        <v>0</v>
+      </c>
+      <c r="K13" s="26">
+        <v>0</v>
+      </c>
+      <c r="L13" s="26">
+        <v>0</v>
+      </c>
+      <c r="M13" s="26">
+        <v>0</v>
+      </c>
+      <c r="N13" s="26">
+        <v>0</v>
+      </c>
+      <c r="O13" s="26">
+        <v>0</v>
+      </c>
+      <c r="P13" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="26">
+        <v>0</v>
+      </c>
+      <c r="R13" s="26">
+        <v>0</v>
+      </c>
+      <c r="S13" s="26">
+        <v>0</v>
+      </c>
+      <c r="T13" s="26">
+        <v>1</v>
+      </c>
+      <c r="U13" s="26">
+        <v>1</v>
+      </c>
+      <c r="V13" s="26">
+        <v>0</v>
+      </c>
+      <c r="W13" s="26">
+        <v>0</v>
+      </c>
+      <c r="X13" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="26">
+        <v>2</v>
+      </c>
+      <c r="AC13" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="53">
+        <v>1</v>
+      </c>
+      <c r="C14" s="30">
+        <v>0</v>
+      </c>
+      <c r="D14" s="30">
+        <v>0</v>
+      </c>
+      <c r="E14" s="30">
+        <v>0</v>
+      </c>
+      <c r="F14" s="30">
+        <v>0</v>
+      </c>
+      <c r="G14" s="30">
+        <v>0</v>
+      </c>
+      <c r="H14" s="30">
+        <v>0</v>
+      </c>
+      <c r="I14" s="30">
+        <v>0</v>
+      </c>
+      <c r="J14" s="30">
+        <v>0</v>
+      </c>
+      <c r="K14" s="30">
+        <v>0</v>
+      </c>
+      <c r="L14" s="30">
+        <v>0</v>
+      </c>
+      <c r="M14" s="30">
+        <v>0</v>
+      </c>
+      <c r="N14" s="30">
+        <v>0</v>
+      </c>
+      <c r="O14" s="30">
+        <v>0</v>
+      </c>
+      <c r="P14" s="30">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="30">
+        <v>0</v>
+      </c>
+      <c r="R14" s="30">
+        <v>0</v>
+      </c>
+      <c r="S14" s="30">
+        <v>0</v>
+      </c>
+      <c r="T14" s="30">
+        <v>0</v>
+      </c>
+      <c r="U14" s="30">
+        <v>0</v>
+      </c>
+      <c r="V14" s="30">
+        <v>0</v>
+      </c>
+      <c r="W14" s="30">
+        <v>0</v>
+      </c>
+      <c r="X14" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="31">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:A14">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A14">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A14">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:AC4">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:AC5">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:AC6">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:AC9">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD12 A15:XFD1048576 A13:A14 AD13:XFD14">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:AC13">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:AC14">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:AC14">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677D7F9D-167C-3649-B90B-D35B9C584F30}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" style="57" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="57"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59"/>
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="58">
+        <v>4</v>
+      </c>
+      <c r="C3" s="58">
+        <v>0</v>
+      </c>
+      <c r="D3" s="58">
+        <v>4</v>
+      </c>
+      <c r="E3" s="58">
+        <v>1</v>
+      </c>
+      <c r="F3" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="58">
+        <v>0</v>
+      </c>
+      <c r="C4" s="58">
+        <v>1</v>
+      </c>
+      <c r="D4" s="58">
+        <v>2</v>
+      </c>
+      <c r="E4" s="58">
+        <v>1</v>
+      </c>
+      <c r="F4" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="60">
+        <v>4</v>
+      </c>
+      <c r="C5" s="60">
+        <v>2</v>
+      </c>
+      <c r="D5" s="60">
+        <v>1</v>
+      </c>
+      <c r="E5" s="60">
+        <v>0</v>
+      </c>
+      <c r="F5" s="61">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B3:F5">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/figures/heatmap.xlsx
+++ b/figures/heatmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Desktop/Review_figures/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9F0F8F-C35F-9E41-947E-1A1E5DB9BAB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA18084-48E6-4545-99DA-3FE51ECD30BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="800" yWindow="760" windowWidth="27640" windowHeight="15660" activeTab="5" xr2:uid="{A9C2CF92-978C-AA41-BFCE-FA732D293089}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="115">
   <si>
     <t>Disease</t>
   </si>
@@ -379,6 +379,9 @@
   <si>
     <t>Microbial DNA isolation methods</t>
   </si>
+  <si>
+    <t>DIAMOND</t>
+  </si>
 </sst>
 </file>
 
@@ -686,24 +689,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -788,6 +773,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1105,46 +1108,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FB1AA5-BB65-0E47-B263-AF583DABF612}">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="66" workbookViewId="0">
+    <sheetView zoomScale="66" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33" t="s">
+      <c r="A1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
     </row>
     <row r="2" spans="1:24" ht="221" x14ac:dyDescent="0.2">
-      <c r="A2" s="32"/>
+      <c r="A2" s="61"/>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2619,7 +2622,7 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A15"/>
+      <selection sqref="A1:R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2631,33 +2634,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="6" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="36" t="s">
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="37"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="66"/>
     </row>
     <row r="2" spans="1:18" s="7" customFormat="1" ht="134" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="35"/>
+      <c r="A2" s="64"/>
       <c r="B2" s="20" t="s">
         <v>3</v>
       </c>
@@ -2904,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G7" s="8">
         <v>0</v>
@@ -3486,10 +3489,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCC52DF-2861-C943-AFB3-5B2E48A96220}">
-  <dimension ref="A1:BD32"/>
+  <dimension ref="A1:BE33"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="110" workbookViewId="0">
-      <selection activeCell="AL42" sqref="AL42"/>
+    <sheetView topLeftCell="A7" zoomScale="110" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3504,7 +3507,7 @@
     <col min="56" max="56" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>45</v>
       </c>
@@ -3670,15 +3673,18 @@
       <c r="BD1" t="s">
         <v>98</v>
       </c>
+      <c r="BE1" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
-        <f t="shared" ref="A3:A31" si="0">SUM(C3:BD3)</f>
+        <f t="shared" ref="A3:A32" si="0">SUM(C3:BD3)</f>
         <v>3</v>
       </c>
       <c r="B3">
@@ -3846,8 +3852,11 @@
       <c r="BD3">
         <v>0</v>
       </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4017,8 +4026,11 @@
       <c r="BD4">
         <v>0</v>
       </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4188,8 +4200,11 @@
       <c r="BD5">
         <v>0</v>
       </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4359,8 +4374,11 @@
       <c r="BD6">
         <v>0</v>
       </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4530,8 +4548,11 @@
       <c r="BD7">
         <v>0</v>
       </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4701,8 +4722,11 @@
       <c r="BD8">
         <v>0</v>
       </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4872,8 +4896,11 @@
       <c r="BD9">
         <v>0</v>
       </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5043,8 +5070,11 @@
       <c r="BD10">
         <v>0</v>
       </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5214,8 +5244,11 @@
       <c r="BD11">
         <v>0</v>
       </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5385,8 +5418,11 @@
       <c r="BD12">
         <v>0</v>
       </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5556,8 +5592,11 @@
       <c r="BD13">
         <v>0</v>
       </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5727,8 +5766,11 @@
       <c r="BD14">
         <v>0</v>
       </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5898,8 +5940,11 @@
       <c r="BD15">
         <v>0</v>
       </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -6069,8 +6114,11 @@
       <c r="BD16">
         <v>0</v>
       </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6240,8 +6288,11 @@
       <c r="BD17">
         <v>0</v>
       </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -6411,8 +6462,11 @@
       <c r="BD18">
         <v>0</v>
       </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6582,8 +6636,11 @@
       <c r="BD19">
         <v>0</v>
       </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -6753,8 +6810,11 @@
       <c r="BD20">
         <v>0</v>
       </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6924,8 +6984,11 @@
       <c r="BD21">
         <v>0</v>
       </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7095,8 +7158,11 @@
       <c r="BD22">
         <v>0</v>
       </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7266,8 +7332,11 @@
       <c r="BD23">
         <v>0</v>
       </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7437,8 +7506,11 @@
       <c r="BD24">
         <v>0</v>
       </c>
+      <c r="BE24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7608,8 +7680,11 @@
       <c r="BD25">
         <v>0</v>
       </c>
+      <c r="BE25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7779,8 +7854,11 @@
       <c r="BD26">
         <v>0</v>
       </c>
+      <c r="BE26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7950,8 +8028,11 @@
       <c r="BD27">
         <v>0</v>
       </c>
+      <c r="BE27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -8121,8 +8202,11 @@
       <c r="BD28">
         <v>1</v>
       </c>
+      <c r="BE28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -8292,8 +8376,11 @@
       <c r="BD29">
         <v>0</v>
       </c>
+      <c r="BE29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -8463,10 +8550,12 @@
       <c r="BD30">
         <v>0</v>
       </c>
+      <c r="BE30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B31">
@@ -8634,233 +8723,427 @@
       <c r="BD31">
         <v>0</v>
       </c>
+      <c r="BE31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:56" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="5">
-        <f>SUM(C3:C31)</f>
-        <v>9</v>
-      </c>
-      <c r="D32" s="5">
-        <f t="shared" ref="D32:BD32" si="1">SUM(D3:D31)</f>
+    <row r="32" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <f>SUM(C32:BE32)</f>
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>29</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>0</v>
+      </c>
+      <c r="AS32">
+        <v>0</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="AV32">
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>0</v>
+      </c>
+      <c r="BB32">
+        <v>0</v>
+      </c>
+      <c r="BC32">
+        <v>0</v>
+      </c>
+      <c r="BD32">
+        <v>0</v>
+      </c>
+      <c r="BE32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:57" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="5">
+        <f>SUM(C3:C32)</f>
+        <v>10</v>
+      </c>
+      <c r="D33" s="5">
+        <f>SUM(D3:D32)</f>
         <v>7</v>
       </c>
-      <c r="E32" s="5">
-        <f t="shared" si="1"/>
+      <c r="E33" s="5">
+        <f>SUM(E3:E32)</f>
         <v>6</v>
       </c>
-      <c r="F32" s="5">
-        <f t="shared" si="1"/>
+      <c r="F33" s="5">
+        <f>SUM(F3:F32)</f>
         <v>6</v>
       </c>
-      <c r="G32" s="5">
-        <f t="shared" si="1"/>
+      <c r="G33" s="5">
+        <f>SUM(G3:G32)</f>
         <v>6</v>
       </c>
-      <c r="H32" s="5">
-        <f t="shared" si="1"/>
+      <c r="H33" s="5">
+        <f>SUM(H3:H32)</f>
         <v>4</v>
       </c>
-      <c r="I32" s="5">
-        <f t="shared" si="1"/>
+      <c r="I33" s="5">
+        <f>SUM(I3:I32)</f>
         <v>4</v>
       </c>
-      <c r="J32" s="5">
-        <f t="shared" si="1"/>
+      <c r="J33" s="5">
+        <f>SUM(J3:J32)</f>
         <v>3</v>
       </c>
-      <c r="K32" s="5">
-        <f t="shared" si="1"/>
+      <c r="K33" s="5">
+        <f>SUM(K3:K32)</f>
         <v>2</v>
       </c>
-      <c r="L32" s="5">
-        <f t="shared" si="1"/>
+      <c r="L33" s="5">
+        <f>SUM(L3:L32)</f>
         <v>2</v>
       </c>
-      <c r="M32" s="5">
-        <f t="shared" si="1"/>
+      <c r="M33" s="5">
+        <f>SUM(M3:M32)</f>
         <v>2</v>
       </c>
-      <c r="N32" s="5">
-        <f t="shared" si="1"/>
+      <c r="N33" s="5">
+        <f>SUM(N3:N32)</f>
         <v>2</v>
       </c>
-      <c r="O32" s="5">
-        <f t="shared" si="1"/>
+      <c r="O33" s="5">
+        <f>SUM(O3:O32)</f>
         <v>2</v>
       </c>
-      <c r="P32" s="5">
-        <f t="shared" si="1"/>
+      <c r="P33" s="5">
+        <f>SUM(P3:P32)</f>
         <v>2</v>
       </c>
-      <c r="Q32" s="5">
-        <f t="shared" si="1"/>
+      <c r="Q33" s="5">
+        <f>SUM(Q3:Q32)</f>
         <v>2</v>
       </c>
-      <c r="R32" s="5">
-        <f t="shared" si="1"/>
+      <c r="R33" s="5">
+        <f>SUM(R3:R32)</f>
         <v>2</v>
       </c>
-      <c r="S32" s="5">
-        <f t="shared" si="1"/>
+      <c r="S33" s="5">
+        <f>SUM(S3:S32)</f>
         <v>2</v>
       </c>
-      <c r="T32" s="5">
-        <f t="shared" si="1"/>
+      <c r="T33" s="5">
+        <f>SUM(T3:T32)</f>
         <v>2</v>
       </c>
-      <c r="U32" s="5">
-        <f t="shared" si="1"/>
+      <c r="U33" s="5">
+        <f>SUM(U3:U32)</f>
         <v>2</v>
       </c>
-      <c r="V32" s="5">
-        <f t="shared" si="1"/>
+      <c r="V33" s="5">
+        <f>SUM(V3:V32)</f>
         <v>2</v>
       </c>
-      <c r="W32" s="5">
-        <f t="shared" si="1"/>
+      <c r="W33" s="5">
+        <f>SUM(W3:W32)</f>
         <v>2</v>
       </c>
-      <c r="X32" s="5">
-        <f t="shared" si="1"/>
+      <c r="X33" s="5">
+        <f>SUM(X3:X32)</f>
         <v>2</v>
       </c>
-      <c r="Y32" s="5">
-        <f t="shared" si="1"/>
+      <c r="Y33" s="5">
+        <f>SUM(Y3:Y32)</f>
         <v>2</v>
       </c>
-      <c r="Z32" s="5">
-        <f t="shared" si="1"/>
+      <c r="Z33" s="5">
+        <f>SUM(Z3:Z32)</f>
         <v>2</v>
       </c>
-      <c r="AA32" s="5">
-        <f t="shared" si="1"/>
+      <c r="AA33" s="5">
+        <f>SUM(AA3:AA32)</f>
         <v>2</v>
       </c>
-      <c r="AB32" s="5">
-        <f t="shared" si="1"/>
+      <c r="AB33" s="5">
+        <f>SUM(AB3:AB32)</f>
         <v>2</v>
       </c>
-      <c r="AC32" s="5">
-        <f t="shared" si="1"/>
+      <c r="AC33" s="5">
+        <f>SUM(AC3:AC32)</f>
         <v>2</v>
       </c>
-      <c r="AD32" s="5">
-        <f t="shared" si="1"/>
+      <c r="AD33" s="5">
+        <f>SUM(AD3:AD32)</f>
         <v>2</v>
       </c>
-      <c r="AE32" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF32" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AG32" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AH32" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AI32" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AJ32" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AK32" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AL32" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AM32" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AN32" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AO32" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AP32" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AQ32" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AR32" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AS32" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AT32" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AU32" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AV32" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AW32" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AX32" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AY32" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AZ32" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="BA32" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="BB32" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="BC32" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="BD32" s="5">
-        <f t="shared" si="1"/>
+      <c r="AE33" s="5">
+        <f>SUM(AE3:AE32)</f>
+        <v>1</v>
+      </c>
+      <c r="AF33" s="5">
+        <f>SUM(AF3:AF32)</f>
+        <v>1</v>
+      </c>
+      <c r="AG33" s="5">
+        <f>SUM(AG3:AG32)</f>
+        <v>1</v>
+      </c>
+      <c r="AH33" s="5">
+        <f>SUM(AH3:AH32)</f>
+        <v>1</v>
+      </c>
+      <c r="AI33" s="5">
+        <f>SUM(AI3:AI32)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ33" s="5">
+        <f>SUM(AJ3:AJ32)</f>
+        <v>1</v>
+      </c>
+      <c r="AK33" s="5">
+        <f>SUM(AK3:AK32)</f>
+        <v>1</v>
+      </c>
+      <c r="AL33" s="5">
+        <f>SUM(AL3:AL32)</f>
+        <v>1</v>
+      </c>
+      <c r="AM33" s="5">
+        <f>SUM(AM3:AM32)</f>
+        <v>1</v>
+      </c>
+      <c r="AN33" s="5">
+        <f>SUM(AN3:AN32)</f>
+        <v>1</v>
+      </c>
+      <c r="AO33" s="5">
+        <f>SUM(AO3:AO32)</f>
+        <v>1</v>
+      </c>
+      <c r="AP33" s="5">
+        <f>SUM(AP3:AP32)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ33" s="5">
+        <f>SUM(AQ3:AQ32)</f>
+        <v>1</v>
+      </c>
+      <c r="AR33" s="5">
+        <f>SUM(AR3:AR32)</f>
+        <v>1</v>
+      </c>
+      <c r="AS33" s="5">
+        <f>SUM(AS3:AS32)</f>
+        <v>1</v>
+      </c>
+      <c r="AT33" s="5">
+        <f>SUM(AT3:AT32)</f>
+        <v>1</v>
+      </c>
+      <c r="AU33" s="5">
+        <f>SUM(AU3:AU32)</f>
+        <v>1</v>
+      </c>
+      <c r="AV33" s="5">
+        <f>SUM(AV3:AV32)</f>
+        <v>1</v>
+      </c>
+      <c r="AW33" s="5">
+        <f>SUM(AW3:AW32)</f>
+        <v>1</v>
+      </c>
+      <c r="AX33" s="5">
+        <f>SUM(AX3:AX32)</f>
+        <v>1</v>
+      </c>
+      <c r="AY33" s="5">
+        <f>SUM(AY3:AY32)</f>
+        <v>1</v>
+      </c>
+      <c r="AZ33" s="5">
+        <f>SUM(AZ3:AZ32)</f>
+        <v>1</v>
+      </c>
+      <c r="BA33" s="5">
+        <f>SUM(BA3:BA32)</f>
+        <v>1</v>
+      </c>
+      <c r="BB33" s="5">
+        <f>SUM(BB3:BB32)</f>
+        <v>1</v>
+      </c>
+      <c r="BC33" s="5">
+        <f>SUM(BC3:BC32)</f>
+        <v>1</v>
+      </c>
+      <c r="BD33" s="5">
+        <f>SUM(BD3:BD32)</f>
+        <v>1</v>
+      </c>
+      <c r="BE33" s="5">
+        <f>SUM(BE3:BE32)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:BD31">
-    <cfRule type="colorScale" priority="184">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:BE33">
+    <sortCondition ref="B3"/>
+  </sortState>
+  <conditionalFormatting sqref="C3:BE32">
+    <cfRule type="colorScale" priority="185">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:A32">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -8871,16 +9154,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5052CE14-51AE-A345-AB4E-33AAF1D2E60B}">
-  <dimension ref="A1:AC31"/>
+  <dimension ref="A1:AC32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:AC15"/>
+      <selection sqref="A1:AC32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="29" width="6.83203125" customWidth="1"/>
+    <col min="2" max="4" width="6.83203125" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="6" max="9" width="6.83203125" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" customWidth="1"/>
+    <col min="11" max="15" width="6.83203125" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" customWidth="1"/>
+    <col min="17" max="20" width="6.83203125" customWidth="1"/>
+    <col min="21" max="21" width="7.33203125" customWidth="1"/>
+    <col min="22" max="29" width="6.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -11498,96 +11789,188 @@
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A31" s="29">
+      <c r="A31" s="28">
         <v>28</v>
       </c>
-      <c r="B31" s="30">
-        <v>0</v>
-      </c>
-      <c r="C31" s="30">
-        <v>0</v>
-      </c>
-      <c r="D31" s="30">
-        <v>0</v>
-      </c>
-      <c r="E31" s="30">
-        <v>0</v>
-      </c>
-      <c r="F31" s="30">
-        <v>0</v>
-      </c>
-      <c r="G31" s="30">
-        <v>0</v>
-      </c>
-      <c r="H31" s="30">
-        <v>0</v>
-      </c>
-      <c r="I31" s="30">
-        <v>0</v>
-      </c>
-      <c r="J31" s="30">
-        <v>0</v>
-      </c>
-      <c r="K31" s="30">
-        <v>0</v>
-      </c>
-      <c r="L31" s="30">
-        <v>0</v>
-      </c>
-      <c r="M31" s="30">
-        <v>1</v>
-      </c>
-      <c r="N31" s="30">
-        <v>1</v>
-      </c>
-      <c r="O31" s="30">
-        <v>0</v>
-      </c>
-      <c r="P31" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="30">
-        <v>0</v>
-      </c>
-      <c r="R31" s="30">
-        <v>0</v>
-      </c>
-      <c r="S31" s="30">
-        <v>0</v>
-      </c>
-      <c r="T31" s="30">
-        <v>0</v>
-      </c>
-      <c r="U31" s="30">
-        <v>0</v>
-      </c>
-      <c r="V31" s="30">
-        <v>0</v>
-      </c>
-      <c r="W31" s="30">
-        <v>0</v>
-      </c>
-      <c r="X31" s="30">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="30">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="30">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="31">
+      <c r="B31" s="26">
+        <v>0</v>
+      </c>
+      <c r="C31" s="26">
+        <v>0</v>
+      </c>
+      <c r="D31" s="26">
+        <v>0</v>
+      </c>
+      <c r="E31" s="26">
+        <v>0</v>
+      </c>
+      <c r="F31" s="26">
+        <v>0</v>
+      </c>
+      <c r="G31" s="26">
+        <v>0</v>
+      </c>
+      <c r="H31" s="26">
+        <v>0</v>
+      </c>
+      <c r="I31" s="26">
+        <v>0</v>
+      </c>
+      <c r="J31" s="26">
+        <v>0</v>
+      </c>
+      <c r="K31" s="26">
+        <v>0</v>
+      </c>
+      <c r="L31" s="26">
+        <v>0</v>
+      </c>
+      <c r="M31" s="26">
+        <v>1</v>
+      </c>
+      <c r="N31" s="26">
+        <v>1</v>
+      </c>
+      <c r="O31" s="26">
+        <v>0</v>
+      </c>
+      <c r="P31" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="26">
+        <v>0</v>
+      </c>
+      <c r="R31" s="26">
+        <v>0</v>
+      </c>
+      <c r="S31" s="26">
+        <v>0</v>
+      </c>
+      <c r="T31" s="26">
+        <v>0</v>
+      </c>
+      <c r="U31" s="26">
+        <v>0</v>
+      </c>
+      <c r="V31" s="26">
+        <v>0</v>
+      </c>
+      <c r="W31" s="26">
+        <v>0</v>
+      </c>
+      <c r="X31" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A32" s="29">
+        <v>29</v>
+      </c>
+      <c r="B32" s="30">
+        <v>1</v>
+      </c>
+      <c r="C32" s="30">
+        <v>0</v>
+      </c>
+      <c r="D32" s="30">
+        <v>0</v>
+      </c>
+      <c r="E32" s="30">
+        <v>0</v>
+      </c>
+      <c r="F32" s="30">
+        <v>0</v>
+      </c>
+      <c r="G32" s="30">
+        <v>0</v>
+      </c>
+      <c r="H32" s="30">
+        <v>0</v>
+      </c>
+      <c r="I32" s="30">
+        <v>0</v>
+      </c>
+      <c r="J32" s="30">
+        <v>0</v>
+      </c>
+      <c r="K32" s="30">
+        <v>0</v>
+      </c>
+      <c r="L32" s="30">
+        <v>0</v>
+      </c>
+      <c r="M32" s="30">
+        <v>0</v>
+      </c>
+      <c r="N32" s="30">
+        <v>0</v>
+      </c>
+      <c r="O32" s="30">
+        <v>0</v>
+      </c>
+      <c r="P32" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="30">
+        <v>0</v>
+      </c>
+      <c r="R32" s="30">
+        <v>0</v>
+      </c>
+      <c r="S32" s="30">
+        <v>0</v>
+      </c>
+      <c r="T32" s="30">
+        <v>0</v>
+      </c>
+      <c r="U32" s="30">
+        <v>0</v>
+      </c>
+      <c r="V32" s="30">
+        <v>0</v>
+      </c>
+      <c r="W32" s="30">
+        <v>0</v>
+      </c>
+      <c r="X32" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="31">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:AC31">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AC32">
+    <sortCondition ref="A3"/>
+  </sortState>
+  <conditionalFormatting sqref="B3:AC32">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -11607,101 +11990,105 @@
   <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AD5" sqref="AD5"/>
+      <selection sqref="A1:AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="29" width="6.83203125" customWidth="1"/>
+    <col min="2" max="9" width="6.83203125" customWidth="1"/>
+    <col min="10" max="10" width="8" customWidth="1"/>
+    <col min="11" max="20" width="6.83203125" customWidth="1"/>
+    <col min="21" max="21" width="8" customWidth="1"/>
+    <col min="22" max="29" width="6.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="L1" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="M1" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="55" t="s">
+      <c r="N1" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="55" t="s">
+      <c r="O1" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="55" t="s">
+      <c r="P1" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" s="55" t="s">
+      <c r="Q1" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="R1" s="55" t="s">
+      <c r="R1" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="S1" s="55" t="s">
+      <c r="S1" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="T1" s="55" t="s">
+      <c r="T1" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="U1" s="55" t="s">
+      <c r="U1" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="V1" s="55" t="s">
+      <c r="V1" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="W1" s="55" t="s">
+      <c r="W1" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="X1" s="55" t="s">
+      <c r="X1" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="Y1" s="55" t="s">
+      <c r="Y1" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="Z1" s="55" t="s">
+      <c r="Z1" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="55" t="s">
+      <c r="AA1" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="AB1" s="55" t="s">
+      <c r="AB1" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="AC1" s="56" t="s">
+      <c r="AC1" s="50" t="s">
         <v>73</v>
       </c>
     </row>
@@ -11709,7 +12096,7 @@
       <c r="A2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -11742,88 +12129,88 @@
       <c r="A3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="43">
-        <v>1</v>
-      </c>
-      <c r="C3" s="38">
+      <c r="B3" s="37">
+        <v>1</v>
+      </c>
+      <c r="C3" s="32">
         <v>2</v>
       </c>
-      <c r="D3" s="38">
-        <v>0</v>
-      </c>
-      <c r="E3" s="38">
-        <v>0</v>
-      </c>
-      <c r="F3" s="38">
-        <v>1</v>
-      </c>
-      <c r="G3" s="38">
-        <v>0</v>
-      </c>
-      <c r="H3" s="38">
-        <v>0</v>
-      </c>
-      <c r="I3" s="38">
+      <c r="D3" s="32">
+        <v>0</v>
+      </c>
+      <c r="E3" s="32">
+        <v>0</v>
+      </c>
+      <c r="F3" s="32">
+        <v>1</v>
+      </c>
+      <c r="G3" s="32">
+        <v>0</v>
+      </c>
+      <c r="H3" s="32">
+        <v>0</v>
+      </c>
+      <c r="I3" s="32">
         <v>2</v>
       </c>
-      <c r="J3" s="38">
-        <v>0</v>
-      </c>
-      <c r="K3" s="38">
-        <v>0</v>
-      </c>
-      <c r="L3" s="38">
-        <v>1</v>
-      </c>
-      <c r="M3" s="38">
-        <v>0</v>
-      </c>
-      <c r="N3" s="38">
-        <v>0</v>
-      </c>
-      <c r="O3" s="38">
-        <v>0</v>
-      </c>
-      <c r="P3" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="38">
-        <v>0</v>
-      </c>
-      <c r="R3" s="38">
-        <v>0</v>
-      </c>
-      <c r="S3" s="38">
-        <v>0</v>
-      </c>
-      <c r="T3" s="38">
-        <v>1</v>
-      </c>
-      <c r="U3" s="38">
-        <v>1</v>
-      </c>
-      <c r="V3" s="38">
-        <v>0</v>
-      </c>
-      <c r="W3" s="38">
-        <v>0</v>
-      </c>
-      <c r="X3" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="38">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="38">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="38">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="38">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="39">
+      <c r="J3" s="32">
+        <v>0</v>
+      </c>
+      <c r="K3" s="32">
+        <v>0</v>
+      </c>
+      <c r="L3" s="32">
+        <v>1</v>
+      </c>
+      <c r="M3" s="32">
+        <v>0</v>
+      </c>
+      <c r="N3" s="32">
+        <v>0</v>
+      </c>
+      <c r="O3" s="32">
+        <v>0</v>
+      </c>
+      <c r="P3" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="32">
+        <v>0</v>
+      </c>
+      <c r="R3" s="32">
+        <v>0</v>
+      </c>
+      <c r="S3" s="32">
+        <v>0</v>
+      </c>
+      <c r="T3" s="32">
+        <v>1</v>
+      </c>
+      <c r="U3" s="32">
+        <v>1</v>
+      </c>
+      <c r="V3" s="32">
+        <v>0</v>
+      </c>
+      <c r="W3" s="32">
+        <v>0</v>
+      </c>
+      <c r="X3" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="32">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="33">
         <v>0</v>
       </c>
     </row>
@@ -11831,88 +12218,88 @@
       <c r="A4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="43">
-        <v>0</v>
-      </c>
-      <c r="C4" s="38">
-        <v>0</v>
-      </c>
-      <c r="D4" s="38">
-        <v>0</v>
-      </c>
-      <c r="E4" s="38">
-        <v>0</v>
-      </c>
-      <c r="F4" s="38">
-        <v>0</v>
-      </c>
-      <c r="G4" s="38">
-        <v>1</v>
-      </c>
-      <c r="H4" s="38">
-        <v>0</v>
-      </c>
-      <c r="I4" s="38">
-        <v>0</v>
-      </c>
-      <c r="J4" s="38">
-        <v>0</v>
-      </c>
-      <c r="K4" s="38">
-        <v>0</v>
-      </c>
-      <c r="L4" s="38">
-        <v>0</v>
-      </c>
-      <c r="M4" s="38">
-        <v>0</v>
-      </c>
-      <c r="N4" s="38">
-        <v>0</v>
-      </c>
-      <c r="O4" s="38">
-        <v>0</v>
-      </c>
-      <c r="P4" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="38">
-        <v>0</v>
-      </c>
-      <c r="R4" s="38">
-        <v>0</v>
-      </c>
-      <c r="S4" s="38">
-        <v>0</v>
-      </c>
-      <c r="T4" s="38">
-        <v>0</v>
-      </c>
-      <c r="U4" s="38">
-        <v>0</v>
-      </c>
-      <c r="V4" s="38">
-        <v>0</v>
-      </c>
-      <c r="W4" s="38">
-        <v>0</v>
-      </c>
-      <c r="X4" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="38">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="38">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="38">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="38">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="39">
+      <c r="B4" s="37">
+        <v>0</v>
+      </c>
+      <c r="C4" s="32">
+        <v>0</v>
+      </c>
+      <c r="D4" s="32">
+        <v>0</v>
+      </c>
+      <c r="E4" s="32">
+        <v>0</v>
+      </c>
+      <c r="F4" s="32">
+        <v>0</v>
+      </c>
+      <c r="G4" s="32">
+        <v>1</v>
+      </c>
+      <c r="H4" s="32">
+        <v>0</v>
+      </c>
+      <c r="I4" s="32">
+        <v>0</v>
+      </c>
+      <c r="J4" s="32">
+        <v>0</v>
+      </c>
+      <c r="K4" s="32">
+        <v>0</v>
+      </c>
+      <c r="L4" s="32">
+        <v>0</v>
+      </c>
+      <c r="M4" s="32">
+        <v>0</v>
+      </c>
+      <c r="N4" s="32">
+        <v>0</v>
+      </c>
+      <c r="O4" s="32">
+        <v>0</v>
+      </c>
+      <c r="P4" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="32">
+        <v>0</v>
+      </c>
+      <c r="R4" s="32">
+        <v>0</v>
+      </c>
+      <c r="S4" s="32">
+        <v>0</v>
+      </c>
+      <c r="T4" s="32">
+        <v>0</v>
+      </c>
+      <c r="U4" s="32">
+        <v>0</v>
+      </c>
+      <c r="V4" s="32">
+        <v>0</v>
+      </c>
+      <c r="W4" s="32">
+        <v>0</v>
+      </c>
+      <c r="X4" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="32">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="33">
         <v>0</v>
       </c>
     </row>
@@ -11920,88 +12307,88 @@
       <c r="A5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="43">
-        <v>0</v>
-      </c>
-      <c r="C5" s="38">
-        <v>1</v>
-      </c>
-      <c r="D5" s="38">
-        <v>1</v>
-      </c>
-      <c r="E5" s="38">
-        <v>1</v>
-      </c>
-      <c r="F5" s="38">
-        <v>0</v>
-      </c>
-      <c r="G5" s="38">
-        <v>0</v>
-      </c>
-      <c r="H5" s="38">
-        <v>0</v>
-      </c>
-      <c r="I5" s="38">
-        <v>0</v>
-      </c>
-      <c r="J5" s="38">
-        <v>0</v>
-      </c>
-      <c r="K5" s="38">
-        <v>0</v>
-      </c>
-      <c r="L5" s="38">
-        <v>0</v>
-      </c>
-      <c r="M5" s="38">
-        <v>0</v>
-      </c>
-      <c r="N5" s="38">
-        <v>0</v>
-      </c>
-      <c r="O5" s="38">
-        <v>0</v>
-      </c>
-      <c r="P5" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="38">
-        <v>0</v>
-      </c>
-      <c r="R5" s="38">
-        <v>0</v>
-      </c>
-      <c r="S5" s="38">
-        <v>0</v>
-      </c>
-      <c r="T5" s="38">
-        <v>0</v>
-      </c>
-      <c r="U5" s="38">
-        <v>0</v>
-      </c>
-      <c r="V5" s="38">
-        <v>0</v>
-      </c>
-      <c r="W5" s="38">
-        <v>0</v>
-      </c>
-      <c r="X5" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="38">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="38">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="38">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="38">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="39">
+      <c r="B5" s="37">
+        <v>0</v>
+      </c>
+      <c r="C5" s="32">
+        <v>1</v>
+      </c>
+      <c r="D5" s="32">
+        <v>1</v>
+      </c>
+      <c r="E5" s="32">
+        <v>1</v>
+      </c>
+      <c r="F5" s="32">
+        <v>0</v>
+      </c>
+      <c r="G5" s="32">
+        <v>0</v>
+      </c>
+      <c r="H5" s="32">
+        <v>0</v>
+      </c>
+      <c r="I5" s="32">
+        <v>0</v>
+      </c>
+      <c r="J5" s="32">
+        <v>0</v>
+      </c>
+      <c r="K5" s="32">
+        <v>0</v>
+      </c>
+      <c r="L5" s="32">
+        <v>0</v>
+      </c>
+      <c r="M5" s="32">
+        <v>0</v>
+      </c>
+      <c r="N5" s="32">
+        <v>0</v>
+      </c>
+      <c r="O5" s="32">
+        <v>0</v>
+      </c>
+      <c r="P5" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="32">
+        <v>0</v>
+      </c>
+      <c r="R5" s="32">
+        <v>0</v>
+      </c>
+      <c r="S5" s="32">
+        <v>0</v>
+      </c>
+      <c r="T5" s="32">
+        <v>0</v>
+      </c>
+      <c r="U5" s="32">
+        <v>0</v>
+      </c>
+      <c r="V5" s="32">
+        <v>0</v>
+      </c>
+      <c r="W5" s="32">
+        <v>0</v>
+      </c>
+      <c r="X5" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="32">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="33">
         <v>0</v>
       </c>
     </row>
@@ -12009,88 +12396,88 @@
       <c r="A6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="43">
-        <v>1</v>
-      </c>
-      <c r="C6" s="38">
-        <v>1</v>
-      </c>
-      <c r="D6" s="38">
-        <v>1</v>
-      </c>
-      <c r="E6" s="38">
+      <c r="B6" s="37">
+        <v>2</v>
+      </c>
+      <c r="C6" s="32">
+        <v>1</v>
+      </c>
+      <c r="D6" s="32">
+        <v>1</v>
+      </c>
+      <c r="E6" s="32">
         <v>5</v>
       </c>
-      <c r="F6" s="38">
-        <v>1</v>
-      </c>
-      <c r="G6" s="38">
-        <v>0</v>
-      </c>
-      <c r="H6" s="38">
-        <v>0</v>
-      </c>
-      <c r="I6" s="38">
-        <v>0</v>
-      </c>
-      <c r="J6" s="38">
+      <c r="F6" s="32">
+        <v>1</v>
+      </c>
+      <c r="G6" s="32">
+        <v>0</v>
+      </c>
+      <c r="H6" s="32">
+        <v>0</v>
+      </c>
+      <c r="I6" s="32">
+        <v>0</v>
+      </c>
+      <c r="J6" s="32">
         <v>2</v>
       </c>
-      <c r="K6" s="38">
-        <v>0</v>
-      </c>
-      <c r="L6" s="38">
-        <v>0</v>
-      </c>
-      <c r="M6" s="38">
-        <v>0</v>
-      </c>
-      <c r="N6" s="38">
-        <v>0</v>
-      </c>
-      <c r="O6" s="38">
-        <v>0</v>
-      </c>
-      <c r="P6" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="38">
+      <c r="K6" s="32">
+        <v>0</v>
+      </c>
+      <c r="L6" s="32">
+        <v>0</v>
+      </c>
+      <c r="M6" s="32">
+        <v>0</v>
+      </c>
+      <c r="N6" s="32">
+        <v>0</v>
+      </c>
+      <c r="O6" s="32">
+        <v>0</v>
+      </c>
+      <c r="P6" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="32">
         <v>2</v>
       </c>
-      <c r="R6" s="38">
-        <v>0</v>
-      </c>
-      <c r="S6" s="38">
+      <c r="R6" s="32">
+        <v>0</v>
+      </c>
+      <c r="S6" s="32">
         <v>2</v>
       </c>
-      <c r="T6" s="38">
-        <v>0</v>
-      </c>
-      <c r="U6" s="38">
-        <v>0</v>
-      </c>
-      <c r="V6" s="38">
-        <v>0</v>
-      </c>
-      <c r="W6" s="38">
-        <v>0</v>
-      </c>
-      <c r="X6" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="38">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="38">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="38">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="38">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="39">
+      <c r="T6" s="32">
+        <v>0</v>
+      </c>
+      <c r="U6" s="32">
+        <v>0</v>
+      </c>
+      <c r="V6" s="32">
+        <v>0</v>
+      </c>
+      <c r="W6" s="32">
+        <v>0</v>
+      </c>
+      <c r="X6" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="32">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="33">
         <v>0</v>
       </c>
     </row>
@@ -12098,88 +12485,88 @@
       <c r="A7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="44">
-        <v>1</v>
-      </c>
-      <c r="C7" s="45">
-        <v>0</v>
-      </c>
-      <c r="D7" s="45">
-        <v>0</v>
-      </c>
-      <c r="E7" s="45">
-        <v>0</v>
-      </c>
-      <c r="F7" s="45">
-        <v>0</v>
-      </c>
-      <c r="G7" s="45">
-        <v>0</v>
-      </c>
-      <c r="H7" s="45">
-        <v>0</v>
-      </c>
-      <c r="I7" s="45">
-        <v>0</v>
-      </c>
-      <c r="J7" s="45">
-        <v>0</v>
-      </c>
-      <c r="K7" s="45">
-        <v>0</v>
-      </c>
-      <c r="L7" s="45">
-        <v>0</v>
-      </c>
-      <c r="M7" s="45">
-        <v>0</v>
-      </c>
-      <c r="N7" s="45">
-        <v>0</v>
-      </c>
-      <c r="O7" s="45">
-        <v>0</v>
-      </c>
-      <c r="P7" s="45">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="45">
-        <v>0</v>
-      </c>
-      <c r="R7" s="45">
-        <v>0</v>
-      </c>
-      <c r="S7" s="45">
-        <v>0</v>
-      </c>
-      <c r="T7" s="45">
-        <v>0</v>
-      </c>
-      <c r="U7" s="45">
-        <v>0</v>
-      </c>
-      <c r="V7" s="45">
-        <v>0</v>
-      </c>
-      <c r="W7" s="45">
-        <v>0</v>
-      </c>
-      <c r="X7" s="45">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="45">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="45">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="45">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="45">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="40">
+      <c r="B7" s="38">
+        <v>1</v>
+      </c>
+      <c r="C7" s="39">
+        <v>0</v>
+      </c>
+      <c r="D7" s="39">
+        <v>0</v>
+      </c>
+      <c r="E7" s="39">
+        <v>0</v>
+      </c>
+      <c r="F7" s="39">
+        <v>0</v>
+      </c>
+      <c r="G7" s="39">
+        <v>0</v>
+      </c>
+      <c r="H7" s="39">
+        <v>0</v>
+      </c>
+      <c r="I7" s="39">
+        <v>0</v>
+      </c>
+      <c r="J7" s="39">
+        <v>0</v>
+      </c>
+      <c r="K7" s="39">
+        <v>0</v>
+      </c>
+      <c r="L7" s="39">
+        <v>0</v>
+      </c>
+      <c r="M7" s="39">
+        <v>0</v>
+      </c>
+      <c r="N7" s="39">
+        <v>0</v>
+      </c>
+      <c r="O7" s="39">
+        <v>0</v>
+      </c>
+      <c r="P7" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="39">
+        <v>0</v>
+      </c>
+      <c r="R7" s="39">
+        <v>0</v>
+      </c>
+      <c r="S7" s="39">
+        <v>0</v>
+      </c>
+      <c r="T7" s="39">
+        <v>0</v>
+      </c>
+      <c r="U7" s="39">
+        <v>0</v>
+      </c>
+      <c r="V7" s="39">
+        <v>0</v>
+      </c>
+      <c r="W7" s="39">
+        <v>0</v>
+      </c>
+      <c r="X7" s="39">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="39">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="39">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="39">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="34">
         <v>0</v>
       </c>
     </row>
@@ -12187,88 +12574,88 @@
       <c r="A8" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="44">
+      <c r="B8" s="38">
         <v>2</v>
       </c>
-      <c r="C8" s="45">
-        <v>0</v>
-      </c>
-      <c r="D8" s="46">
+      <c r="C8" s="39">
+        <v>0</v>
+      </c>
+      <c r="D8" s="40">
         <v>2</v>
       </c>
-      <c r="E8" s="45">
-        <v>0</v>
-      </c>
-      <c r="F8" s="45">
-        <v>0</v>
-      </c>
-      <c r="G8" s="45">
-        <v>0</v>
-      </c>
-      <c r="H8" s="46">
+      <c r="E8" s="39">
+        <v>0</v>
+      </c>
+      <c r="F8" s="39">
+        <v>0</v>
+      </c>
+      <c r="G8" s="39">
+        <v>0</v>
+      </c>
+      <c r="H8" s="40">
         <v>2</v>
       </c>
-      <c r="I8" s="45">
-        <v>0</v>
-      </c>
-      <c r="J8" s="45">
-        <v>0</v>
-      </c>
-      <c r="K8" s="46">
+      <c r="I8" s="39">
+        <v>0</v>
+      </c>
+      <c r="J8" s="39">
+        <v>0</v>
+      </c>
+      <c r="K8" s="40">
         <v>2</v>
       </c>
-      <c r="L8" s="45">
-        <v>0</v>
-      </c>
-      <c r="M8" s="45">
-        <v>0</v>
-      </c>
-      <c r="N8" s="45">
-        <v>0</v>
-      </c>
-      <c r="O8" s="46">
+      <c r="L8" s="39">
+        <v>0</v>
+      </c>
+      <c r="M8" s="39">
+        <v>0</v>
+      </c>
+      <c r="N8" s="39">
+        <v>0</v>
+      </c>
+      <c r="O8" s="40">
         <v>2</v>
       </c>
-      <c r="P8" s="45">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="45">
-        <v>0</v>
-      </c>
-      <c r="R8" s="46">
+      <c r="P8" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="39">
+        <v>0</v>
+      </c>
+      <c r="R8" s="40">
         <v>2</v>
       </c>
-      <c r="S8" s="45">
-        <v>0</v>
-      </c>
-      <c r="T8" s="45">
-        <v>0</v>
-      </c>
-      <c r="U8" s="45">
-        <v>0</v>
-      </c>
-      <c r="V8" s="46">
+      <c r="S8" s="39">
+        <v>0</v>
+      </c>
+      <c r="T8" s="39">
+        <v>0</v>
+      </c>
+      <c r="U8" s="39">
+        <v>0</v>
+      </c>
+      <c r="V8" s="40">
         <v>2</v>
       </c>
-      <c r="W8" s="46">
+      <c r="W8" s="40">
         <v>2</v>
       </c>
-      <c r="X8" s="46">
+      <c r="X8" s="40">
         <v>2</v>
       </c>
-      <c r="Y8" s="46">
+      <c r="Y8" s="40">
         <v>2</v>
       </c>
-      <c r="Z8" s="46">
+      <c r="Z8" s="40">
         <v>2</v>
       </c>
-      <c r="AA8" s="45">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="45">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="40">
+      <c r="AA8" s="39">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="39">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="34">
         <v>0</v>
       </c>
     </row>
@@ -12276,88 +12663,88 @@
       <c r="A9" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="43">
-        <v>0</v>
-      </c>
-      <c r="C9" s="38">
-        <v>0</v>
-      </c>
-      <c r="D9" s="38">
-        <v>1</v>
-      </c>
-      <c r="E9" s="38">
-        <v>0</v>
-      </c>
-      <c r="F9" s="38">
-        <v>1</v>
-      </c>
-      <c r="G9" s="38">
-        <v>0</v>
-      </c>
-      <c r="H9" s="38">
-        <v>0</v>
-      </c>
-      <c r="I9" s="38">
-        <v>0</v>
-      </c>
-      <c r="J9" s="38">
-        <v>0</v>
-      </c>
-      <c r="K9" s="38">
-        <v>0</v>
-      </c>
-      <c r="L9" s="38">
-        <v>1</v>
-      </c>
-      <c r="M9" s="38">
-        <v>0</v>
-      </c>
-      <c r="N9" s="38">
-        <v>0</v>
-      </c>
-      <c r="O9" s="38">
-        <v>0</v>
-      </c>
-      <c r="P9" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="38">
-        <v>0</v>
-      </c>
-      <c r="R9" s="38">
-        <v>0</v>
-      </c>
-      <c r="S9" s="38">
-        <v>0</v>
-      </c>
-      <c r="T9" s="38">
-        <v>0</v>
-      </c>
-      <c r="U9" s="38">
-        <v>0</v>
-      </c>
-      <c r="V9" s="38">
-        <v>0</v>
-      </c>
-      <c r="W9" s="38">
-        <v>0</v>
-      </c>
-      <c r="X9" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="38">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="38">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="38">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="38">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="39">
+      <c r="B9" s="37">
+        <v>0</v>
+      </c>
+      <c r="C9" s="32">
+        <v>0</v>
+      </c>
+      <c r="D9" s="32">
+        <v>1</v>
+      </c>
+      <c r="E9" s="32">
+        <v>0</v>
+      </c>
+      <c r="F9" s="32">
+        <v>1</v>
+      </c>
+      <c r="G9" s="32">
+        <v>0</v>
+      </c>
+      <c r="H9" s="32">
+        <v>0</v>
+      </c>
+      <c r="I9" s="32">
+        <v>0</v>
+      </c>
+      <c r="J9" s="32">
+        <v>0</v>
+      </c>
+      <c r="K9" s="32">
+        <v>0</v>
+      </c>
+      <c r="L9" s="32">
+        <v>1</v>
+      </c>
+      <c r="M9" s="32">
+        <v>0</v>
+      </c>
+      <c r="N9" s="32">
+        <v>0</v>
+      </c>
+      <c r="O9" s="32">
+        <v>0</v>
+      </c>
+      <c r="P9" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="32">
+        <v>0</v>
+      </c>
+      <c r="R9" s="32">
+        <v>0</v>
+      </c>
+      <c r="S9" s="32">
+        <v>0</v>
+      </c>
+      <c r="T9" s="32">
+        <v>0</v>
+      </c>
+      <c r="U9" s="32">
+        <v>0</v>
+      </c>
+      <c r="V9" s="32">
+        <v>0</v>
+      </c>
+      <c r="W9" s="32">
+        <v>0</v>
+      </c>
+      <c r="X9" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="32">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="33">
         <v>0</v>
       </c>
     </row>
@@ -12365,88 +12752,88 @@
       <c r="A10" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="47">
-        <v>0</v>
-      </c>
-      <c r="C10" s="48">
-        <v>0</v>
-      </c>
-      <c r="D10" s="48">
-        <v>0</v>
-      </c>
-      <c r="E10" s="48">
-        <v>0</v>
-      </c>
-      <c r="F10" s="48">
-        <v>1</v>
-      </c>
-      <c r="G10" s="41">
-        <v>0</v>
-      </c>
-      <c r="H10" s="41">
-        <v>0</v>
-      </c>
-      <c r="I10" s="41">
-        <v>0</v>
-      </c>
-      <c r="J10" s="41">
-        <v>0</v>
-      </c>
-      <c r="K10" s="41">
-        <v>0</v>
-      </c>
-      <c r="L10" s="41">
-        <v>0</v>
-      </c>
-      <c r="M10" s="41">
-        <v>0</v>
-      </c>
-      <c r="N10" s="41">
-        <v>0</v>
-      </c>
-      <c r="O10" s="41">
-        <v>0</v>
-      </c>
-      <c r="P10" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="41">
-        <v>0</v>
-      </c>
-      <c r="R10" s="41">
-        <v>0</v>
-      </c>
-      <c r="S10" s="41">
-        <v>0</v>
-      </c>
-      <c r="T10" s="41">
-        <v>0</v>
-      </c>
-      <c r="U10" s="41">
-        <v>0</v>
-      </c>
-      <c r="V10" s="41">
-        <v>0</v>
-      </c>
-      <c r="W10" s="41">
-        <v>0</v>
-      </c>
-      <c r="X10" s="41">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="41">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="41">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="41">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="41">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="49">
+      <c r="B10" s="41">
+        <v>0</v>
+      </c>
+      <c r="C10" s="42">
+        <v>0</v>
+      </c>
+      <c r="D10" s="42">
+        <v>0</v>
+      </c>
+      <c r="E10" s="42">
+        <v>0</v>
+      </c>
+      <c r="F10" s="42">
+        <v>1</v>
+      </c>
+      <c r="G10" s="35">
+        <v>0</v>
+      </c>
+      <c r="H10" s="35">
+        <v>0</v>
+      </c>
+      <c r="I10" s="35">
+        <v>0</v>
+      </c>
+      <c r="J10" s="35">
+        <v>0</v>
+      </c>
+      <c r="K10" s="35">
+        <v>0</v>
+      </c>
+      <c r="L10" s="35">
+        <v>0</v>
+      </c>
+      <c r="M10" s="35">
+        <v>0</v>
+      </c>
+      <c r="N10" s="35">
+        <v>0</v>
+      </c>
+      <c r="O10" s="35">
+        <v>0</v>
+      </c>
+      <c r="P10" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="35">
+        <v>0</v>
+      </c>
+      <c r="R10" s="35">
+        <v>0</v>
+      </c>
+      <c r="S10" s="35">
+        <v>0</v>
+      </c>
+      <c r="T10" s="35">
+        <v>0</v>
+      </c>
+      <c r="U10" s="35">
+        <v>0</v>
+      </c>
+      <c r="V10" s="35">
+        <v>0</v>
+      </c>
+      <c r="W10" s="35">
+        <v>0</v>
+      </c>
+      <c r="X10" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="43">
         <v>0</v>
       </c>
     </row>
@@ -12454,88 +12841,88 @@
       <c r="A11" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="50">
-        <v>0</v>
-      </c>
-      <c r="C11" s="46">
-        <v>1</v>
-      </c>
-      <c r="D11" s="45">
-        <v>0</v>
-      </c>
-      <c r="E11" s="45">
-        <v>0</v>
-      </c>
-      <c r="F11" s="46">
-        <v>1</v>
-      </c>
-      <c r="G11" s="45">
-        <v>0</v>
-      </c>
-      <c r="H11" s="45">
-        <v>0</v>
-      </c>
-      <c r="I11" s="45">
-        <v>0</v>
-      </c>
-      <c r="J11" s="45">
-        <v>0</v>
-      </c>
-      <c r="K11" s="45">
-        <v>0</v>
-      </c>
-      <c r="L11" s="45">
-        <v>0</v>
-      </c>
-      <c r="M11" s="46">
-        <v>1</v>
-      </c>
-      <c r="N11" s="45">
-        <v>0</v>
-      </c>
-      <c r="O11" s="45">
-        <v>0</v>
-      </c>
-      <c r="P11" s="45">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="45">
-        <v>0</v>
-      </c>
-      <c r="R11" s="45">
-        <v>0</v>
-      </c>
-      <c r="S11" s="45">
-        <v>0</v>
-      </c>
-      <c r="T11" s="45">
-        <v>0</v>
-      </c>
-      <c r="U11" s="45">
-        <v>0</v>
-      </c>
-      <c r="V11" s="45">
-        <v>0</v>
-      </c>
-      <c r="W11" s="45">
-        <v>0</v>
-      </c>
-      <c r="X11" s="45">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="45">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="45">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="46">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="45">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="40">
+      <c r="B11" s="44">
+        <v>0</v>
+      </c>
+      <c r="C11" s="40">
+        <v>1</v>
+      </c>
+      <c r="D11" s="39">
+        <v>0</v>
+      </c>
+      <c r="E11" s="39">
+        <v>0</v>
+      </c>
+      <c r="F11" s="40">
+        <v>1</v>
+      </c>
+      <c r="G11" s="39">
+        <v>0</v>
+      </c>
+      <c r="H11" s="39">
+        <v>0</v>
+      </c>
+      <c r="I11" s="39">
+        <v>0</v>
+      </c>
+      <c r="J11" s="39">
+        <v>0</v>
+      </c>
+      <c r="K11" s="39">
+        <v>0</v>
+      </c>
+      <c r="L11" s="39">
+        <v>0</v>
+      </c>
+      <c r="M11" s="40">
+        <v>1</v>
+      </c>
+      <c r="N11" s="39">
+        <v>0</v>
+      </c>
+      <c r="O11" s="39">
+        <v>0</v>
+      </c>
+      <c r="P11" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="39">
+        <v>0</v>
+      </c>
+      <c r="R11" s="39">
+        <v>0</v>
+      </c>
+      <c r="S11" s="39">
+        <v>0</v>
+      </c>
+      <c r="T11" s="39">
+        <v>0</v>
+      </c>
+      <c r="U11" s="39">
+        <v>0</v>
+      </c>
+      <c r="V11" s="39">
+        <v>0</v>
+      </c>
+      <c r="W11" s="39">
+        <v>0</v>
+      </c>
+      <c r="X11" s="39">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="39">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="40">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="39">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="34">
         <v>0</v>
       </c>
     </row>
@@ -12543,88 +12930,88 @@
       <c r="A12" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="47">
-        <v>0</v>
-      </c>
-      <c r="C12" s="48">
-        <v>1</v>
-      </c>
-      <c r="D12" s="48">
-        <v>0</v>
-      </c>
-      <c r="E12" s="48">
-        <v>0</v>
-      </c>
-      <c r="F12" s="48">
-        <v>1</v>
-      </c>
-      <c r="G12" s="45">
-        <v>1</v>
-      </c>
-      <c r="H12" s="48">
-        <v>0</v>
-      </c>
-      <c r="I12" s="48">
-        <v>0</v>
-      </c>
-      <c r="J12" s="48">
-        <v>0</v>
-      </c>
-      <c r="K12" s="48">
-        <v>0</v>
-      </c>
-      <c r="L12" s="48">
-        <v>0</v>
-      </c>
-      <c r="M12" s="48">
-        <v>1</v>
-      </c>
-      <c r="N12" s="45">
+      <c r="B12" s="41">
+        <v>0</v>
+      </c>
+      <c r="C12" s="42">
+        <v>1</v>
+      </c>
+      <c r="D12" s="42">
+        <v>0</v>
+      </c>
+      <c r="E12" s="42">
+        <v>0</v>
+      </c>
+      <c r="F12" s="42">
+        <v>1</v>
+      </c>
+      <c r="G12" s="39">
+        <v>1</v>
+      </c>
+      <c r="H12" s="42">
+        <v>0</v>
+      </c>
+      <c r="I12" s="42">
+        <v>0</v>
+      </c>
+      <c r="J12" s="42">
+        <v>0</v>
+      </c>
+      <c r="K12" s="42">
+        <v>0</v>
+      </c>
+      <c r="L12" s="42">
+        <v>0</v>
+      </c>
+      <c r="M12" s="42">
+        <v>1</v>
+      </c>
+      <c r="N12" s="39">
         <v>2</v>
       </c>
-      <c r="O12" s="48">
-        <v>0</v>
-      </c>
-      <c r="P12" s="48">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="48">
-        <v>0</v>
-      </c>
-      <c r="R12" s="48">
-        <v>0</v>
-      </c>
-      <c r="S12" s="48">
-        <v>0</v>
-      </c>
-      <c r="T12" s="48">
-        <v>0</v>
-      </c>
-      <c r="U12" s="48">
-        <v>0</v>
-      </c>
-      <c r="V12" s="48">
-        <v>0</v>
-      </c>
-      <c r="W12" s="48">
-        <v>0</v>
-      </c>
-      <c r="X12" s="48">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="48">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="48">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="48">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="48">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="51">
+      <c r="O12" s="42">
+        <v>0</v>
+      </c>
+      <c r="P12" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="42">
+        <v>0</v>
+      </c>
+      <c r="R12" s="42">
+        <v>0</v>
+      </c>
+      <c r="S12" s="42">
+        <v>0</v>
+      </c>
+      <c r="T12" s="42">
+        <v>0</v>
+      </c>
+      <c r="U12" s="42">
+        <v>0</v>
+      </c>
+      <c r="V12" s="42">
+        <v>0</v>
+      </c>
+      <c r="W12" s="42">
+        <v>0</v>
+      </c>
+      <c r="X12" s="42">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="42">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="42">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="45">
         <v>0</v>
       </c>
     </row>
@@ -12632,7 +13019,7 @@
       <c r="A13" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="52">
+      <c r="B13" s="46">
         <v>3</v>
       </c>
       <c r="C13" s="26">
@@ -12721,7 +13108,7 @@
       <c r="A14" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="53">
+      <c r="B14" s="47">
         <v>1</v>
       </c>
       <c r="C14" s="30">
@@ -12928,6 +13315,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -12936,102 +13324,102 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F5" sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="57" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="57"/>
+    <col min="1" max="1" width="15.83203125" style="51" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="60" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="58">
+      <c r="B3" s="52">
+        <v>5</v>
+      </c>
+      <c r="C3" s="52">
+        <v>0</v>
+      </c>
+      <c r="D3" s="52">
         <v>4</v>
       </c>
-      <c r="C3" s="58">
-        <v>0</v>
-      </c>
-      <c r="D3" s="58">
-        <v>4</v>
-      </c>
-      <c r="E3" s="58">
-        <v>1</v>
-      </c>
-      <c r="F3" s="59">
+      <c r="E3" s="52">
+        <v>1</v>
+      </c>
+      <c r="F3" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="58">
-        <v>0</v>
-      </c>
-      <c r="C4" s="58">
-        <v>1</v>
-      </c>
-      <c r="D4" s="58">
+      <c r="B4" s="52">
+        <v>0</v>
+      </c>
+      <c r="C4" s="52">
+        <v>1</v>
+      </c>
+      <c r="D4" s="52">
         <v>2</v>
       </c>
-      <c r="E4" s="58">
-        <v>1</v>
-      </c>
-      <c r="F4" s="59">
+      <c r="E4" s="52">
+        <v>1</v>
+      </c>
+      <c r="F4" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="60">
+      <c r="B5" s="54">
         <v>4</v>
       </c>
-      <c r="C5" s="60">
+      <c r="C5" s="54">
         <v>2</v>
       </c>
-      <c r="D5" s="60">
-        <v>1</v>
-      </c>
-      <c r="E5" s="60">
-        <v>0</v>
-      </c>
-      <c r="F5" s="61">
+      <c r="D5" s="54">
+        <v>1</v>
+      </c>
+      <c r="E5" s="54">
+        <v>0</v>
+      </c>
+      <c r="F5" s="55">
         <v>2</v>
       </c>
     </row>
@@ -13047,5 +13435,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/figures/heatmap.xlsx
+++ b/figures/heatmap.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Desktop/Review_figures/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA18084-48E6-4545-99DA-3FE51ECD30BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC94143-CFBE-9847-A401-2D2037D081F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="760" windowWidth="27640" windowHeight="15660" activeTab="5" xr2:uid="{A9C2CF92-978C-AA41-BFCE-FA732D293089}"/>
+    <workbookView xWindow="800" yWindow="760" windowWidth="27640" windowHeight="15660" activeTab="4" xr2:uid="{A9C2CF92-978C-AA41-BFCE-FA732D293089}"/>
   </bookViews>
   <sheets>
     <sheet name="tissue_disease" sheetId="1" r:id="rId1"/>
     <sheet name="disease_combined" sheetId="2" r:id="rId2"/>
     <sheet name="bioinformatics_tools" sheetId="3" r:id="rId3"/>
     <sheet name="more than once" sheetId="4" r:id="rId4"/>
-    <sheet name="tissue&amp;tools" sheetId="5" r:id="rId5"/>
-    <sheet name="tissue&amp;methods" sheetId="6" r:id="rId6"/>
+    <sheet name="tools.sort.by.team" sheetId="7" r:id="rId5"/>
+    <sheet name="tissue&amp;tools" sheetId="5" r:id="rId6"/>
+    <sheet name="tissue&amp;methods" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="140">
   <si>
     <t>Disease</t>
   </si>
@@ -382,12 +383,87 @@
   <si>
     <t>DIAMOND</t>
   </si>
+  <si>
+    <t>Reserch team</t>
+  </si>
+  <si>
+    <t>Ruppé</t>
+  </si>
+  <si>
+    <t>Kolb</t>
+  </si>
+  <si>
+    <t>Choutko</t>
+  </si>
+  <si>
+    <t>Tschumi</t>
+  </si>
+  <si>
+    <t>Cobián</t>
+  </si>
+  <si>
+    <t>Mu</t>
+  </si>
+  <si>
+    <t>Lazarevic</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Charalampous</t>
+  </si>
+  <si>
+    <t>Thoendel</t>
+  </si>
+  <si>
+    <t>Oechslin</t>
+  </si>
+  <si>
+    <t>Barraud</t>
+  </si>
+  <si>
+    <t>Rodriguez</t>
+  </si>
+  <si>
+    <t>Hasan</t>
+  </si>
+  <si>
+    <t>Nettles</t>
+  </si>
+  <si>
+    <t>Gyarmati</t>
+  </si>
+  <si>
+    <t>Ivy</t>
+  </si>
+  <si>
+    <t>Lin</t>
+  </si>
+  <si>
+    <t>Wylie</t>
+  </si>
+  <si>
+    <t>Sanderson</t>
+  </si>
+  <si>
+    <t>Bialasiewicz</t>
+  </si>
+  <si>
+    <t>Li</t>
+  </si>
+  <si>
+    <t>Hong</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -413,6 +489,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -611,10 +695,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -774,6 +859,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -793,7 +879,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1115,39 +1202,39 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62" t="s">
+      <c r="A1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
     </row>
     <row r="2" spans="1:24" ht="221" x14ac:dyDescent="0.2">
-      <c r="A2" s="61"/>
+      <c r="A2" s="62"/>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2634,33 +2721,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="6" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="65" t="s">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="67"/>
     </row>
     <row r="2" spans="1:18" s="7" customFormat="1" ht="134" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64"/>
+      <c r="A2" s="65"/>
       <c r="B2" s="20" t="s">
         <v>3</v>
       </c>
@@ -2722,7 +2809,7 @@
       <c r="L3" s="9"/>
       <c r="R3" s="12"/>
     </row>
-    <row r="4" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>26</v>
       </c>
@@ -2778,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>27</v>
       </c>
@@ -2834,7 +2921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>28</v>
       </c>
@@ -2890,7 +2977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>30</v>
       </c>
@@ -2946,7 +3033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>31</v>
       </c>
@@ -3002,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>33</v>
       </c>
@@ -3058,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>35</v>
       </c>
@@ -3114,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>36</v>
       </c>
@@ -3170,7 +3257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>37</v>
       </c>
@@ -3226,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>101</v>
       </c>
@@ -3282,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>103</v>
       </c>
@@ -3338,7 +3425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>43</v>
       </c>
@@ -3684,7 +3771,7 @@
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
-        <f t="shared" ref="A3:A32" si="0">SUM(C3:BD3)</f>
+        <f t="shared" ref="A3:A30" si="0">SUM(C3:BD3)</f>
         <v>3</v>
       </c>
       <c r="B3">
@@ -8903,223 +8990,223 @@
     </row>
     <row r="33" spans="3:57" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C33" s="5">
-        <f>SUM(C3:C32)</f>
+        <f t="shared" ref="C33:AH33" si="1">SUM(C3:C32)</f>
         <v>10</v>
       </c>
       <c r="D33" s="5">
-        <f>SUM(D3:D32)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="E33" s="5">
-        <f>SUM(E3:E32)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="F33" s="5">
-        <f>SUM(F3:F32)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G33" s="5">
-        <f>SUM(G3:G32)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="H33" s="5">
-        <f>SUM(H3:H32)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I33" s="5">
-        <f>SUM(I3:I32)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J33" s="5">
-        <f>SUM(J3:J32)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K33" s="5">
-        <f>SUM(K3:K32)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="L33" s="5">
-        <f>SUM(L3:L32)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="M33" s="5">
-        <f>SUM(M3:M32)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="N33" s="5">
-        <f>SUM(N3:N32)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="O33" s="5">
-        <f>SUM(O3:O32)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="P33" s="5">
-        <f>SUM(P3:P32)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Q33" s="5">
-        <f>SUM(Q3:Q32)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="R33" s="5">
-        <f>SUM(R3:R32)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="S33" s="5">
-        <f>SUM(S3:S32)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="T33" s="5">
-        <f>SUM(T3:T32)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="U33" s="5">
-        <f>SUM(U3:U32)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="V33" s="5">
-        <f>SUM(V3:V32)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="W33" s="5">
-        <f>SUM(W3:W32)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="X33" s="5">
-        <f>SUM(X3:X32)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Y33" s="5">
-        <f>SUM(Y3:Y32)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Z33" s="5">
-        <f>SUM(Z3:Z32)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AA33" s="5">
-        <f>SUM(AA3:AA32)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AB33" s="5">
-        <f>SUM(AB3:AB32)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AC33" s="5">
-        <f>SUM(AC3:AC32)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AD33" s="5">
-        <f>SUM(AD3:AD32)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AE33" s="5">
-        <f>SUM(AE3:AE32)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF33" s="5">
-        <f>SUM(AF3:AF32)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AG33" s="5">
-        <f>SUM(AG3:AG32)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AH33" s="5">
-        <f>SUM(AH3:AH32)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AI33" s="5">
-        <f>SUM(AI3:AI32)</f>
+        <f t="shared" ref="AI33:BE33" si="2">SUM(AI3:AI32)</f>
         <v>1</v>
       </c>
       <c r="AJ33" s="5">
-        <f>SUM(AJ3:AJ32)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AK33" s="5">
-        <f>SUM(AK3:AK32)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AL33" s="5">
-        <f>SUM(AL3:AL32)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AM33" s="5">
-        <f>SUM(AM3:AM32)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AN33" s="5">
-        <f>SUM(AN3:AN32)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AO33" s="5">
-        <f>SUM(AO3:AO32)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AP33" s="5">
-        <f>SUM(AP3:AP32)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AQ33" s="5">
-        <f>SUM(AQ3:AQ32)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AR33" s="5">
-        <f>SUM(AR3:AR32)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AS33" s="5">
-        <f>SUM(AS3:AS32)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AT33" s="5">
-        <f>SUM(AT3:AT32)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AU33" s="5">
-        <f>SUM(AU3:AU32)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AV33" s="5">
-        <f>SUM(AV3:AV32)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AW33" s="5">
-        <f>SUM(AW3:AW32)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AX33" s="5">
-        <f>SUM(AX3:AX32)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AY33" s="5">
-        <f>SUM(AY3:AY32)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AZ33" s="5">
-        <f>SUM(AZ3:AZ32)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BA33" s="5">
-        <f>SUM(BA3:BA32)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BB33" s="5">
-        <f>SUM(BB3:BB32)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BC33" s="5">
-        <f>SUM(BC3:BC32)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BD33" s="5">
-        <f>SUM(BD3:BD32)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BE33" s="5">
-        <f>SUM(BE3:BE32)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -11986,6 +12073,3304 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D254986-FBA7-A94C-88AD-6CA7945A680E}">
+  <dimension ref="A1:AJ59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="30" width="6.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA1" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB1" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC1" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD1" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="34" x14ac:dyDescent="0.2">
+      <c r="B2" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="27"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="28">
+        <v>0</v>
+      </c>
+      <c r="C3" s="26">
+        <v>0</v>
+      </c>
+      <c r="D3" s="26">
+        <v>1</v>
+      </c>
+      <c r="E3" s="26">
+        <v>1</v>
+      </c>
+      <c r="F3" s="26">
+        <v>1</v>
+      </c>
+      <c r="G3" s="26">
+        <v>0</v>
+      </c>
+      <c r="H3" s="26">
+        <v>0</v>
+      </c>
+      <c r="I3" s="26">
+        <v>0</v>
+      </c>
+      <c r="J3" s="26">
+        <v>0</v>
+      </c>
+      <c r="K3" s="26">
+        <v>0</v>
+      </c>
+      <c r="L3" s="26">
+        <v>0</v>
+      </c>
+      <c r="M3" s="26">
+        <v>0</v>
+      </c>
+      <c r="N3" s="26">
+        <v>0</v>
+      </c>
+      <c r="O3" s="26">
+        <v>0</v>
+      </c>
+      <c r="P3" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="26">
+        <v>0</v>
+      </c>
+      <c r="R3" s="26">
+        <v>0</v>
+      </c>
+      <c r="S3" s="26">
+        <v>0</v>
+      </c>
+      <c r="T3" s="26">
+        <v>0</v>
+      </c>
+      <c r="U3" s="26">
+        <v>0</v>
+      </c>
+      <c r="V3" s="26">
+        <v>0</v>
+      </c>
+      <c r="W3" s="26">
+        <v>0</v>
+      </c>
+      <c r="X3" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A4" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="28">
+        <v>1</v>
+      </c>
+      <c r="C4" s="26">
+        <v>0</v>
+      </c>
+      <c r="D4" s="26">
+        <v>1</v>
+      </c>
+      <c r="E4" s="26">
+        <v>0</v>
+      </c>
+      <c r="F4" s="26">
+        <v>0</v>
+      </c>
+      <c r="G4" s="26">
+        <v>0</v>
+      </c>
+      <c r="H4" s="26">
+        <v>0</v>
+      </c>
+      <c r="I4" s="26">
+        <v>0</v>
+      </c>
+      <c r="J4" s="26">
+        <v>1</v>
+      </c>
+      <c r="K4" s="26">
+        <v>0</v>
+      </c>
+      <c r="L4" s="26">
+        <v>0</v>
+      </c>
+      <c r="M4" s="26">
+        <v>1</v>
+      </c>
+      <c r="N4" s="26">
+        <v>0</v>
+      </c>
+      <c r="O4" s="26">
+        <v>0</v>
+      </c>
+      <c r="P4" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="26">
+        <v>0</v>
+      </c>
+      <c r="R4" s="26">
+        <v>0</v>
+      </c>
+      <c r="S4" s="26">
+        <v>0</v>
+      </c>
+      <c r="T4" s="26">
+        <v>0</v>
+      </c>
+      <c r="U4" s="26">
+        <v>0</v>
+      </c>
+      <c r="V4" s="26">
+        <v>1</v>
+      </c>
+      <c r="W4" s="26">
+        <v>0</v>
+      </c>
+      <c r="X4" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A5" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="28">
+        <v>2</v>
+      </c>
+      <c r="C5" s="26">
+        <v>1</v>
+      </c>
+      <c r="D5" s="26">
+        <v>1</v>
+      </c>
+      <c r="E5" s="26">
+        <v>0</v>
+      </c>
+      <c r="F5" s="26">
+        <v>0</v>
+      </c>
+      <c r="G5" s="26">
+        <v>1</v>
+      </c>
+      <c r="H5" s="26">
+        <v>0</v>
+      </c>
+      <c r="I5" s="26">
+        <v>0</v>
+      </c>
+      <c r="J5" s="26">
+        <v>1</v>
+      </c>
+      <c r="K5" s="26">
+        <v>0</v>
+      </c>
+      <c r="L5" s="26">
+        <v>0</v>
+      </c>
+      <c r="M5" s="26">
+        <v>0</v>
+      </c>
+      <c r="N5" s="26">
+        <v>0</v>
+      </c>
+      <c r="O5" s="26">
+        <v>0</v>
+      </c>
+      <c r="P5" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="26">
+        <v>0</v>
+      </c>
+      <c r="R5" s="26">
+        <v>0</v>
+      </c>
+      <c r="S5" s="26">
+        <v>0</v>
+      </c>
+      <c r="T5" s="26">
+        <v>0</v>
+      </c>
+      <c r="U5" s="26">
+        <v>1</v>
+      </c>
+      <c r="V5" s="26">
+        <v>0</v>
+      </c>
+      <c r="W5" s="26">
+        <v>0</v>
+      </c>
+      <c r="X5" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A6" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="28">
+        <v>3</v>
+      </c>
+      <c r="C6" s="26">
+        <v>0</v>
+      </c>
+      <c r="D6" s="26">
+        <v>0</v>
+      </c>
+      <c r="E6" s="26">
+        <v>0</v>
+      </c>
+      <c r="F6" s="26">
+        <v>0</v>
+      </c>
+      <c r="G6" s="26">
+        <v>0</v>
+      </c>
+      <c r="H6" s="26">
+        <v>0</v>
+      </c>
+      <c r="I6" s="26">
+        <v>0</v>
+      </c>
+      <c r="J6" s="26">
+        <v>0</v>
+      </c>
+      <c r="K6" s="26">
+        <v>0</v>
+      </c>
+      <c r="L6" s="26">
+        <v>0</v>
+      </c>
+      <c r="M6" s="26">
+        <v>0</v>
+      </c>
+      <c r="N6" s="26">
+        <v>0</v>
+      </c>
+      <c r="O6" s="26">
+        <v>0</v>
+      </c>
+      <c r="P6" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="26">
+        <v>0</v>
+      </c>
+      <c r="R6" s="26">
+        <v>0</v>
+      </c>
+      <c r="S6" s="26">
+        <v>0</v>
+      </c>
+      <c r="T6" s="26">
+        <v>0</v>
+      </c>
+      <c r="U6" s="26">
+        <v>0</v>
+      </c>
+      <c r="V6" s="26">
+        <v>0</v>
+      </c>
+      <c r="W6" s="26">
+        <v>0</v>
+      </c>
+      <c r="X6" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A7" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="28">
+        <v>4</v>
+      </c>
+      <c r="C7" s="26">
+        <v>1</v>
+      </c>
+      <c r="D7" s="26">
+        <v>0</v>
+      </c>
+      <c r="E7" s="26">
+        <v>0</v>
+      </c>
+      <c r="F7" s="26">
+        <v>0</v>
+      </c>
+      <c r="G7" s="26">
+        <v>0</v>
+      </c>
+      <c r="H7" s="26">
+        <v>0</v>
+      </c>
+      <c r="I7" s="26">
+        <v>0</v>
+      </c>
+      <c r="J7" s="26">
+        <v>0</v>
+      </c>
+      <c r="K7" s="26">
+        <v>0</v>
+      </c>
+      <c r="L7" s="26">
+        <v>0</v>
+      </c>
+      <c r="M7" s="26">
+        <v>0</v>
+      </c>
+      <c r="N7" s="26">
+        <v>0</v>
+      </c>
+      <c r="O7" s="26">
+        <v>0</v>
+      </c>
+      <c r="P7" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="26">
+        <v>0</v>
+      </c>
+      <c r="R7" s="26">
+        <v>0</v>
+      </c>
+      <c r="S7" s="26">
+        <v>0</v>
+      </c>
+      <c r="T7" s="26">
+        <v>0</v>
+      </c>
+      <c r="U7" s="26">
+        <v>0</v>
+      </c>
+      <c r="V7" s="26">
+        <v>0</v>
+      </c>
+      <c r="W7" s="26">
+        <v>0</v>
+      </c>
+      <c r="X7" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A8" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="28">
+        <v>5</v>
+      </c>
+      <c r="C8" s="26">
+        <v>2</v>
+      </c>
+      <c r="D8" s="26">
+        <v>0</v>
+      </c>
+      <c r="E8" s="26">
+        <v>2</v>
+      </c>
+      <c r="F8" s="26">
+        <v>0</v>
+      </c>
+      <c r="G8" s="26">
+        <v>0</v>
+      </c>
+      <c r="H8" s="26">
+        <v>0</v>
+      </c>
+      <c r="I8" s="26">
+        <v>2</v>
+      </c>
+      <c r="J8" s="26">
+        <v>0</v>
+      </c>
+      <c r="K8" s="26">
+        <v>0</v>
+      </c>
+      <c r="L8" s="26">
+        <v>2</v>
+      </c>
+      <c r="M8" s="26">
+        <v>0</v>
+      </c>
+      <c r="N8" s="26">
+        <v>0</v>
+      </c>
+      <c r="O8" s="26">
+        <v>0</v>
+      </c>
+      <c r="P8" s="26">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="26">
+        <v>0</v>
+      </c>
+      <c r="R8" s="26">
+        <v>0</v>
+      </c>
+      <c r="S8" s="26">
+        <v>2</v>
+      </c>
+      <c r="T8" s="26">
+        <v>0</v>
+      </c>
+      <c r="U8" s="26">
+        <v>0</v>
+      </c>
+      <c r="V8" s="26">
+        <v>0</v>
+      </c>
+      <c r="W8" s="26">
+        <v>2</v>
+      </c>
+      <c r="X8" s="26">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="26">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="26">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="26">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A9" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="28">
+        <v>6</v>
+      </c>
+      <c r="C9" s="26">
+        <v>0</v>
+      </c>
+      <c r="D9" s="26">
+        <v>0</v>
+      </c>
+      <c r="E9" s="26">
+        <v>1</v>
+      </c>
+      <c r="F9" s="26">
+        <v>0</v>
+      </c>
+      <c r="G9" s="26">
+        <v>1</v>
+      </c>
+      <c r="H9" s="26">
+        <v>0</v>
+      </c>
+      <c r="I9" s="26">
+        <v>0</v>
+      </c>
+      <c r="J9" s="26">
+        <v>0</v>
+      </c>
+      <c r="K9" s="26">
+        <v>0</v>
+      </c>
+      <c r="L9" s="26">
+        <v>0</v>
+      </c>
+      <c r="M9" s="26">
+        <v>1</v>
+      </c>
+      <c r="N9" s="26">
+        <v>0</v>
+      </c>
+      <c r="O9" s="26">
+        <v>0</v>
+      </c>
+      <c r="P9" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="26">
+        <v>0</v>
+      </c>
+      <c r="R9" s="26">
+        <v>0</v>
+      </c>
+      <c r="S9" s="26">
+        <v>0</v>
+      </c>
+      <c r="T9" s="26">
+        <v>0</v>
+      </c>
+      <c r="U9" s="26">
+        <v>0</v>
+      </c>
+      <c r="V9" s="26">
+        <v>0</v>
+      </c>
+      <c r="W9" s="26">
+        <v>0</v>
+      </c>
+      <c r="X9" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A10" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="28">
+        <v>7</v>
+      </c>
+      <c r="C10" s="26">
+        <v>0</v>
+      </c>
+      <c r="D10" s="26">
+        <v>1</v>
+      </c>
+      <c r="E10" s="26">
+        <v>1</v>
+      </c>
+      <c r="F10" s="26">
+        <v>0</v>
+      </c>
+      <c r="G10" s="26">
+        <v>0</v>
+      </c>
+      <c r="H10" s="26">
+        <v>0</v>
+      </c>
+      <c r="I10" s="26">
+        <v>0</v>
+      </c>
+      <c r="J10" s="26">
+        <v>1</v>
+      </c>
+      <c r="K10" s="26">
+        <v>0</v>
+      </c>
+      <c r="L10" s="26">
+        <v>0</v>
+      </c>
+      <c r="M10" s="26">
+        <v>0</v>
+      </c>
+      <c r="N10" s="26">
+        <v>0</v>
+      </c>
+      <c r="O10" s="26">
+        <v>0</v>
+      </c>
+      <c r="P10" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="26">
+        <v>0</v>
+      </c>
+      <c r="R10" s="26">
+        <v>0</v>
+      </c>
+      <c r="S10" s="26">
+        <v>0</v>
+      </c>
+      <c r="T10" s="26">
+        <v>0</v>
+      </c>
+      <c r="U10" s="26">
+        <v>1</v>
+      </c>
+      <c r="V10" s="26">
+        <v>1</v>
+      </c>
+      <c r="W10" s="26">
+        <v>0</v>
+      </c>
+      <c r="X10" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A11" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="28">
+        <v>8</v>
+      </c>
+      <c r="C11" s="26">
+        <v>0</v>
+      </c>
+      <c r="D11" s="26">
+        <v>0</v>
+      </c>
+      <c r="E11" s="26">
+        <v>0</v>
+      </c>
+      <c r="F11" s="26">
+        <v>3</v>
+      </c>
+      <c r="G11" s="26">
+        <v>0</v>
+      </c>
+      <c r="H11" s="26">
+        <v>0</v>
+      </c>
+      <c r="I11" s="26">
+        <v>0</v>
+      </c>
+      <c r="J11" s="26">
+        <v>0</v>
+      </c>
+      <c r="K11" s="26">
+        <v>2</v>
+      </c>
+      <c r="L11" s="26">
+        <v>0</v>
+      </c>
+      <c r="M11" s="26">
+        <v>0</v>
+      </c>
+      <c r="N11" s="26">
+        <v>0</v>
+      </c>
+      <c r="O11" s="26">
+        <v>0</v>
+      </c>
+      <c r="P11" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="26">
+        <v>0</v>
+      </c>
+      <c r="R11" s="26">
+        <v>2</v>
+      </c>
+      <c r="S11" s="26">
+        <v>0</v>
+      </c>
+      <c r="T11" s="26">
+        <v>2</v>
+      </c>
+      <c r="U11" s="26">
+        <v>0</v>
+      </c>
+      <c r="V11" s="26">
+        <v>0</v>
+      </c>
+      <c r="W11" s="26">
+        <v>0</v>
+      </c>
+      <c r="X11" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A12" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="28">
+        <v>9</v>
+      </c>
+      <c r="C12" s="26">
+        <v>2</v>
+      </c>
+      <c r="D12" s="26">
+        <v>0</v>
+      </c>
+      <c r="E12" s="26">
+        <v>0</v>
+      </c>
+      <c r="F12" s="26">
+        <v>0</v>
+      </c>
+      <c r="G12" s="26">
+        <v>0</v>
+      </c>
+      <c r="H12" s="26">
+        <v>2</v>
+      </c>
+      <c r="I12" s="26">
+        <v>2</v>
+      </c>
+      <c r="J12" s="26">
+        <v>0</v>
+      </c>
+      <c r="K12" s="26">
+        <v>0</v>
+      </c>
+      <c r="L12" s="26">
+        <v>0</v>
+      </c>
+      <c r="M12" s="26">
+        <v>0</v>
+      </c>
+      <c r="N12" s="26">
+        <v>0</v>
+      </c>
+      <c r="O12" s="26">
+        <v>0</v>
+      </c>
+      <c r="P12" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="26">
+        <v>0</v>
+      </c>
+      <c r="R12" s="26">
+        <v>0</v>
+      </c>
+      <c r="S12" s="26">
+        <v>0</v>
+      </c>
+      <c r="T12" s="26">
+        <v>0</v>
+      </c>
+      <c r="U12" s="26">
+        <v>0</v>
+      </c>
+      <c r="V12" s="26">
+        <v>0</v>
+      </c>
+      <c r="W12" s="26">
+        <v>0</v>
+      </c>
+      <c r="X12" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A13" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="28">
+        <v>10</v>
+      </c>
+      <c r="C13" s="26">
+        <v>0</v>
+      </c>
+      <c r="D13" s="26">
+        <v>1</v>
+      </c>
+      <c r="E13" s="26">
+        <v>0</v>
+      </c>
+      <c r="F13" s="26">
+        <v>0</v>
+      </c>
+      <c r="G13" s="26">
+        <v>1</v>
+      </c>
+      <c r="H13" s="26">
+        <v>0</v>
+      </c>
+      <c r="I13" s="26">
+        <v>0</v>
+      </c>
+      <c r="J13" s="26">
+        <v>0</v>
+      </c>
+      <c r="K13" s="26">
+        <v>0</v>
+      </c>
+      <c r="L13" s="26">
+        <v>0</v>
+      </c>
+      <c r="M13" s="26">
+        <v>0</v>
+      </c>
+      <c r="N13" s="26">
+        <v>2</v>
+      </c>
+      <c r="O13" s="26">
+        <v>1</v>
+      </c>
+      <c r="P13" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="26">
+        <v>0</v>
+      </c>
+      <c r="R13" s="26">
+        <v>0</v>
+      </c>
+      <c r="S13" s="26">
+        <v>0</v>
+      </c>
+      <c r="T13" s="26">
+        <v>0</v>
+      </c>
+      <c r="U13" s="26">
+        <v>0</v>
+      </c>
+      <c r="V13" s="26">
+        <v>0</v>
+      </c>
+      <c r="W13" s="26">
+        <v>0</v>
+      </c>
+      <c r="X13" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A14" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="28">
+        <v>11</v>
+      </c>
+      <c r="C14" s="26">
+        <v>1</v>
+      </c>
+      <c r="D14" s="26">
+        <v>0</v>
+      </c>
+      <c r="E14" s="26">
+        <v>1</v>
+      </c>
+      <c r="F14" s="26">
+        <v>1</v>
+      </c>
+      <c r="G14" s="26">
+        <v>0</v>
+      </c>
+      <c r="H14" s="26">
+        <v>0</v>
+      </c>
+      <c r="I14" s="26">
+        <v>0</v>
+      </c>
+      <c r="J14" s="26">
+        <v>0</v>
+      </c>
+      <c r="K14" s="26">
+        <v>0</v>
+      </c>
+      <c r="L14" s="26">
+        <v>0</v>
+      </c>
+      <c r="M14" s="26">
+        <v>0</v>
+      </c>
+      <c r="N14" s="26">
+        <v>0</v>
+      </c>
+      <c r="O14" s="26">
+        <v>0</v>
+      </c>
+      <c r="P14" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="26">
+        <v>0</v>
+      </c>
+      <c r="R14" s="26">
+        <v>0</v>
+      </c>
+      <c r="S14" s="26">
+        <v>0</v>
+      </c>
+      <c r="T14" s="26">
+        <v>0</v>
+      </c>
+      <c r="U14" s="26">
+        <v>0</v>
+      </c>
+      <c r="V14" s="26">
+        <v>0</v>
+      </c>
+      <c r="W14" s="26">
+        <v>0</v>
+      </c>
+      <c r="X14" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A15" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="28">
+        <v>12</v>
+      </c>
+      <c r="C15" s="26">
+        <v>1</v>
+      </c>
+      <c r="D15" s="26">
+        <v>0</v>
+      </c>
+      <c r="E15" s="26">
+        <v>0</v>
+      </c>
+      <c r="F15" s="26">
+        <v>0</v>
+      </c>
+      <c r="G15" s="26">
+        <v>0</v>
+      </c>
+      <c r="H15" s="26">
+        <v>0</v>
+      </c>
+      <c r="I15" s="26">
+        <v>0</v>
+      </c>
+      <c r="J15" s="26">
+        <v>0</v>
+      </c>
+      <c r="K15" s="26">
+        <v>0</v>
+      </c>
+      <c r="L15" s="26">
+        <v>0</v>
+      </c>
+      <c r="M15" s="26">
+        <v>0</v>
+      </c>
+      <c r="N15" s="26">
+        <v>0</v>
+      </c>
+      <c r="O15" s="26">
+        <v>0</v>
+      </c>
+      <c r="P15" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="26">
+        <v>1</v>
+      </c>
+      <c r="R15" s="26">
+        <v>0</v>
+      </c>
+      <c r="S15" s="26">
+        <v>0</v>
+      </c>
+      <c r="T15" s="26">
+        <v>0</v>
+      </c>
+      <c r="U15" s="26">
+        <v>0</v>
+      </c>
+      <c r="V15" s="26">
+        <v>0</v>
+      </c>
+      <c r="W15" s="26">
+        <v>0</v>
+      </c>
+      <c r="X15" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A16" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="28">
+        <v>13</v>
+      </c>
+      <c r="C16" s="26">
+        <v>1</v>
+      </c>
+      <c r="D16" s="26">
+        <v>0</v>
+      </c>
+      <c r="E16" s="26">
+        <v>0</v>
+      </c>
+      <c r="F16" s="26">
+        <v>0</v>
+      </c>
+      <c r="G16" s="26">
+        <v>0</v>
+      </c>
+      <c r="H16" s="26">
+        <v>0</v>
+      </c>
+      <c r="I16" s="26">
+        <v>0</v>
+      </c>
+      <c r="J16" s="26">
+        <v>0</v>
+      </c>
+      <c r="K16" s="26">
+        <v>0</v>
+      </c>
+      <c r="L16" s="26">
+        <v>0</v>
+      </c>
+      <c r="M16" s="26">
+        <v>0</v>
+      </c>
+      <c r="N16" s="26">
+        <v>0</v>
+      </c>
+      <c r="O16" s="26">
+        <v>0</v>
+      </c>
+      <c r="P16" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="26">
+        <v>0</v>
+      </c>
+      <c r="R16" s="26">
+        <v>0</v>
+      </c>
+      <c r="S16" s="26">
+        <v>0</v>
+      </c>
+      <c r="T16" s="26">
+        <v>0</v>
+      </c>
+      <c r="U16" s="26">
+        <v>0</v>
+      </c>
+      <c r="V16" s="26">
+        <v>0</v>
+      </c>
+      <c r="W16" s="26">
+        <v>0</v>
+      </c>
+      <c r="X16" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A17" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="28">
+        <v>14</v>
+      </c>
+      <c r="C17" s="26">
+        <v>0</v>
+      </c>
+      <c r="D17" s="26">
+        <v>1</v>
+      </c>
+      <c r="E17" s="26">
+        <v>0</v>
+      </c>
+      <c r="F17" s="26">
+        <v>1</v>
+      </c>
+      <c r="G17" s="26">
+        <v>0</v>
+      </c>
+      <c r="H17" s="26">
+        <v>0</v>
+      </c>
+      <c r="I17" s="26">
+        <v>0</v>
+      </c>
+      <c r="J17" s="26">
+        <v>0</v>
+      </c>
+      <c r="K17" s="26">
+        <v>0</v>
+      </c>
+      <c r="L17" s="26">
+        <v>0</v>
+      </c>
+      <c r="M17" s="26">
+        <v>0</v>
+      </c>
+      <c r="N17" s="26">
+        <v>0</v>
+      </c>
+      <c r="O17" s="26">
+        <v>0</v>
+      </c>
+      <c r="P17" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="26">
+        <v>1</v>
+      </c>
+      <c r="R17" s="26">
+        <v>0</v>
+      </c>
+      <c r="S17" s="26">
+        <v>0</v>
+      </c>
+      <c r="T17" s="26">
+        <v>0</v>
+      </c>
+      <c r="U17" s="26">
+        <v>0</v>
+      </c>
+      <c r="V17" s="26">
+        <v>0</v>
+      </c>
+      <c r="W17" s="26">
+        <v>0</v>
+      </c>
+      <c r="X17" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A18" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="28">
+        <v>15</v>
+      </c>
+      <c r="C18" s="26">
+        <v>0</v>
+      </c>
+      <c r="D18" s="26">
+        <v>0</v>
+      </c>
+      <c r="E18" s="26">
+        <v>0</v>
+      </c>
+      <c r="F18" s="26">
+        <v>0</v>
+      </c>
+      <c r="G18" s="26">
+        <v>0</v>
+      </c>
+      <c r="H18" s="26">
+        <v>0</v>
+      </c>
+      <c r="I18" s="26">
+        <v>0</v>
+      </c>
+      <c r="J18" s="26">
+        <v>0</v>
+      </c>
+      <c r="K18" s="26">
+        <v>0</v>
+      </c>
+      <c r="L18" s="26">
+        <v>0</v>
+      </c>
+      <c r="M18" s="26">
+        <v>0</v>
+      </c>
+      <c r="N18" s="26">
+        <v>0</v>
+      </c>
+      <c r="O18" s="26">
+        <v>0</v>
+      </c>
+      <c r="P18" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="26">
+        <v>0</v>
+      </c>
+      <c r="R18" s="26">
+        <v>0</v>
+      </c>
+      <c r="S18" s="26">
+        <v>0</v>
+      </c>
+      <c r="T18" s="26">
+        <v>0</v>
+      </c>
+      <c r="U18" s="26">
+        <v>0</v>
+      </c>
+      <c r="V18" s="26">
+        <v>0</v>
+      </c>
+      <c r="W18" s="26">
+        <v>0</v>
+      </c>
+      <c r="X18" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A19" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="28">
+        <v>16</v>
+      </c>
+      <c r="C19" s="26">
+        <v>0</v>
+      </c>
+      <c r="D19" s="26">
+        <v>0</v>
+      </c>
+      <c r="E19" s="26">
+        <v>0</v>
+      </c>
+      <c r="F19" s="26">
+        <v>0</v>
+      </c>
+      <c r="G19" s="26">
+        <v>0</v>
+      </c>
+      <c r="H19" s="26">
+        <v>0</v>
+      </c>
+      <c r="I19" s="26">
+        <v>0</v>
+      </c>
+      <c r="J19" s="26">
+        <v>0</v>
+      </c>
+      <c r="K19" s="26">
+        <v>0</v>
+      </c>
+      <c r="L19" s="26">
+        <v>0</v>
+      </c>
+      <c r="M19" s="26">
+        <v>0</v>
+      </c>
+      <c r="N19" s="26">
+        <v>0</v>
+      </c>
+      <c r="O19" s="26">
+        <v>0</v>
+      </c>
+      <c r="P19" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="26">
+        <v>0</v>
+      </c>
+      <c r="R19" s="26">
+        <v>0</v>
+      </c>
+      <c r="S19" s="26">
+        <v>0</v>
+      </c>
+      <c r="T19" s="26">
+        <v>0</v>
+      </c>
+      <c r="U19" s="26">
+        <v>0</v>
+      </c>
+      <c r="V19" s="26">
+        <v>0</v>
+      </c>
+      <c r="W19" s="26">
+        <v>0</v>
+      </c>
+      <c r="X19" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A20" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="28">
+        <v>17</v>
+      </c>
+      <c r="C20" s="26">
+        <v>0</v>
+      </c>
+      <c r="D20" s="26">
+        <v>1</v>
+      </c>
+      <c r="E20" s="26">
+        <v>0</v>
+      </c>
+      <c r="F20" s="26">
+        <v>0</v>
+      </c>
+      <c r="G20" s="26">
+        <v>1</v>
+      </c>
+      <c r="H20" s="26">
+        <v>0</v>
+      </c>
+      <c r="I20" s="26">
+        <v>0</v>
+      </c>
+      <c r="J20" s="26">
+        <v>0</v>
+      </c>
+      <c r="K20" s="26">
+        <v>0</v>
+      </c>
+      <c r="L20" s="26">
+        <v>0</v>
+      </c>
+      <c r="M20" s="26">
+        <v>0</v>
+      </c>
+      <c r="N20" s="26">
+        <v>0</v>
+      </c>
+      <c r="O20" s="26">
+        <v>1</v>
+      </c>
+      <c r="P20" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="26">
+        <v>0</v>
+      </c>
+      <c r="R20" s="26">
+        <v>0</v>
+      </c>
+      <c r="S20" s="26">
+        <v>0</v>
+      </c>
+      <c r="T20" s="26">
+        <v>0</v>
+      </c>
+      <c r="U20" s="26">
+        <v>0</v>
+      </c>
+      <c r="V20" s="26">
+        <v>0</v>
+      </c>
+      <c r="W20" s="26">
+        <v>0</v>
+      </c>
+      <c r="X20" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A21" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="28">
+        <v>18</v>
+      </c>
+      <c r="C21" s="26">
+        <v>0</v>
+      </c>
+      <c r="D21" s="26">
+        <v>0</v>
+      </c>
+      <c r="E21" s="26">
+        <v>0</v>
+      </c>
+      <c r="F21" s="26">
+        <v>0</v>
+      </c>
+      <c r="G21" s="26">
+        <v>0</v>
+      </c>
+      <c r="H21" s="26">
+        <v>0</v>
+      </c>
+      <c r="I21" s="26">
+        <v>0</v>
+      </c>
+      <c r="J21" s="26">
+        <v>0</v>
+      </c>
+      <c r="K21" s="26">
+        <v>0</v>
+      </c>
+      <c r="L21" s="26">
+        <v>0</v>
+      </c>
+      <c r="M21" s="26">
+        <v>0</v>
+      </c>
+      <c r="N21" s="26">
+        <v>0</v>
+      </c>
+      <c r="O21" s="26">
+        <v>0</v>
+      </c>
+      <c r="P21" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="26">
+        <v>0</v>
+      </c>
+      <c r="R21" s="26">
+        <v>0</v>
+      </c>
+      <c r="S21" s="26">
+        <v>0</v>
+      </c>
+      <c r="T21" s="26">
+        <v>0</v>
+      </c>
+      <c r="U21" s="26">
+        <v>0</v>
+      </c>
+      <c r="V21" s="26">
+        <v>0</v>
+      </c>
+      <c r="W21" s="26">
+        <v>0</v>
+      </c>
+      <c r="X21" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A22" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="28">
+        <v>19</v>
+      </c>
+      <c r="C22" s="26">
+        <v>0</v>
+      </c>
+      <c r="D22" s="26">
+        <v>0</v>
+      </c>
+      <c r="E22" s="26">
+        <v>0</v>
+      </c>
+      <c r="F22" s="26">
+        <v>0</v>
+      </c>
+      <c r="G22" s="26">
+        <v>1</v>
+      </c>
+      <c r="H22" s="26">
+        <v>0</v>
+      </c>
+      <c r="I22" s="26">
+        <v>0</v>
+      </c>
+      <c r="J22" s="26">
+        <v>0</v>
+      </c>
+      <c r="K22" s="26">
+        <v>0</v>
+      </c>
+      <c r="L22" s="26">
+        <v>0</v>
+      </c>
+      <c r="M22" s="26">
+        <v>0</v>
+      </c>
+      <c r="N22" s="26">
+        <v>0</v>
+      </c>
+      <c r="O22" s="26">
+        <v>0</v>
+      </c>
+      <c r="P22" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="26">
+        <v>0</v>
+      </c>
+      <c r="R22" s="26">
+        <v>0</v>
+      </c>
+      <c r="S22" s="26">
+        <v>0</v>
+      </c>
+      <c r="T22" s="26">
+        <v>0</v>
+      </c>
+      <c r="U22" s="26">
+        <v>0</v>
+      </c>
+      <c r="V22" s="26">
+        <v>0</v>
+      </c>
+      <c r="W22" s="26">
+        <v>0</v>
+      </c>
+      <c r="X22" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A23" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="28">
+        <v>20</v>
+      </c>
+      <c r="C23" s="26">
+        <v>0</v>
+      </c>
+      <c r="D23" s="26">
+        <v>0</v>
+      </c>
+      <c r="E23" s="26">
+        <v>0</v>
+      </c>
+      <c r="F23" s="26">
+        <v>0</v>
+      </c>
+      <c r="G23" s="26">
+        <v>0</v>
+      </c>
+      <c r="H23" s="26">
+        <v>1</v>
+      </c>
+      <c r="I23" s="26">
+        <v>0</v>
+      </c>
+      <c r="J23" s="26">
+        <v>0</v>
+      </c>
+      <c r="K23" s="26">
+        <v>0</v>
+      </c>
+      <c r="L23" s="26">
+        <v>0</v>
+      </c>
+      <c r="M23" s="26">
+        <v>0</v>
+      </c>
+      <c r="N23" s="26">
+        <v>0</v>
+      </c>
+      <c r="O23" s="26">
+        <v>0</v>
+      </c>
+      <c r="P23" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="26">
+        <v>0</v>
+      </c>
+      <c r="R23" s="26">
+        <v>0</v>
+      </c>
+      <c r="S23" s="26">
+        <v>0</v>
+      </c>
+      <c r="T23" s="26">
+        <v>0</v>
+      </c>
+      <c r="U23" s="26">
+        <v>0</v>
+      </c>
+      <c r="V23" s="26">
+        <v>0</v>
+      </c>
+      <c r="W23" s="26">
+        <v>0</v>
+      </c>
+      <c r="X23" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A24" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="28">
+        <v>21</v>
+      </c>
+      <c r="C24" s="26">
+        <v>0</v>
+      </c>
+      <c r="D24" s="26">
+        <v>0</v>
+      </c>
+      <c r="E24" s="26">
+        <v>0</v>
+      </c>
+      <c r="F24" s="26">
+        <v>0</v>
+      </c>
+      <c r="G24" s="26">
+        <v>0</v>
+      </c>
+      <c r="H24" s="26">
+        <v>1</v>
+      </c>
+      <c r="I24" s="26">
+        <v>0</v>
+      </c>
+      <c r="J24" s="26">
+        <v>0</v>
+      </c>
+      <c r="K24" s="26">
+        <v>0</v>
+      </c>
+      <c r="L24" s="26">
+        <v>0</v>
+      </c>
+      <c r="M24" s="26">
+        <v>0</v>
+      </c>
+      <c r="N24" s="26">
+        <v>0</v>
+      </c>
+      <c r="O24" s="26">
+        <v>0</v>
+      </c>
+      <c r="P24" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="26">
+        <v>0</v>
+      </c>
+      <c r="R24" s="26">
+        <v>0</v>
+      </c>
+      <c r="S24" s="26">
+        <v>0</v>
+      </c>
+      <c r="T24" s="26">
+        <v>0</v>
+      </c>
+      <c r="U24" s="26">
+        <v>0</v>
+      </c>
+      <c r="V24" s="26">
+        <v>0</v>
+      </c>
+      <c r="W24" s="26">
+        <v>0</v>
+      </c>
+      <c r="X24" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A25" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="28">
+        <v>22</v>
+      </c>
+      <c r="C25" s="26">
+        <v>0</v>
+      </c>
+      <c r="D25" s="26">
+        <v>0</v>
+      </c>
+      <c r="E25" s="26">
+        <v>0</v>
+      </c>
+      <c r="F25" s="26">
+        <v>0</v>
+      </c>
+      <c r="G25" s="26">
+        <v>1</v>
+      </c>
+      <c r="H25" s="26">
+        <v>0</v>
+      </c>
+      <c r="I25" s="26">
+        <v>0</v>
+      </c>
+      <c r="J25" s="26">
+        <v>0</v>
+      </c>
+      <c r="K25" s="26">
+        <v>0</v>
+      </c>
+      <c r="L25" s="26">
+        <v>0</v>
+      </c>
+      <c r="M25" s="26">
+        <v>0</v>
+      </c>
+      <c r="N25" s="26">
+        <v>0</v>
+      </c>
+      <c r="O25" s="26">
+        <v>0</v>
+      </c>
+      <c r="P25" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="26">
+        <v>0</v>
+      </c>
+      <c r="R25" s="26">
+        <v>0</v>
+      </c>
+      <c r="S25" s="26">
+        <v>0</v>
+      </c>
+      <c r="T25" s="26">
+        <v>0</v>
+      </c>
+      <c r="U25" s="26">
+        <v>0</v>
+      </c>
+      <c r="V25" s="26">
+        <v>0</v>
+      </c>
+      <c r="W25" s="26">
+        <v>0</v>
+      </c>
+      <c r="X25" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A26" s="61" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="29">
+        <v>23</v>
+      </c>
+      <c r="C26" s="30">
+        <v>1</v>
+      </c>
+      <c r="D26" s="30">
+        <v>0</v>
+      </c>
+      <c r="E26" s="30">
+        <v>0</v>
+      </c>
+      <c r="F26" s="30">
+        <v>0</v>
+      </c>
+      <c r="G26" s="30">
+        <v>0</v>
+      </c>
+      <c r="H26" s="30">
+        <v>0</v>
+      </c>
+      <c r="I26" s="30">
+        <v>0</v>
+      </c>
+      <c r="J26" s="30">
+        <v>0</v>
+      </c>
+      <c r="K26" s="30">
+        <v>0</v>
+      </c>
+      <c r="L26" s="30">
+        <v>0</v>
+      </c>
+      <c r="M26" s="30">
+        <v>0</v>
+      </c>
+      <c r="N26" s="30">
+        <v>0</v>
+      </c>
+      <c r="O26" s="30">
+        <v>0</v>
+      </c>
+      <c r="P26" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="30">
+        <v>0</v>
+      </c>
+      <c r="R26" s="30">
+        <v>0</v>
+      </c>
+      <c r="S26" s="30">
+        <v>0</v>
+      </c>
+      <c r="T26" s="30">
+        <v>0</v>
+      </c>
+      <c r="U26" s="30">
+        <v>0</v>
+      </c>
+      <c r="V26" s="30">
+        <v>0</v>
+      </c>
+      <c r="W26" s="30">
+        <v>0</v>
+      </c>
+      <c r="X26" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="G29" s="61"/>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="26"/>
+      <c r="AD30" s="26"/>
+      <c r="AE30" s="26"/>
+      <c r="AF30" s="26"/>
+      <c r="AG30" s="26"/>
+      <c r="AH30" s="26"/>
+      <c r="AI30" s="26"/>
+      <c r="AJ30" s="27"/>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A31" s="61"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="26"/>
+      <c r="AA31" s="26"/>
+      <c r="AB31" s="26"/>
+      <c r="AC31" s="26"/>
+      <c r="AD31" s="26"/>
+      <c r="AE31" s="26"/>
+      <c r="AF31" s="26"/>
+      <c r="AG31" s="26"/>
+      <c r="AH31" s="26"/>
+      <c r="AI31" s="26"/>
+      <c r="AJ31" s="27"/>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="C32" s="61"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="26"/>
+      <c r="Y32" s="26"/>
+      <c r="Z32" s="26"/>
+      <c r="AA32" s="26"/>
+      <c r="AB32" s="26"/>
+      <c r="AC32" s="26"/>
+      <c r="AD32" s="26"/>
+      <c r="AE32" s="26"/>
+      <c r="AF32" s="26"/>
+      <c r="AG32" s="26"/>
+      <c r="AH32" s="26"/>
+      <c r="AI32" s="26"/>
+      <c r="AJ32" s="27"/>
+    </row>
+    <row r="33" spans="9:36" x14ac:dyDescent="0.2">
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="26"/>
+      <c r="AD33" s="26"/>
+      <c r="AE33" s="26"/>
+      <c r="AF33" s="26"/>
+      <c r="AG33" s="26"/>
+      <c r="AH33" s="26"/>
+      <c r="AI33" s="26"/>
+      <c r="AJ33" s="27"/>
+    </row>
+    <row r="34" spans="9:36" x14ac:dyDescent="0.2">
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="26"/>
+      <c r="Y34" s="26"/>
+      <c r="Z34" s="26"/>
+      <c r="AA34" s="26"/>
+      <c r="AB34" s="26"/>
+      <c r="AC34" s="26"/>
+      <c r="AD34" s="26"/>
+      <c r="AE34" s="26"/>
+      <c r="AF34" s="26"/>
+      <c r="AG34" s="26"/>
+      <c r="AH34" s="26"/>
+      <c r="AI34" s="26"/>
+      <c r="AJ34" s="27"/>
+    </row>
+    <row r="35" spans="9:36" x14ac:dyDescent="0.2">
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="26"/>
+      <c r="Z35" s="26"/>
+      <c r="AA35" s="26"/>
+      <c r="AB35" s="26"/>
+      <c r="AC35" s="26"/>
+      <c r="AD35" s="26"/>
+      <c r="AE35" s="26"/>
+      <c r="AF35" s="26"/>
+      <c r="AG35" s="26"/>
+      <c r="AH35" s="26"/>
+      <c r="AI35" s="26"/>
+      <c r="AJ35" s="27"/>
+    </row>
+    <row r="36" spans="9:36" x14ac:dyDescent="0.2">
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="26"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="26"/>
+      <c r="Y36" s="26"/>
+      <c r="Z36" s="26"/>
+      <c r="AA36" s="26"/>
+      <c r="AB36" s="26"/>
+      <c r="AC36" s="26"/>
+      <c r="AD36" s="26"/>
+      <c r="AE36" s="26"/>
+      <c r="AF36" s="26"/>
+      <c r="AG36" s="26"/>
+      <c r="AH36" s="26"/>
+      <c r="AI36" s="26"/>
+      <c r="AJ36" s="27"/>
+    </row>
+    <row r="37" spans="9:36" x14ac:dyDescent="0.2">
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="26"/>
+      <c r="W37" s="26"/>
+      <c r="X37" s="26"/>
+      <c r="Y37" s="26"/>
+      <c r="Z37" s="26"/>
+      <c r="AA37" s="26"/>
+      <c r="AB37" s="26"/>
+      <c r="AC37" s="26"/>
+      <c r="AD37" s="26"/>
+      <c r="AE37" s="26"/>
+      <c r="AF37" s="26"/>
+      <c r="AG37" s="26"/>
+      <c r="AH37" s="26"/>
+      <c r="AI37" s="26"/>
+      <c r="AJ37" s="27"/>
+    </row>
+    <row r="38" spans="9:36" x14ac:dyDescent="0.2">
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="26"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="26"/>
+      <c r="W38" s="26"/>
+      <c r="X38" s="26"/>
+      <c r="Y38" s="26"/>
+      <c r="Z38" s="26"/>
+      <c r="AA38" s="26"/>
+      <c r="AB38" s="26"/>
+      <c r="AC38" s="26"/>
+      <c r="AD38" s="26"/>
+      <c r="AE38" s="26"/>
+      <c r="AF38" s="26"/>
+      <c r="AG38" s="26"/>
+      <c r="AH38" s="26"/>
+      <c r="AI38" s="26"/>
+      <c r="AJ38" s="27"/>
+    </row>
+    <row r="39" spans="9:36" x14ac:dyDescent="0.2">
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="26"/>
+      <c r="W39" s="26"/>
+      <c r="X39" s="26"/>
+      <c r="Y39" s="26"/>
+      <c r="Z39" s="26"/>
+      <c r="AA39" s="26"/>
+      <c r="AB39" s="26"/>
+      <c r="AC39" s="26"/>
+      <c r="AD39" s="26"/>
+      <c r="AE39" s="26"/>
+      <c r="AF39" s="26"/>
+      <c r="AG39" s="26"/>
+      <c r="AH39" s="26"/>
+      <c r="AI39" s="26"/>
+      <c r="AJ39" s="27"/>
+    </row>
+    <row r="40" spans="9:36" x14ac:dyDescent="0.2">
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="26"/>
+      <c r="S40" s="26"/>
+      <c r="T40" s="26"/>
+      <c r="U40" s="26"/>
+      <c r="V40" s="26"/>
+      <c r="W40" s="26"/>
+      <c r="X40" s="26"/>
+      <c r="Y40" s="26"/>
+      <c r="Z40" s="26"/>
+      <c r="AA40" s="26"/>
+      <c r="AB40" s="26"/>
+      <c r="AC40" s="26"/>
+      <c r="AD40" s="26"/>
+      <c r="AE40" s="26"/>
+      <c r="AF40" s="26"/>
+      <c r="AG40" s="26"/>
+      <c r="AH40" s="26"/>
+      <c r="AI40" s="26"/>
+      <c r="AJ40" s="27"/>
+    </row>
+    <row r="41" spans="9:36" x14ac:dyDescent="0.2">
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="26"/>
+      <c r="U41" s="26"/>
+      <c r="V41" s="26"/>
+      <c r="W41" s="26"/>
+      <c r="X41" s="26"/>
+      <c r="Y41" s="26"/>
+      <c r="Z41" s="26"/>
+      <c r="AA41" s="26"/>
+      <c r="AB41" s="26"/>
+      <c r="AC41" s="26"/>
+      <c r="AD41" s="26"/>
+      <c r="AE41" s="26"/>
+      <c r="AF41" s="26"/>
+      <c r="AG41" s="26"/>
+      <c r="AH41" s="26"/>
+      <c r="AI41" s="26"/>
+      <c r="AJ41" s="27"/>
+    </row>
+    <row r="42" spans="9:36" x14ac:dyDescent="0.2">
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="26"/>
+      <c r="U42" s="26"/>
+      <c r="V42" s="26"/>
+      <c r="W42" s="26"/>
+      <c r="X42" s="26"/>
+      <c r="Y42" s="26"/>
+      <c r="Z42" s="26"/>
+      <c r="AA42" s="26"/>
+      <c r="AB42" s="26"/>
+      <c r="AC42" s="26"/>
+      <c r="AD42" s="26"/>
+      <c r="AE42" s="26"/>
+      <c r="AF42" s="26"/>
+      <c r="AG42" s="26"/>
+      <c r="AH42" s="26"/>
+      <c r="AI42" s="26"/>
+      <c r="AJ42" s="27"/>
+    </row>
+    <row r="43" spans="9:36" x14ac:dyDescent="0.2">
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="26"/>
+      <c r="T43" s="26"/>
+      <c r="U43" s="26"/>
+      <c r="V43" s="26"/>
+      <c r="W43" s="26"/>
+      <c r="X43" s="26"/>
+      <c r="Y43" s="26"/>
+      <c r="Z43" s="26"/>
+      <c r="AA43" s="26"/>
+      <c r="AB43" s="26"/>
+      <c r="AC43" s="26"/>
+      <c r="AD43" s="26"/>
+      <c r="AE43" s="26"/>
+      <c r="AF43" s="26"/>
+      <c r="AG43" s="26"/>
+      <c r="AH43" s="26"/>
+      <c r="AI43" s="26"/>
+      <c r="AJ43" s="27"/>
+    </row>
+    <row r="44" spans="9:36" x14ac:dyDescent="0.2">
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
+      <c r="S44" s="26"/>
+      <c r="T44" s="26"/>
+      <c r="U44" s="26"/>
+      <c r="V44" s="26"/>
+      <c r="W44" s="26"/>
+      <c r="X44" s="26"/>
+      <c r="Y44" s="26"/>
+      <c r="Z44" s="26"/>
+      <c r="AA44" s="26"/>
+      <c r="AB44" s="26"/>
+      <c r="AC44" s="26"/>
+      <c r="AD44" s="26"/>
+      <c r="AE44" s="26"/>
+      <c r="AF44" s="26"/>
+      <c r="AG44" s="26"/>
+      <c r="AH44" s="26"/>
+      <c r="AI44" s="26"/>
+      <c r="AJ44" s="27"/>
+    </row>
+    <row r="45" spans="9:36" x14ac:dyDescent="0.2">
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="26"/>
+      <c r="S45" s="26"/>
+      <c r="T45" s="26"/>
+      <c r="U45" s="26"/>
+      <c r="V45" s="26"/>
+      <c r="W45" s="26"/>
+      <c r="X45" s="26"/>
+      <c r="Y45" s="26"/>
+      <c r="Z45" s="26"/>
+      <c r="AA45" s="26"/>
+      <c r="AB45" s="26"/>
+      <c r="AC45" s="26"/>
+      <c r="AD45" s="26"/>
+      <c r="AE45" s="26"/>
+      <c r="AF45" s="26"/>
+      <c r="AG45" s="26"/>
+      <c r="AH45" s="26"/>
+      <c r="AI45" s="26"/>
+      <c r="AJ45" s="27"/>
+    </row>
+    <row r="46" spans="9:36" x14ac:dyDescent="0.2">
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="26"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="26"/>
+      <c r="Q46" s="26"/>
+      <c r="R46" s="26"/>
+      <c r="S46" s="26"/>
+      <c r="T46" s="26"/>
+      <c r="U46" s="26"/>
+      <c r="V46" s="26"/>
+      <c r="W46" s="26"/>
+      <c r="X46" s="26"/>
+      <c r="Y46" s="26"/>
+      <c r="Z46" s="26"/>
+      <c r="AA46" s="26"/>
+      <c r="AB46" s="26"/>
+      <c r="AC46" s="26"/>
+      <c r="AD46" s="26"/>
+      <c r="AE46" s="26"/>
+      <c r="AF46" s="26"/>
+      <c r="AG46" s="26"/>
+      <c r="AH46" s="26"/>
+      <c r="AI46" s="26"/>
+      <c r="AJ46" s="27"/>
+    </row>
+    <row r="47" spans="9:36" x14ac:dyDescent="0.2">
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="26"/>
+      <c r="R47" s="26"/>
+      <c r="S47" s="26"/>
+      <c r="T47" s="26"/>
+      <c r="U47" s="26"/>
+      <c r="V47" s="26"/>
+      <c r="W47" s="26"/>
+      <c r="X47" s="26"/>
+      <c r="Y47" s="26"/>
+      <c r="Z47" s="26"/>
+      <c r="AA47" s="26"/>
+      <c r="AB47" s="26"/>
+      <c r="AC47" s="26"/>
+      <c r="AD47" s="26"/>
+      <c r="AE47" s="26"/>
+      <c r="AF47" s="26"/>
+      <c r="AG47" s="26"/>
+      <c r="AH47" s="26"/>
+      <c r="AI47" s="26"/>
+      <c r="AJ47" s="27"/>
+    </row>
+    <row r="48" spans="9:36" x14ac:dyDescent="0.2">
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="26"/>
+      <c r="R48" s="26"/>
+      <c r="S48" s="26"/>
+      <c r="T48" s="26"/>
+      <c r="U48" s="26"/>
+      <c r="V48" s="26"/>
+      <c r="W48" s="26"/>
+      <c r="X48" s="26"/>
+      <c r="Y48" s="26"/>
+      <c r="Z48" s="26"/>
+      <c r="AA48" s="26"/>
+      <c r="AB48" s="26"/>
+      <c r="AC48" s="26"/>
+      <c r="AD48" s="26"/>
+      <c r="AE48" s="26"/>
+      <c r="AF48" s="26"/>
+      <c r="AG48" s="26"/>
+      <c r="AH48" s="26"/>
+      <c r="AI48" s="26"/>
+      <c r="AJ48" s="27"/>
+    </row>
+    <row r="49" spans="9:36" x14ac:dyDescent="0.2">
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="26"/>
+      <c r="Q49" s="26"/>
+      <c r="R49" s="26"/>
+      <c r="S49" s="26"/>
+      <c r="T49" s="26"/>
+      <c r="U49" s="26"/>
+      <c r="V49" s="26"/>
+      <c r="W49" s="26"/>
+      <c r="X49" s="26"/>
+      <c r="Y49" s="26"/>
+      <c r="Z49" s="26"/>
+      <c r="AA49" s="26"/>
+      <c r="AB49" s="26"/>
+      <c r="AC49" s="26"/>
+      <c r="AD49" s="26"/>
+      <c r="AE49" s="26"/>
+      <c r="AF49" s="26"/>
+      <c r="AG49" s="26"/>
+      <c r="AH49" s="26"/>
+      <c r="AI49" s="26"/>
+      <c r="AJ49" s="27"/>
+    </row>
+    <row r="50" spans="9:36" x14ac:dyDescent="0.2">
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="26"/>
+      <c r="Q50" s="26"/>
+      <c r="R50" s="26"/>
+      <c r="S50" s="26"/>
+      <c r="T50" s="26"/>
+      <c r="U50" s="26"/>
+      <c r="V50" s="26"/>
+      <c r="W50" s="26"/>
+      <c r="X50" s="26"/>
+      <c r="Y50" s="26"/>
+      <c r="Z50" s="26"/>
+      <c r="AA50" s="26"/>
+      <c r="AB50" s="26"/>
+      <c r="AC50" s="26"/>
+      <c r="AD50" s="26"/>
+      <c r="AE50" s="26"/>
+      <c r="AF50" s="26"/>
+      <c r="AG50" s="26"/>
+      <c r="AH50" s="26"/>
+      <c r="AI50" s="26"/>
+      <c r="AJ50" s="27"/>
+    </row>
+    <row r="51" spans="9:36" x14ac:dyDescent="0.2">
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="26"/>
+      <c r="S51" s="26"/>
+      <c r="T51" s="26"/>
+      <c r="U51" s="26"/>
+      <c r="V51" s="26"/>
+      <c r="W51" s="26"/>
+      <c r="X51" s="26"/>
+      <c r="Y51" s="26"/>
+      <c r="Z51" s="26"/>
+      <c r="AA51" s="26"/>
+      <c r="AB51" s="26"/>
+      <c r="AC51" s="26"/>
+      <c r="AD51" s="26"/>
+      <c r="AE51" s="26"/>
+      <c r="AF51" s="26"/>
+      <c r="AG51" s="26"/>
+      <c r="AH51" s="26"/>
+      <c r="AI51" s="26"/>
+      <c r="AJ51" s="27"/>
+    </row>
+    <row r="52" spans="9:36" x14ac:dyDescent="0.2">
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="26"/>
+      <c r="P52" s="26"/>
+      <c r="Q52" s="26"/>
+      <c r="R52" s="26"/>
+      <c r="S52" s="26"/>
+      <c r="T52" s="26"/>
+      <c r="U52" s="26"/>
+      <c r="V52" s="26"/>
+      <c r="W52" s="26"/>
+      <c r="X52" s="26"/>
+      <c r="Y52" s="26"/>
+      <c r="Z52" s="26"/>
+      <c r="AA52" s="26"/>
+      <c r="AB52" s="26"/>
+      <c r="AC52" s="26"/>
+      <c r="AD52" s="26"/>
+      <c r="AE52" s="26"/>
+      <c r="AF52" s="26"/>
+      <c r="AG52" s="26"/>
+      <c r="AH52" s="26"/>
+      <c r="AI52" s="26"/>
+      <c r="AJ52" s="27"/>
+    </row>
+    <row r="53" spans="9:36" x14ac:dyDescent="0.2">
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="26"/>
+      <c r="P53" s="26"/>
+      <c r="Q53" s="26"/>
+      <c r="R53" s="26"/>
+      <c r="S53" s="26"/>
+      <c r="T53" s="26"/>
+      <c r="U53" s="26"/>
+      <c r="V53" s="26"/>
+      <c r="W53" s="26"/>
+      <c r="X53" s="26"/>
+      <c r="Y53" s="26"/>
+      <c r="Z53" s="26"/>
+      <c r="AA53" s="26"/>
+      <c r="AB53" s="26"/>
+      <c r="AC53" s="26"/>
+      <c r="AD53" s="26"/>
+      <c r="AE53" s="26"/>
+      <c r="AF53" s="26"/>
+      <c r="AG53" s="26"/>
+      <c r="AH53" s="26"/>
+      <c r="AI53" s="26"/>
+      <c r="AJ53" s="27"/>
+    </row>
+    <row r="54" spans="9:36" x14ac:dyDescent="0.2">
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="26"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="26"/>
+      <c r="P54" s="26"/>
+      <c r="Q54" s="26"/>
+      <c r="R54" s="26"/>
+      <c r="S54" s="26"/>
+      <c r="T54" s="26"/>
+      <c r="U54" s="26"/>
+      <c r="V54" s="26"/>
+      <c r="W54" s="26"/>
+      <c r="X54" s="26"/>
+      <c r="Y54" s="26"/>
+      <c r="Z54" s="26"/>
+      <c r="AA54" s="26"/>
+      <c r="AB54" s="26"/>
+      <c r="AC54" s="26"/>
+      <c r="AD54" s="26"/>
+      <c r="AE54" s="26"/>
+      <c r="AF54" s="26"/>
+      <c r="AG54" s="26"/>
+      <c r="AH54" s="26"/>
+      <c r="AI54" s="26"/>
+      <c r="AJ54" s="27"/>
+    </row>
+    <row r="55" spans="9:36" x14ac:dyDescent="0.2">
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="26"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="26"/>
+      <c r="P55" s="26"/>
+      <c r="Q55" s="26"/>
+      <c r="R55" s="26"/>
+      <c r="S55" s="26"/>
+      <c r="T55" s="26"/>
+      <c r="U55" s="26"/>
+      <c r="V55" s="26"/>
+      <c r="W55" s="26"/>
+      <c r="X55" s="26"/>
+      <c r="Y55" s="26"/>
+      <c r="Z55" s="26"/>
+      <c r="AA55" s="26"/>
+      <c r="AB55" s="26"/>
+      <c r="AC55" s="26"/>
+      <c r="AD55" s="26"/>
+      <c r="AE55" s="26"/>
+      <c r="AF55" s="26"/>
+      <c r="AG55" s="26"/>
+      <c r="AH55" s="26"/>
+      <c r="AI55" s="26"/>
+      <c r="AJ55" s="27"/>
+    </row>
+    <row r="56" spans="9:36" x14ac:dyDescent="0.2">
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="26"/>
+      <c r="N56" s="26"/>
+      <c r="O56" s="26"/>
+      <c r="P56" s="26"/>
+      <c r="Q56" s="26"/>
+      <c r="R56" s="26"/>
+      <c r="S56" s="26"/>
+      <c r="T56" s="26"/>
+      <c r="U56" s="26"/>
+      <c r="V56" s="26"/>
+      <c r="W56" s="26"/>
+      <c r="X56" s="26"/>
+      <c r="Y56" s="26"/>
+      <c r="Z56" s="26"/>
+      <c r="AA56" s="26"/>
+      <c r="AB56" s="26"/>
+      <c r="AC56" s="26"/>
+      <c r="AD56" s="26"/>
+      <c r="AE56" s="26"/>
+      <c r="AF56" s="26"/>
+      <c r="AG56" s="26"/>
+      <c r="AH56" s="26"/>
+      <c r="AI56" s="26"/>
+      <c r="AJ56" s="27"/>
+    </row>
+    <row r="57" spans="9:36" x14ac:dyDescent="0.2">
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="26"/>
+      <c r="N57" s="26"/>
+      <c r="O57" s="26"/>
+      <c r="P57" s="26"/>
+      <c r="Q57" s="26"/>
+      <c r="R57" s="26"/>
+      <c r="S57" s="26"/>
+      <c r="T57" s="26"/>
+      <c r="U57" s="26"/>
+      <c r="V57" s="26"/>
+      <c r="W57" s="26"/>
+      <c r="X57" s="26"/>
+      <c r="Y57" s="26"/>
+      <c r="Z57" s="26"/>
+      <c r="AA57" s="26"/>
+      <c r="AB57" s="26"/>
+      <c r="AC57" s="26"/>
+      <c r="AD57" s="26"/>
+      <c r="AE57" s="26"/>
+      <c r="AF57" s="26"/>
+      <c r="AG57" s="26"/>
+      <c r="AH57" s="26"/>
+      <c r="AI57" s="26"/>
+      <c r="AJ57" s="27"/>
+    </row>
+    <row r="58" spans="9:36" x14ac:dyDescent="0.2">
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="26"/>
+      <c r="N58" s="26"/>
+      <c r="O58" s="26"/>
+      <c r="P58" s="26"/>
+      <c r="Q58" s="26"/>
+      <c r="R58" s="26"/>
+      <c r="S58" s="26"/>
+      <c r="T58" s="26"/>
+      <c r="U58" s="26"/>
+      <c r="V58" s="26"/>
+      <c r="W58" s="26"/>
+      <c r="X58" s="26"/>
+      <c r="Y58" s="26"/>
+      <c r="Z58" s="26"/>
+      <c r="AA58" s="26"/>
+      <c r="AB58" s="26"/>
+      <c r="AC58" s="26"/>
+      <c r="AD58" s="26"/>
+      <c r="AE58" s="26"/>
+      <c r="AF58" s="26"/>
+      <c r="AG58" s="26"/>
+      <c r="AH58" s="26"/>
+      <c r="AI58" s="26"/>
+      <c r="AJ58" s="27"/>
+    </row>
+    <row r="59" spans="9:36" x14ac:dyDescent="0.2">
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="30"/>
+      <c r="M59" s="30"/>
+      <c r="N59" s="30"/>
+      <c r="O59" s="30"/>
+      <c r="P59" s="30"/>
+      <c r="Q59" s="30"/>
+      <c r="R59" s="30"/>
+      <c r="S59" s="30"/>
+      <c r="T59" s="30"/>
+      <c r="U59" s="30"/>
+      <c r="V59" s="30"/>
+      <c r="W59" s="30"/>
+      <c r="X59" s="30"/>
+      <c r="Y59" s="30"/>
+      <c r="Z59" s="30"/>
+      <c r="AA59" s="30"/>
+      <c r="AB59" s="30"/>
+      <c r="AC59" s="30"/>
+      <c r="AD59" s="30"/>
+      <c r="AE59" s="30"/>
+      <c r="AF59" s="30"/>
+      <c r="AG59" s="30"/>
+      <c r="AH59" s="30"/>
+      <c r="AI59" s="30"/>
+      <c r="AJ59" s="31"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="I30:AJ59">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:AD26">
+    <cfRule type="colorScale" priority="191">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" display="http://paperpile.com/b/1wOVeT/8d4G" xr:uid="{4951C1D9-53DD-B745-AA27-0E9DA9471536}"/>
+    <hyperlink ref="A5" r:id="rId2" display="http://paperpile.com/b/1wOVeT/h2aT" xr:uid="{B167E0D6-24A7-F541-8ECA-457A41BFE03E}"/>
+    <hyperlink ref="A6" r:id="rId3" display="http://paperpile.com/b/1wOVeT/XMqD" xr:uid="{7BD44C6A-12CB-D248-9108-F93BCE415493}"/>
+    <hyperlink ref="A7" r:id="rId4" display="http://paperpile.com/b/1wOVeT/X8tw" xr:uid="{60F62488-4B22-5444-9638-7B6C0FA133D8}"/>
+    <hyperlink ref="A8" r:id="rId5" display="http://paperpile.com/b/1wOVeT/4RBS" xr:uid="{9CA68FB3-443B-A249-BD0C-9E998E8E0B66}"/>
+    <hyperlink ref="A9" r:id="rId6" display="http://paperpile.com/b/1wOVeT/1NTH" xr:uid="{7A963120-6636-B643-BE30-560C40F288AD}"/>
+    <hyperlink ref="A10" r:id="rId7" display="http://paperpile.com/b/1wOVeT/TJrC" xr:uid="{C29517B1-6ED6-2148-8F1A-76897756E2D4}"/>
+    <hyperlink ref="A11" r:id="rId8" display="http://paperpile.com/b/1wOVeT/6D3E" xr:uid="{51EBF90B-825C-0D4D-B233-C7F8652EFF05}"/>
+    <hyperlink ref="A12" r:id="rId9" display="http://paperpile.com/b/1wOVeT/MXnQ" xr:uid="{5E147F74-F2C1-4F4F-BC42-41A905C84A85}"/>
+    <hyperlink ref="A13" r:id="rId10" display="http://paperpile.com/b/1wOVeT/Y4dR" xr:uid="{2D9D4D6B-7C05-5E4B-A2BE-784ACB31B7A2}"/>
+    <hyperlink ref="A14" r:id="rId11" display="http://paperpile.com/b/1wOVeT/0oy6" xr:uid="{787CD5C7-C613-084A-9284-B5B65A1445FF}"/>
+    <hyperlink ref="A15" r:id="rId12" display="http://paperpile.com/b/1wOVeT/vKED" xr:uid="{19E0382B-3CE7-5142-A09E-EFB42F4ADE67}"/>
+    <hyperlink ref="A16" r:id="rId13" display="http://paperpile.com/b/1wOVeT/STf5" xr:uid="{EEEEC4E2-E8E4-6D47-B2F9-DAA8A1088539}"/>
+    <hyperlink ref="A17" r:id="rId14" display="http://paperpile.com/b/1wOVeT/ME0w" xr:uid="{AAC5A226-F126-FC4A-BDE7-A57AC453D16E}"/>
+    <hyperlink ref="A18" r:id="rId15" display="http://paperpile.com/b/1wOVeT/YmQi" xr:uid="{1FC8712E-D671-BB48-8957-F08E8B21A798}"/>
+    <hyperlink ref="A19" r:id="rId16" display="http://paperpile.com/b/1wOVeT/ksI0" xr:uid="{37176F2D-5282-4A41-BB20-3CFA48A1FBB6}"/>
+    <hyperlink ref="A20" r:id="rId17" display="http://paperpile.com/b/1wOVeT/hTJ7" xr:uid="{9FD9968F-F511-8845-B77C-3107E8AC218C}"/>
+    <hyperlink ref="A21" r:id="rId18" display="http://paperpile.com/b/1wOVeT/qcmL" xr:uid="{BC211E09-78CD-034B-9A0D-F58D2BB7A865}"/>
+    <hyperlink ref="A22" r:id="rId19" display="http://paperpile.com/b/1wOVeT/lmlQ" xr:uid="{520796E0-A5E2-634A-80D6-242A65E1ED20}"/>
+    <hyperlink ref="A23" r:id="rId20" display="http://paperpile.com/b/1wOVeT/Z6ez" xr:uid="{896A4EBE-04E3-9E41-8F51-1F1FFBAE8D5C}"/>
+    <hyperlink ref="A24" r:id="rId21" display="http://paperpile.com/b/1wOVeT/FQfs" xr:uid="{EC0001BD-BDFD-4941-BD8F-1486416AEA17}"/>
+    <hyperlink ref="A25" r:id="rId22" display="http://paperpile.com/b/1wOVeT/wduP" xr:uid="{77FAEFF8-29F8-1044-B2FF-832F30AEDB00}"/>
+    <hyperlink ref="A26" r:id="rId23" display="http://paperpile.com/b/1wOVeT/Lw0k" xr:uid="{6D47DF9E-DC94-D247-8ECB-0042BF4A00EB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB7B01C-4BC8-CE45-B092-DE06B60C5EC6}">
   <dimension ref="A1:AC14"/>
   <sheetViews>
@@ -13319,12 +16704,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677D7F9D-167C-3649-B90B-D35B9C584F30}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="A1:F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
